--- a/AAII_Financials/Yearly/GDS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GDS_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,75 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>400600</v>
+        <v>577000</v>
       </c>
       <c r="E8" s="3">
-        <v>231900</v>
+        <v>390800</v>
       </c>
       <c r="F8" s="3">
-        <v>151500</v>
+        <v>226200</v>
       </c>
       <c r="G8" s="3">
-        <v>101000</v>
+        <v>147800</v>
       </c>
       <c r="H8" s="3">
-        <v>67200</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>98500</v>
+      </c>
+      <c r="I8" s="3">
+        <v>65500</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -738,29 +741,32 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>311300</v>
+        <v>431000</v>
       </c>
       <c r="E9" s="3">
-        <v>173300</v>
+        <v>303700</v>
       </c>
       <c r="F9" s="3">
-        <v>113400</v>
+        <v>169000</v>
       </c>
       <c r="G9" s="3">
-        <v>73900</v>
+        <v>110600</v>
       </c>
       <c r="H9" s="3">
-        <v>55700</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+        <v>72100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>54300</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -768,29 +774,32 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>89300</v>
+        <v>145900</v>
       </c>
       <c r="E10" s="3">
-        <v>58600</v>
+        <v>87100</v>
       </c>
       <c r="F10" s="3">
-        <v>38100</v>
+        <v>57200</v>
       </c>
       <c r="G10" s="3">
-        <v>27100</v>
+        <v>37200</v>
       </c>
       <c r="H10" s="3">
-        <v>11500</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+        <v>26400</v>
+      </c>
+      <c r="I10" s="3">
+        <v>11200</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,38 +825,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E12" s="3">
         <v>1900</v>
       </c>
-      <c r="E12" s="3">
-        <v>1000</v>
-      </c>
       <c r="F12" s="3">
+        <v>900</v>
+      </c>
+      <c r="G12" s="3">
         <v>1200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,9 +888,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -902,39 +921,45 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="E15" s="3">
         <v>1100</v>
       </c>
       <c r="F15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="3">
         <v>900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1000</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,28 +969,29 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>376500</v>
+        <v>509800</v>
       </c>
       <c r="E17" s="3">
-        <v>220100</v>
+        <v>367200</v>
       </c>
       <c r="F17" s="3">
-        <v>157600</v>
+        <v>214700</v>
       </c>
       <c r="G17" s="3">
-        <v>101100</v>
+        <v>153700</v>
       </c>
       <c r="H17" s="3">
-        <v>78100</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>98700</v>
+      </c>
+      <c r="I17" s="3">
+        <v>76100</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -973,29 +999,32 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>24200</v>
+        <v>67200</v>
       </c>
       <c r="E18" s="3">
-        <v>11800</v>
+        <v>23600</v>
       </c>
       <c r="F18" s="3">
-        <v>-6100</v>
+        <v>11500</v>
       </c>
       <c r="G18" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
-        <v>-10900</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+      <c r="I18" s="3">
+        <v>-10600</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,28 +1050,29 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6900</v>
+        <v>8700</v>
       </c>
       <c r="E20" s="3">
-        <v>-500</v>
+        <v>6700</v>
       </c>
       <c r="F20" s="3">
-        <v>3300</v>
+        <v>-400</v>
       </c>
       <c r="G20" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H20" s="3">
         <v>2500</v>
       </c>
-      <c r="H20" s="3">
-        <v>10500</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>10200</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1047,29 +1080,32 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>137400</v>
+        <v>235200</v>
       </c>
       <c r="E21" s="3">
-        <v>65600</v>
+        <v>133800</v>
       </c>
       <c r="F21" s="3">
-        <v>29800</v>
+        <v>63800</v>
       </c>
       <c r="G21" s="3">
-        <v>23200</v>
+        <v>29000</v>
       </c>
       <c r="H21" s="3">
-        <v>11500</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>22600</v>
+      </c>
+      <c r="I21" s="3">
+        <v>11200</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1077,29 +1113,32 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>94100</v>
+        <v>135600</v>
       </c>
       <c r="E22" s="3">
-        <v>59100</v>
+        <v>91800</v>
       </c>
       <c r="F22" s="3">
-        <v>38100</v>
+        <v>57700</v>
       </c>
       <c r="G22" s="3">
-        <v>18200</v>
+        <v>37100</v>
       </c>
       <c r="H22" s="3">
-        <v>18900</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+        <v>17800</v>
+      </c>
+      <c r="I22" s="3">
+        <v>18500</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1107,29 +1146,32 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-63100</v>
+        <v>-59700</v>
       </c>
       <c r="E23" s="3">
-        <v>-47800</v>
+        <v>-61500</v>
       </c>
       <c r="F23" s="3">
-        <v>-40900</v>
+        <v>-46600</v>
       </c>
       <c r="G23" s="3">
-        <v>-15900</v>
+        <v>-39900</v>
       </c>
       <c r="H23" s="3">
-        <v>-19300</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>-15500</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-18800</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1137,29 +1179,32 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1700</v>
       </c>
-      <c r="H24" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>-600</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1167,9 +1212,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,29 +1245,32 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-61700</v>
+        <v>-61900</v>
       </c>
       <c r="E26" s="3">
-        <v>-46900</v>
+        <v>-60200</v>
       </c>
       <c r="F26" s="3">
-        <v>-39700</v>
+        <v>-45800</v>
       </c>
       <c r="G26" s="3">
-        <v>-14100</v>
+        <v>-38700</v>
       </c>
       <c r="H26" s="3">
-        <v>-18700</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>-13800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-18200</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1227,29 +1278,32 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-61700</v>
+        <v>-70000</v>
       </c>
       <c r="E27" s="3">
-        <v>-46900</v>
+        <v>-60200</v>
       </c>
       <c r="F27" s="3">
-        <v>-57900</v>
+        <v>-45800</v>
       </c>
       <c r="G27" s="3">
-        <v>-31100</v>
+        <v>-56500</v>
       </c>
       <c r="H27" s="3">
-        <v>-44400</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>-30300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-43300</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,29 +1443,32 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6900</v>
+        <v>-8700</v>
       </c>
       <c r="E32" s="3">
-        <v>500</v>
+        <v>-6700</v>
       </c>
       <c r="F32" s="3">
-        <v>-3300</v>
+        <v>400</v>
       </c>
       <c r="G32" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="H32" s="3">
         <v>-2500</v>
       </c>
-      <c r="H32" s="3">
-        <v>-10500</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>-10200</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1407,29 +1476,32 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-61700</v>
+        <v>-70000</v>
       </c>
       <c r="E33" s="3">
-        <v>-46900</v>
+        <v>-60200</v>
       </c>
       <c r="F33" s="3">
-        <v>-57900</v>
+        <v>-45800</v>
       </c>
       <c r="G33" s="3">
-        <v>-31100</v>
+        <v>-56500</v>
       </c>
       <c r="H33" s="3">
-        <v>-44400</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>-30300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-43300</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,29 +1542,32 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-61700</v>
+        <v>-70000</v>
       </c>
       <c r="E35" s="3">
-        <v>-46900</v>
+        <v>-60200</v>
       </c>
       <c r="F35" s="3">
-        <v>-57900</v>
+        <v>-45800</v>
       </c>
       <c r="G35" s="3">
-        <v>-31100</v>
+        <v>-56500</v>
       </c>
       <c r="H35" s="3">
-        <v>-44400</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>-30300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-43300</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1497,44 +1575,50 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,28 +1646,29 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>310100</v>
+        <v>814500</v>
       </c>
       <c r="E41" s="3">
-        <v>268800</v>
+        <v>303000</v>
       </c>
       <c r="F41" s="3">
-        <v>259900</v>
+        <v>262600</v>
       </c>
       <c r="G41" s="3">
-        <v>132600</v>
+        <v>253900</v>
       </c>
       <c r="H41" s="3">
-        <v>87100</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>129600</v>
+      </c>
+      <c r="I41" s="3">
+        <v>85000</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1590,9 +1676,12 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1620,29 +1709,32 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100500</v>
+        <v>141600</v>
       </c>
       <c r="E43" s="3">
-        <v>68400</v>
+        <v>98200</v>
       </c>
       <c r="F43" s="3">
-        <v>39100</v>
+        <v>66900</v>
       </c>
       <c r="G43" s="3">
-        <v>24600</v>
+        <v>38200</v>
       </c>
       <c r="H43" s="3">
-        <v>13300</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>24000</v>
+      </c>
+      <c r="I43" s="3">
+        <v>13000</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1650,9 +1742,12 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,29 +1775,32 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>25200</v>
+        <v>37000</v>
       </c>
       <c r="E45" s="3">
-        <v>14900</v>
+        <v>24600</v>
       </c>
       <c r="F45" s="3">
-        <v>18200</v>
+        <v>14500</v>
       </c>
       <c r="G45" s="3">
-        <v>13100</v>
+        <v>17800</v>
       </c>
       <c r="H45" s="3">
-        <v>6700</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>12800</v>
+      </c>
+      <c r="I45" s="3">
+        <v>6500</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1710,29 +1808,32 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>435800</v>
+        <v>993000</v>
       </c>
       <c r="E46" s="3">
-        <v>352100</v>
+        <v>425700</v>
       </c>
       <c r="F46" s="3">
-        <v>317100</v>
+        <v>344000</v>
       </c>
       <c r="G46" s="3">
-        <v>170300</v>
+        <v>309800</v>
       </c>
       <c r="H46" s="3">
-        <v>107000</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>166300</v>
+      </c>
+      <c r="I46" s="3">
+        <v>104500</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1740,26 +1841,29 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>70100</v>
+        <v>124500</v>
       </c>
       <c r="E47" s="3">
-        <v>41600</v>
+        <v>68500</v>
       </c>
       <c r="F47" s="3">
-        <v>14200</v>
+        <v>40700</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+        <v>13900</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1770,29 +1874,32 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2008000</v>
+        <v>2800600</v>
       </c>
       <c r="E48" s="3">
-        <v>1171600</v>
+        <v>1961500</v>
       </c>
       <c r="F48" s="3">
-        <v>620200</v>
+        <v>1144500</v>
       </c>
       <c r="G48" s="3">
-        <v>360500</v>
+        <v>605900</v>
       </c>
       <c r="H48" s="3">
-        <v>243200</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+        <v>352200</v>
+      </c>
+      <c r="I48" s="3">
+        <v>237600</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1800,29 +1907,32 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>320600</v>
+        <v>322400</v>
       </c>
       <c r="E49" s="3">
-        <v>275400</v>
+        <v>313200</v>
       </c>
       <c r="F49" s="3">
-        <v>205700</v>
+        <v>269000</v>
       </c>
       <c r="G49" s="3">
-        <v>196600</v>
+        <v>200900</v>
       </c>
       <c r="H49" s="3">
-        <v>197800</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+        <v>192000</v>
+      </c>
+      <c r="I49" s="3">
+        <v>193200</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,29 +2006,32 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>162100</v>
+        <v>173500</v>
       </c>
       <c r="E52" s="3">
-        <v>45300</v>
+        <v>158400</v>
       </c>
       <c r="F52" s="3">
-        <v>19800</v>
+        <v>44200</v>
       </c>
       <c r="G52" s="3">
-        <v>12500</v>
+        <v>19400</v>
       </c>
       <c r="H52" s="3">
-        <v>5000</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+        <v>12200</v>
+      </c>
+      <c r="I52" s="3">
+        <v>4900</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,29 +2072,32 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2996600</v>
+        <v>4414000</v>
       </c>
       <c r="E54" s="3">
-        <v>1886000</v>
+        <v>2927300</v>
       </c>
       <c r="F54" s="3">
-        <v>1177100</v>
+        <v>1842300</v>
       </c>
       <c r="G54" s="3">
-        <v>735800</v>
+        <v>1149900</v>
       </c>
       <c r="H54" s="3">
-        <v>553000</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>718800</v>
+      </c>
+      <c r="I54" s="3">
+        <v>540200</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,28 +2138,29 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>216400</v>
+        <v>234900</v>
       </c>
       <c r="E57" s="3">
-        <v>159300</v>
+        <v>211400</v>
       </c>
       <c r="F57" s="3">
-        <v>73700</v>
+        <v>155600</v>
       </c>
       <c r="G57" s="3">
-        <v>30900</v>
+        <v>72000</v>
       </c>
       <c r="H57" s="3">
-        <v>33300</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>30200</v>
+      </c>
+      <c r="I57" s="3">
+        <v>32500</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2038,29 +2168,32 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>208100</v>
+        <v>190600</v>
       </c>
       <c r="E58" s="3">
-        <v>127500</v>
+        <v>203300</v>
       </c>
       <c r="F58" s="3">
-        <v>102900</v>
+        <v>124500</v>
       </c>
       <c r="G58" s="3">
-        <v>78100</v>
+        <v>100500</v>
       </c>
       <c r="H58" s="3">
-        <v>72300</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+        <v>76300</v>
+      </c>
+      <c r="I58" s="3">
+        <v>70600</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2068,29 +2201,32 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>78900</v>
+        <v>135000</v>
       </c>
       <c r="E59" s="3">
-        <v>60900</v>
+        <v>77000</v>
       </c>
       <c r="F59" s="3">
-        <v>35700</v>
+        <v>59500</v>
       </c>
       <c r="G59" s="3">
-        <v>23600</v>
+        <v>34800</v>
       </c>
       <c r="H59" s="3">
-        <v>23200</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>23100</v>
+      </c>
+      <c r="I59" s="3">
+        <v>22700</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2098,29 +2234,32 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>503300</v>
+        <v>560600</v>
       </c>
       <c r="E60" s="3">
-        <v>347700</v>
+        <v>491700</v>
       </c>
       <c r="F60" s="3">
-        <v>212200</v>
+        <v>339600</v>
       </c>
       <c r="G60" s="3">
-        <v>132700</v>
+        <v>207300</v>
       </c>
       <c r="H60" s="3">
-        <v>128800</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>129700</v>
+      </c>
+      <c r="I60" s="3">
+        <v>125800</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2128,29 +2267,32 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1627500</v>
+        <v>2078500</v>
       </c>
       <c r="E61" s="3">
-        <v>826800</v>
+        <v>1589800</v>
       </c>
       <c r="F61" s="3">
-        <v>512700</v>
+        <v>807700</v>
       </c>
       <c r="G61" s="3">
-        <v>291500</v>
+        <v>500800</v>
       </c>
       <c r="H61" s="3">
-        <v>106000</v>
+        <v>284800</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>103600</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2158,29 +2300,32 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>73600</v>
+        <v>183400</v>
       </c>
       <c r="E62" s="3">
-        <v>69300</v>
+        <v>71900</v>
       </c>
       <c r="F62" s="3">
-        <v>23700</v>
+        <v>67700</v>
       </c>
       <c r="G62" s="3">
-        <v>16700</v>
+        <v>23100</v>
       </c>
       <c r="H62" s="3">
-        <v>10000</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+        <v>16400</v>
+      </c>
+      <c r="I62" s="3">
+        <v>9800</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2188,9 +2333,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,29 +2432,32 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2204300</v>
+        <v>2822400</v>
       </c>
       <c r="E66" s="3">
-        <v>1243800</v>
+        <v>2153300</v>
       </c>
       <c r="F66" s="3">
-        <v>748600</v>
+        <v>1215100</v>
       </c>
       <c r="G66" s="3">
-        <v>441000</v>
+        <v>731300</v>
       </c>
       <c r="H66" s="3">
-        <v>244900</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>430800</v>
+      </c>
+      <c r="I66" s="3">
+        <v>239200</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,14 +2546,17 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>148800</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -2398,13 +2565,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>343700</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>310500</v>
+        <v>335700</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>303300</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,29 +2612,32 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-231700</v>
+        <v>-288300</v>
       </c>
       <c r="E72" s="3">
-        <v>-170100</v>
+        <v>-226400</v>
       </c>
       <c r="F72" s="3">
-        <v>-123200</v>
+        <v>-166200</v>
       </c>
       <c r="G72" s="3">
-        <v>-83500</v>
+        <v>-120400</v>
       </c>
       <c r="H72" s="3">
-        <v>-69400</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>-81600</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-67800</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,29 +2744,32 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>792300</v>
+        <v>1442800</v>
       </c>
       <c r="E76" s="3">
-        <v>642100</v>
+        <v>774000</v>
       </c>
       <c r="F76" s="3">
-        <v>428500</v>
+        <v>627300</v>
       </c>
       <c r="G76" s="3">
-        <v>-48900</v>
+        <v>418600</v>
       </c>
       <c r="H76" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>-47700</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-2300</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,64 +2810,70 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-61700</v>
+        <v>-70000</v>
       </c>
       <c r="E81" s="3">
-        <v>-46900</v>
+        <v>-60200</v>
       </c>
       <c r="F81" s="3">
-        <v>-57900</v>
+        <v>-45800</v>
       </c>
       <c r="G81" s="3">
-        <v>-31100</v>
+        <v>-56500</v>
       </c>
       <c r="H81" s="3">
-        <v>-44400</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>-30300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-43300</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,28 +2899,29 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>106400</v>
+        <v>159800</v>
       </c>
       <c r="E83" s="3">
-        <v>54300</v>
+        <v>103800</v>
       </c>
       <c r="F83" s="3">
-        <v>32600</v>
+        <v>52900</v>
       </c>
       <c r="G83" s="3">
-        <v>20900</v>
+        <v>31800</v>
       </c>
       <c r="H83" s="3">
-        <v>11900</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+        <v>20400</v>
+      </c>
+      <c r="I83" s="3">
+        <v>11600</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,29 +3094,32 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1900</v>
+        <v>41100</v>
       </c>
       <c r="E89" s="3">
-        <v>-24100</v>
+        <v>-1800</v>
       </c>
       <c r="F89" s="3">
-        <v>-18500</v>
+        <v>-23500</v>
       </c>
       <c r="G89" s="3">
-        <v>-11500</v>
+        <v>-18100</v>
       </c>
       <c r="H89" s="3">
-        <v>4000</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>-11200</v>
+      </c>
+      <c r="I89" s="3">
+        <v>3900</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,28 +3145,29 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-611400</v>
+        <v>-637900</v>
       </c>
       <c r="E91" s="3">
-        <v>-246800</v>
+        <v>-596400</v>
       </c>
       <c r="F91" s="3">
-        <v>-141700</v>
+        <v>-240800</v>
       </c>
       <c r="G91" s="3">
-        <v>-105200</v>
+        <v>-138200</v>
       </c>
       <c r="H91" s="3">
-        <v>-35600</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+        <v>-102600</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-34800</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,29 +3241,32 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-679100</v>
+        <v>-718200</v>
       </c>
       <c r="E94" s="3">
-        <v>-287700</v>
+        <v>-662400</v>
       </c>
       <c r="F94" s="3">
-        <v>-164600</v>
+        <v>-280600</v>
       </c>
       <c r="G94" s="3">
-        <v>-105000</v>
+        <v>-160500</v>
       </c>
       <c r="H94" s="3">
-        <v>-75100</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+        <v>-102400</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-73300</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,22 +3292,23 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-3500</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-11000</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-10700</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,29 +3421,32 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>699700</v>
+        <v>1170300</v>
       </c>
       <c r="E100" s="3">
-        <v>338000</v>
+        <v>682600</v>
       </c>
       <c r="F100" s="3">
-        <v>305400</v>
+        <v>329700</v>
       </c>
       <c r="G100" s="3">
-        <v>161800</v>
+        <v>297900</v>
       </c>
       <c r="H100" s="3">
-        <v>151600</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>157800</v>
+      </c>
+      <c r="I100" s="3">
+        <v>147800</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3209,59 +3454,65 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>29600</v>
+        <v>23000</v>
       </c>
       <c r="E101" s="3">
-        <v>-10700</v>
+        <v>28900</v>
       </c>
       <c r="F101" s="3">
-        <v>8000</v>
+        <v>-10400</v>
       </c>
       <c r="G101" s="3">
+        <v>7800</v>
+      </c>
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>48400</v>
+        <v>516200</v>
       </c>
       <c r="E102" s="3">
-        <v>15600</v>
+        <v>47200</v>
       </c>
       <c r="F102" s="3">
-        <v>130300</v>
+        <v>15200</v>
       </c>
       <c r="G102" s="3">
-        <v>45600</v>
+        <v>127100</v>
       </c>
       <c r="H102" s="3">
-        <v>80100</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+        <v>44500</v>
+      </c>
+      <c r="I102" s="3">
+        <v>78100</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/GDS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GDS_YR_FIN.xlsx
@@ -718,22 +718,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>577000</v>
+        <v>598700</v>
       </c>
       <c r="E8" s="3">
-        <v>390800</v>
+        <v>405500</v>
       </c>
       <c r="F8" s="3">
-        <v>226200</v>
+        <v>234700</v>
       </c>
       <c r="G8" s="3">
-        <v>147800</v>
+        <v>153400</v>
       </c>
       <c r="H8" s="3">
-        <v>98500</v>
+        <v>102200</v>
       </c>
       <c r="I8" s="3">
-        <v>65500</v>
+        <v>68000</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -751,22 +751,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>431000</v>
+        <v>447300</v>
       </c>
       <c r="E9" s="3">
-        <v>303700</v>
+        <v>315100</v>
       </c>
       <c r="F9" s="3">
-        <v>169000</v>
+        <v>175400</v>
       </c>
       <c r="G9" s="3">
-        <v>110600</v>
+        <v>114800</v>
       </c>
       <c r="H9" s="3">
-        <v>72100</v>
+        <v>74800</v>
       </c>
       <c r="I9" s="3">
-        <v>54300</v>
+        <v>56400</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -784,22 +784,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>145900</v>
+        <v>151400</v>
       </c>
       <c r="E10" s="3">
-        <v>87100</v>
+        <v>90400</v>
       </c>
       <c r="F10" s="3">
-        <v>57200</v>
+        <v>59300</v>
       </c>
       <c r="G10" s="3">
-        <v>37200</v>
+        <v>38600</v>
       </c>
       <c r="H10" s="3">
-        <v>26400</v>
+        <v>27400</v>
       </c>
       <c r="I10" s="3">
-        <v>11200</v>
+        <v>11600</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -832,13 +832,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="E12" s="3">
         <v>1900</v>
       </c>
       <c r="F12" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G12" s="3">
         <v>1200</v>
@@ -931,13 +931,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E15" s="3">
         <v>1100</v>
       </c>
       <c r="F15" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G15" s="3">
         <v>900</v>
@@ -976,22 +976,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>509800</v>
+        <v>529000</v>
       </c>
       <c r="E17" s="3">
-        <v>367200</v>
+        <v>381000</v>
       </c>
       <c r="F17" s="3">
-        <v>214700</v>
+        <v>222800</v>
       </c>
       <c r="G17" s="3">
-        <v>153700</v>
+        <v>159500</v>
       </c>
       <c r="H17" s="3">
-        <v>98700</v>
+        <v>102400</v>
       </c>
       <c r="I17" s="3">
-        <v>76100</v>
+        <v>79000</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1009,22 +1009,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>67200</v>
+        <v>69700</v>
       </c>
       <c r="E18" s="3">
-        <v>23600</v>
+        <v>24500</v>
       </c>
       <c r="F18" s="3">
-        <v>11500</v>
+        <v>11900</v>
       </c>
       <c r="G18" s="3">
-        <v>-5900</v>
+        <v>-6200</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
       <c r="I18" s="3">
-        <v>-10600</v>
+        <v>-11000</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1057,22 +1057,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>8700</v>
+        <v>9100</v>
       </c>
       <c r="E20" s="3">
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="F20" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="G20" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="H20" s="3">
         <v>2500</v>
       </c>
       <c r="I20" s="3">
-        <v>10200</v>
+        <v>10600</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1090,22 +1090,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>235200</v>
+        <v>244000</v>
       </c>
       <c r="E21" s="3">
-        <v>133800</v>
+        <v>138700</v>
       </c>
       <c r="F21" s="3">
-        <v>63800</v>
+        <v>66200</v>
       </c>
       <c r="G21" s="3">
-        <v>29000</v>
+        <v>30100</v>
       </c>
       <c r="H21" s="3">
-        <v>22600</v>
+        <v>23400</v>
       </c>
       <c r="I21" s="3">
-        <v>11200</v>
+        <v>11600</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1123,22 +1123,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>135600</v>
+        <v>140700</v>
       </c>
       <c r="E22" s="3">
-        <v>91800</v>
+        <v>95300</v>
       </c>
       <c r="F22" s="3">
-        <v>57700</v>
+        <v>59800</v>
       </c>
       <c r="G22" s="3">
-        <v>37100</v>
+        <v>38500</v>
       </c>
       <c r="H22" s="3">
-        <v>17800</v>
+        <v>18400</v>
       </c>
       <c r="I22" s="3">
-        <v>18500</v>
+        <v>19200</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1156,22 +1156,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-59700</v>
+        <v>-61900</v>
       </c>
       <c r="E23" s="3">
-        <v>-61500</v>
+        <v>-63900</v>
       </c>
       <c r="F23" s="3">
-        <v>-46600</v>
+        <v>-48400</v>
       </c>
       <c r="G23" s="3">
-        <v>-39900</v>
+        <v>-41400</v>
       </c>
       <c r="H23" s="3">
-        <v>-15500</v>
+        <v>-16100</v>
       </c>
       <c r="I23" s="3">
-        <v>-18800</v>
+        <v>-19500</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1189,10 +1189,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E24" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="F24" s="3">
         <v>-900</v>
@@ -1204,7 +1204,7 @@
         <v>-1700</v>
       </c>
       <c r="I24" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1255,22 +1255,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-61900</v>
+        <v>-64200</v>
       </c>
       <c r="E26" s="3">
-        <v>-60200</v>
+        <v>-62500</v>
       </c>
       <c r="F26" s="3">
-        <v>-45800</v>
+        <v>-47500</v>
       </c>
       <c r="G26" s="3">
-        <v>-38700</v>
+        <v>-40100</v>
       </c>
       <c r="H26" s="3">
-        <v>-13800</v>
+        <v>-14300</v>
       </c>
       <c r="I26" s="3">
-        <v>-18200</v>
+        <v>-18900</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1288,22 +1288,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-70000</v>
+        <v>-72600</v>
       </c>
       <c r="E27" s="3">
-        <v>-60200</v>
+        <v>-62500</v>
       </c>
       <c r="F27" s="3">
-        <v>-45800</v>
+        <v>-47500</v>
       </c>
       <c r="G27" s="3">
-        <v>-56500</v>
+        <v>-58600</v>
       </c>
       <c r="H27" s="3">
-        <v>-30300</v>
+        <v>-31500</v>
       </c>
       <c r="I27" s="3">
-        <v>-43300</v>
+        <v>-44900</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1453,22 +1453,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8700</v>
+        <v>-9100</v>
       </c>
       <c r="E32" s="3">
-        <v>-6700</v>
+        <v>-7000</v>
       </c>
       <c r="F32" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G32" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="H32" s="3">
         <v>-2500</v>
       </c>
       <c r="I32" s="3">
-        <v>-10200</v>
+        <v>-10600</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1486,22 +1486,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-70000</v>
+        <v>-72600</v>
       </c>
       <c r="E33" s="3">
-        <v>-60200</v>
+        <v>-62500</v>
       </c>
       <c r="F33" s="3">
-        <v>-45800</v>
+        <v>-47500</v>
       </c>
       <c r="G33" s="3">
-        <v>-56500</v>
+        <v>-58600</v>
       </c>
       <c r="H33" s="3">
-        <v>-30300</v>
+        <v>-31500</v>
       </c>
       <c r="I33" s="3">
-        <v>-43300</v>
+        <v>-44900</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1552,22 +1552,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-70000</v>
+        <v>-72600</v>
       </c>
       <c r="E35" s="3">
-        <v>-60200</v>
+        <v>-62500</v>
       </c>
       <c r="F35" s="3">
-        <v>-45800</v>
+        <v>-47500</v>
       </c>
       <c r="G35" s="3">
-        <v>-56500</v>
+        <v>-58600</v>
       </c>
       <c r="H35" s="3">
-        <v>-30300</v>
+        <v>-31500</v>
       </c>
       <c r="I35" s="3">
-        <v>-43300</v>
+        <v>-44900</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1653,22 +1653,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>814500</v>
+        <v>843900</v>
       </c>
       <c r="E41" s="3">
-        <v>303000</v>
+        <v>313900</v>
       </c>
       <c r="F41" s="3">
-        <v>262600</v>
+        <v>272100</v>
       </c>
       <c r="G41" s="3">
-        <v>253900</v>
+        <v>263100</v>
       </c>
       <c r="H41" s="3">
-        <v>129600</v>
+        <v>134300</v>
       </c>
       <c r="I41" s="3">
-        <v>85000</v>
+        <v>88100</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1719,22 +1719,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>141600</v>
+        <v>146700</v>
       </c>
       <c r="E43" s="3">
-        <v>98200</v>
+        <v>101700</v>
       </c>
       <c r="F43" s="3">
-        <v>66900</v>
+        <v>69300</v>
       </c>
       <c r="G43" s="3">
-        <v>38200</v>
+        <v>39500</v>
       </c>
       <c r="H43" s="3">
-        <v>24000</v>
+        <v>24900</v>
       </c>
       <c r="I43" s="3">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1785,22 +1785,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>37000</v>
+        <v>38300</v>
       </c>
       <c r="E45" s="3">
-        <v>24600</v>
+        <v>25500</v>
       </c>
       <c r="F45" s="3">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="G45" s="3">
-        <v>17800</v>
+        <v>18400</v>
       </c>
       <c r="H45" s="3">
-        <v>12800</v>
+        <v>13200</v>
       </c>
       <c r="I45" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1818,22 +1818,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>993000</v>
+        <v>1028900</v>
       </c>
       <c r="E46" s="3">
-        <v>425700</v>
+        <v>441100</v>
       </c>
       <c r="F46" s="3">
-        <v>344000</v>
+        <v>356400</v>
       </c>
       <c r="G46" s="3">
-        <v>309800</v>
+        <v>321000</v>
       </c>
       <c r="H46" s="3">
-        <v>166300</v>
+        <v>172300</v>
       </c>
       <c r="I46" s="3">
-        <v>104500</v>
+        <v>108300</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1851,16 +1851,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>124500</v>
+        <v>129000</v>
       </c>
       <c r="E47" s="3">
-        <v>68500</v>
+        <v>70900</v>
       </c>
       <c r="F47" s="3">
-        <v>40700</v>
+        <v>42100</v>
       </c>
       <c r="G47" s="3">
-        <v>13900</v>
+        <v>14400</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -1884,22 +1884,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2800600</v>
+        <v>2901900</v>
       </c>
       <c r="E48" s="3">
-        <v>1961500</v>
+        <v>2032500</v>
       </c>
       <c r="F48" s="3">
-        <v>1144500</v>
+        <v>1185900</v>
       </c>
       <c r="G48" s="3">
-        <v>605900</v>
+        <v>627800</v>
       </c>
       <c r="H48" s="3">
-        <v>352200</v>
+        <v>364900</v>
       </c>
       <c r="I48" s="3">
-        <v>237600</v>
+        <v>246200</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1917,22 +1917,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>322400</v>
+        <v>334100</v>
       </c>
       <c r="E49" s="3">
-        <v>313200</v>
+        <v>324500</v>
       </c>
       <c r="F49" s="3">
-        <v>269000</v>
+        <v>278700</v>
       </c>
       <c r="G49" s="3">
-        <v>200900</v>
+        <v>208200</v>
       </c>
       <c r="H49" s="3">
-        <v>192000</v>
+        <v>199000</v>
       </c>
       <c r="I49" s="3">
-        <v>193200</v>
+        <v>200200</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2016,22 +2016,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>173500</v>
+        <v>179700</v>
       </c>
       <c r="E52" s="3">
-        <v>158400</v>
+        <v>164100</v>
       </c>
       <c r="F52" s="3">
-        <v>44200</v>
+        <v>45800</v>
       </c>
       <c r="G52" s="3">
-        <v>19400</v>
+        <v>20100</v>
       </c>
       <c r="H52" s="3">
-        <v>12200</v>
+        <v>12700</v>
       </c>
       <c r="I52" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2082,22 +2082,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4414000</v>
+        <v>4573700</v>
       </c>
       <c r="E54" s="3">
-        <v>2927300</v>
+        <v>3033200</v>
       </c>
       <c r="F54" s="3">
-        <v>1842300</v>
+        <v>1909000</v>
       </c>
       <c r="G54" s="3">
-        <v>1149900</v>
+        <v>1191400</v>
       </c>
       <c r="H54" s="3">
-        <v>718800</v>
+        <v>744800</v>
       </c>
       <c r="I54" s="3">
-        <v>540200</v>
+        <v>559700</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2145,22 +2145,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>234900</v>
+        <v>243400</v>
       </c>
       <c r="E57" s="3">
-        <v>211400</v>
+        <v>219000</v>
       </c>
       <c r="F57" s="3">
-        <v>155600</v>
+        <v>161300</v>
       </c>
       <c r="G57" s="3">
-        <v>72000</v>
+        <v>74600</v>
       </c>
       <c r="H57" s="3">
-        <v>30200</v>
+        <v>31300</v>
       </c>
       <c r="I57" s="3">
-        <v>32500</v>
+        <v>33700</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2178,22 +2178,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>190600</v>
+        <v>197500</v>
       </c>
       <c r="E58" s="3">
-        <v>203300</v>
+        <v>210600</v>
       </c>
       <c r="F58" s="3">
-        <v>124500</v>
+        <v>129000</v>
       </c>
       <c r="G58" s="3">
-        <v>100500</v>
+        <v>104100</v>
       </c>
       <c r="H58" s="3">
-        <v>76300</v>
+        <v>79100</v>
       </c>
       <c r="I58" s="3">
-        <v>70600</v>
+        <v>73200</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2211,22 +2211,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>135000</v>
+        <v>139900</v>
       </c>
       <c r="E59" s="3">
-        <v>77000</v>
+        <v>79800</v>
       </c>
       <c r="F59" s="3">
-        <v>59500</v>
+        <v>61600</v>
       </c>
       <c r="G59" s="3">
-        <v>34800</v>
+        <v>36100</v>
       </c>
       <c r="H59" s="3">
-        <v>23100</v>
+        <v>23900</v>
       </c>
       <c r="I59" s="3">
-        <v>22700</v>
+        <v>23500</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2244,22 +2244,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>560600</v>
+        <v>580800</v>
       </c>
       <c r="E60" s="3">
-        <v>491700</v>
+        <v>509400</v>
       </c>
       <c r="F60" s="3">
-        <v>339600</v>
+        <v>351900</v>
       </c>
       <c r="G60" s="3">
-        <v>207300</v>
+        <v>214800</v>
       </c>
       <c r="H60" s="3">
-        <v>129700</v>
+        <v>134300</v>
       </c>
       <c r="I60" s="3">
-        <v>125800</v>
+        <v>130400</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2277,22 +2277,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2078500</v>
+        <v>2153700</v>
       </c>
       <c r="E61" s="3">
-        <v>1589800</v>
+        <v>1647300</v>
       </c>
       <c r="F61" s="3">
-        <v>807700</v>
+        <v>836900</v>
       </c>
       <c r="G61" s="3">
-        <v>500800</v>
+        <v>518900</v>
       </c>
       <c r="H61" s="3">
-        <v>284800</v>
+        <v>295100</v>
       </c>
       <c r="I61" s="3">
-        <v>103600</v>
+        <v>107300</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>183400</v>
+        <v>190000</v>
       </c>
       <c r="E62" s="3">
-        <v>71900</v>
+        <v>74500</v>
       </c>
       <c r="F62" s="3">
-        <v>67700</v>
+        <v>70200</v>
       </c>
       <c r="G62" s="3">
-        <v>23100</v>
+        <v>24000</v>
       </c>
       <c r="H62" s="3">
-        <v>16400</v>
+        <v>16900</v>
       </c>
       <c r="I62" s="3">
-        <v>9800</v>
+        <v>10100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2442,22 +2442,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2822400</v>
+        <v>2924500</v>
       </c>
       <c r="E66" s="3">
-        <v>2153300</v>
+        <v>2231200</v>
       </c>
       <c r="F66" s="3">
-        <v>1215100</v>
+        <v>1259000</v>
       </c>
       <c r="G66" s="3">
-        <v>731300</v>
+        <v>757700</v>
       </c>
       <c r="H66" s="3">
-        <v>430800</v>
+        <v>446400</v>
       </c>
       <c r="I66" s="3">
-        <v>239200</v>
+        <v>247800</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2556,7 +2556,7 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>148800</v>
+        <v>154200</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -2568,10 +2568,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>335700</v>
+        <v>347900</v>
       </c>
       <c r="I70" s="3">
-        <v>303300</v>
+        <v>314300</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2622,22 +2622,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-288300</v>
+        <v>-298800</v>
       </c>
       <c r="E72" s="3">
-        <v>-226400</v>
+        <v>-234600</v>
       </c>
       <c r="F72" s="3">
-        <v>-166200</v>
+        <v>-172200</v>
       </c>
       <c r="G72" s="3">
-        <v>-120400</v>
+        <v>-124700</v>
       </c>
       <c r="H72" s="3">
-        <v>-81600</v>
+        <v>-84600</v>
       </c>
       <c r="I72" s="3">
-        <v>-67800</v>
+        <v>-70200</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2754,22 +2754,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1442800</v>
+        <v>1495000</v>
       </c>
       <c r="E76" s="3">
-        <v>774000</v>
+        <v>801900</v>
       </c>
       <c r="F76" s="3">
-        <v>627300</v>
+        <v>650000</v>
       </c>
       <c r="G76" s="3">
-        <v>418600</v>
+        <v>433700</v>
       </c>
       <c r="H76" s="3">
-        <v>-47700</v>
+        <v>-49500</v>
       </c>
       <c r="I76" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2858,22 +2858,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-70000</v>
+        <v>-72600</v>
       </c>
       <c r="E81" s="3">
-        <v>-60200</v>
+        <v>-62500</v>
       </c>
       <c r="F81" s="3">
-        <v>-45800</v>
+        <v>-47500</v>
       </c>
       <c r="G81" s="3">
-        <v>-56500</v>
+        <v>-58600</v>
       </c>
       <c r="H81" s="3">
-        <v>-30300</v>
+        <v>-31500</v>
       </c>
       <c r="I81" s="3">
-        <v>-43300</v>
+        <v>-44900</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2906,22 +2906,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>159800</v>
+        <v>165900</v>
       </c>
       <c r="E83" s="3">
-        <v>103800</v>
+        <v>107700</v>
       </c>
       <c r="F83" s="3">
-        <v>52900</v>
+        <v>54900</v>
       </c>
       <c r="G83" s="3">
-        <v>31800</v>
+        <v>33000</v>
       </c>
       <c r="H83" s="3">
-        <v>20400</v>
+        <v>21100</v>
       </c>
       <c r="I83" s="3">
-        <v>11600</v>
+        <v>12000</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3104,22 +3104,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>41100</v>
+        <v>42600</v>
       </c>
       <c r="E89" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="F89" s="3">
-        <v>-23500</v>
+        <v>-24400</v>
       </c>
       <c r="G89" s="3">
-        <v>-18100</v>
+        <v>-18700</v>
       </c>
       <c r="H89" s="3">
-        <v>-11200</v>
+        <v>-11700</v>
       </c>
       <c r="I89" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3152,22 +3152,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-637900</v>
+        <v>-661900</v>
       </c>
       <c r="E91" s="3">
-        <v>-596400</v>
+        <v>-618800</v>
       </c>
       <c r="F91" s="3">
-        <v>-240800</v>
+        <v>-249800</v>
       </c>
       <c r="G91" s="3">
-        <v>-138200</v>
+        <v>-143500</v>
       </c>
       <c r="H91" s="3">
-        <v>-102600</v>
+        <v>-106500</v>
       </c>
       <c r="I91" s="3">
-        <v>-34800</v>
+        <v>-36100</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3251,22 +3251,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-718200</v>
+        <v>-745200</v>
       </c>
       <c r="E94" s="3">
-        <v>-662400</v>
+        <v>-687400</v>
       </c>
       <c r="F94" s="3">
-        <v>-280600</v>
+        <v>-291200</v>
       </c>
       <c r="G94" s="3">
-        <v>-160500</v>
+        <v>-166600</v>
       </c>
       <c r="H94" s="3">
-        <v>-102400</v>
+        <v>-106300</v>
       </c>
       <c r="I94" s="3">
-        <v>-73300</v>
+        <v>-76100</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3299,7 +3299,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-10700</v>
+        <v>-11100</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3431,22 +3431,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1170300</v>
+        <v>1214400</v>
       </c>
       <c r="E100" s="3">
-        <v>682600</v>
+        <v>708300</v>
       </c>
       <c r="F100" s="3">
-        <v>329700</v>
+        <v>342100</v>
       </c>
       <c r="G100" s="3">
-        <v>297900</v>
+        <v>309100</v>
       </c>
       <c r="H100" s="3">
-        <v>157800</v>
+        <v>163800</v>
       </c>
       <c r="I100" s="3">
-        <v>147800</v>
+        <v>153400</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3464,16 +3464,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>23000</v>
+        <v>23900</v>
       </c>
       <c r="E101" s="3">
-        <v>28900</v>
+        <v>30000</v>
       </c>
       <c r="F101" s="3">
-        <v>-10400</v>
+        <v>-10800</v>
       </c>
       <c r="G101" s="3">
-        <v>7800</v>
+        <v>8100</v>
       </c>
       <c r="H101" s="3">
         <v>300</v>
@@ -3497,22 +3497,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>516200</v>
+        <v>535700</v>
       </c>
       <c r="E102" s="3">
-        <v>47200</v>
+        <v>49000</v>
       </c>
       <c r="F102" s="3">
-        <v>15200</v>
+        <v>15800</v>
       </c>
       <c r="G102" s="3">
-        <v>127100</v>
+        <v>131900</v>
       </c>
       <c r="H102" s="3">
-        <v>44500</v>
+        <v>46100</v>
       </c>
       <c r="I102" s="3">
-        <v>78100</v>
+        <v>81100</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/GDS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GDS_YR_FIN.xlsx
@@ -718,22 +718,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>598700</v>
+        <v>627100</v>
       </c>
       <c r="E8" s="3">
-        <v>405500</v>
+        <v>424700</v>
       </c>
       <c r="F8" s="3">
-        <v>234700</v>
+        <v>245900</v>
       </c>
       <c r="G8" s="3">
-        <v>153400</v>
+        <v>160600</v>
       </c>
       <c r="H8" s="3">
-        <v>102200</v>
+        <v>107000</v>
       </c>
       <c r="I8" s="3">
-        <v>68000</v>
+        <v>71200</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -751,22 +751,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>447300</v>
+        <v>468500</v>
       </c>
       <c r="E9" s="3">
-        <v>315100</v>
+        <v>330000</v>
       </c>
       <c r="F9" s="3">
-        <v>175400</v>
+        <v>183700</v>
       </c>
       <c r="G9" s="3">
-        <v>114800</v>
+        <v>120200</v>
       </c>
       <c r="H9" s="3">
-        <v>74800</v>
+        <v>78300</v>
       </c>
       <c r="I9" s="3">
-        <v>56400</v>
+        <v>59000</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -784,22 +784,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>151400</v>
+        <v>158600</v>
       </c>
       <c r="E10" s="3">
-        <v>90400</v>
+        <v>94700</v>
       </c>
       <c r="F10" s="3">
-        <v>59300</v>
+        <v>62100</v>
       </c>
       <c r="G10" s="3">
-        <v>38600</v>
+        <v>40400</v>
       </c>
       <c r="H10" s="3">
-        <v>27400</v>
+        <v>28700</v>
       </c>
       <c r="I10" s="3">
-        <v>11600</v>
+        <v>12200</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E12" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="F12" s="3">
         <v>1000</v>
       </c>
       <c r="G12" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H12" s="3">
         <v>500</v>
@@ -931,10 +931,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E15" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F15" s="3">
         <v>1100</v>
@@ -946,7 +946,7 @@
         <v>700</v>
       </c>
       <c r="I15" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -976,22 +976,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>529000</v>
+        <v>554100</v>
       </c>
       <c r="E17" s="3">
-        <v>381000</v>
+        <v>399100</v>
       </c>
       <c r="F17" s="3">
-        <v>222800</v>
+        <v>233300</v>
       </c>
       <c r="G17" s="3">
-        <v>159500</v>
+        <v>167100</v>
       </c>
       <c r="H17" s="3">
-        <v>102400</v>
+        <v>107200</v>
       </c>
       <c r="I17" s="3">
-        <v>79000</v>
+        <v>82800</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1009,22 +1009,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>69700</v>
+        <v>73000</v>
       </c>
       <c r="E18" s="3">
-        <v>24500</v>
+        <v>25600</v>
       </c>
       <c r="F18" s="3">
-        <v>11900</v>
+        <v>12500</v>
       </c>
       <c r="G18" s="3">
-        <v>-6200</v>
+        <v>-6400</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
       <c r="I18" s="3">
-        <v>-11000</v>
+        <v>-11500</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1057,22 +1057,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>9100</v>
+        <v>9500</v>
       </c>
       <c r="E20" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="F20" s="3">
         <v>-500</v>
       </c>
       <c r="G20" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="H20" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="I20" s="3">
-        <v>10600</v>
+        <v>11100</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1090,22 +1090,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>244000</v>
+        <v>256200</v>
       </c>
       <c r="E21" s="3">
-        <v>138700</v>
+        <v>145700</v>
       </c>
       <c r="F21" s="3">
-        <v>66200</v>
+        <v>69500</v>
       </c>
       <c r="G21" s="3">
-        <v>30100</v>
+        <v>31600</v>
       </c>
       <c r="H21" s="3">
-        <v>23400</v>
+        <v>24600</v>
       </c>
       <c r="I21" s="3">
-        <v>11600</v>
+        <v>12200</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1123,22 +1123,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>140700</v>
+        <v>147400</v>
       </c>
       <c r="E22" s="3">
-        <v>95300</v>
+        <v>99800</v>
       </c>
       <c r="F22" s="3">
-        <v>59800</v>
+        <v>62700</v>
       </c>
       <c r="G22" s="3">
-        <v>38500</v>
+        <v>40300</v>
       </c>
       <c r="H22" s="3">
-        <v>18400</v>
+        <v>19300</v>
       </c>
       <c r="I22" s="3">
-        <v>19200</v>
+        <v>20100</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1156,22 +1156,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-61900</v>
+        <v>-64900</v>
       </c>
       <c r="E23" s="3">
-        <v>-63900</v>
+        <v>-66900</v>
       </c>
       <c r="F23" s="3">
-        <v>-48400</v>
+        <v>-50700</v>
       </c>
       <c r="G23" s="3">
-        <v>-41400</v>
+        <v>-43300</v>
       </c>
       <c r="H23" s="3">
-        <v>-16100</v>
+        <v>-16800</v>
       </c>
       <c r="I23" s="3">
-        <v>-19500</v>
+        <v>-20500</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1189,7 +1189,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E24" s="3">
         <v>-1400</v>
@@ -1198,10 +1198,10 @@
         <v>-900</v>
       </c>
       <c r="G24" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="H24" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="I24" s="3">
         <v>-700</v>
@@ -1255,22 +1255,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-64200</v>
+        <v>-67200</v>
       </c>
       <c r="E26" s="3">
-        <v>-62500</v>
+        <v>-65500</v>
       </c>
       <c r="F26" s="3">
-        <v>-47500</v>
+        <v>-49700</v>
       </c>
       <c r="G26" s="3">
-        <v>-40100</v>
+        <v>-42000</v>
       </c>
       <c r="H26" s="3">
-        <v>-14300</v>
+        <v>-15000</v>
       </c>
       <c r="I26" s="3">
-        <v>-18900</v>
+        <v>-19800</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1288,22 +1288,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-72600</v>
+        <v>-76100</v>
       </c>
       <c r="E27" s="3">
-        <v>-62500</v>
+        <v>-65500</v>
       </c>
       <c r="F27" s="3">
-        <v>-47500</v>
+        <v>-49700</v>
       </c>
       <c r="G27" s="3">
-        <v>-58600</v>
+        <v>-61400</v>
       </c>
       <c r="H27" s="3">
-        <v>-31500</v>
+        <v>-33000</v>
       </c>
       <c r="I27" s="3">
-        <v>-44900</v>
+        <v>-47000</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1453,22 +1453,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9100</v>
+        <v>-9500</v>
       </c>
       <c r="E32" s="3">
-        <v>-7000</v>
+        <v>-7300</v>
       </c>
       <c r="F32" s="3">
         <v>500</v>
       </c>
       <c r="G32" s="3">
-        <v>-3300</v>
+        <v>-3500</v>
       </c>
       <c r="H32" s="3">
-        <v>-2500</v>
+        <v>-2700</v>
       </c>
       <c r="I32" s="3">
-        <v>-10600</v>
+        <v>-11100</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1486,22 +1486,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-72600</v>
+        <v>-76100</v>
       </c>
       <c r="E33" s="3">
-        <v>-62500</v>
+        <v>-65500</v>
       </c>
       <c r="F33" s="3">
-        <v>-47500</v>
+        <v>-49700</v>
       </c>
       <c r="G33" s="3">
-        <v>-58600</v>
+        <v>-61400</v>
       </c>
       <c r="H33" s="3">
-        <v>-31500</v>
+        <v>-33000</v>
       </c>
       <c r="I33" s="3">
-        <v>-44900</v>
+        <v>-47000</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1552,22 +1552,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-72600</v>
+        <v>-76100</v>
       </c>
       <c r="E35" s="3">
-        <v>-62500</v>
+        <v>-65500</v>
       </c>
       <c r="F35" s="3">
-        <v>-47500</v>
+        <v>-49700</v>
       </c>
       <c r="G35" s="3">
-        <v>-58600</v>
+        <v>-61400</v>
       </c>
       <c r="H35" s="3">
-        <v>-31500</v>
+        <v>-33000</v>
       </c>
       <c r="I35" s="3">
-        <v>-44900</v>
+        <v>-47000</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1653,22 +1653,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>843900</v>
+        <v>884000</v>
       </c>
       <c r="E41" s="3">
-        <v>313900</v>
+        <v>328800</v>
       </c>
       <c r="F41" s="3">
-        <v>272100</v>
+        <v>285000</v>
       </c>
       <c r="G41" s="3">
-        <v>263100</v>
+        <v>275500</v>
       </c>
       <c r="H41" s="3">
-        <v>134300</v>
+        <v>140600</v>
       </c>
       <c r="I41" s="3">
-        <v>88100</v>
+        <v>92300</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1719,22 +1719,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>146700</v>
+        <v>153600</v>
       </c>
       <c r="E43" s="3">
-        <v>101700</v>
+        <v>106500</v>
       </c>
       <c r="F43" s="3">
-        <v>69300</v>
+        <v>72600</v>
       </c>
       <c r="G43" s="3">
-        <v>39500</v>
+        <v>41400</v>
       </c>
       <c r="H43" s="3">
-        <v>24900</v>
+        <v>26000</v>
       </c>
       <c r="I43" s="3">
-        <v>13500</v>
+        <v>14100</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1785,22 +1785,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>38300</v>
+        <v>40100</v>
       </c>
       <c r="E45" s="3">
-        <v>25500</v>
+        <v>26700</v>
       </c>
       <c r="F45" s="3">
-        <v>15000</v>
+        <v>15800</v>
       </c>
       <c r="G45" s="3">
-        <v>18400</v>
+        <v>19300</v>
       </c>
       <c r="H45" s="3">
-        <v>13200</v>
+        <v>13800</v>
       </c>
       <c r="I45" s="3">
-        <v>6700</v>
+        <v>7100</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1818,22 +1818,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1028900</v>
+        <v>1077700</v>
       </c>
       <c r="E46" s="3">
-        <v>441100</v>
+        <v>462000</v>
       </c>
       <c r="F46" s="3">
-        <v>356400</v>
+        <v>373300</v>
       </c>
       <c r="G46" s="3">
-        <v>321000</v>
+        <v>336200</v>
       </c>
       <c r="H46" s="3">
-        <v>172300</v>
+        <v>180500</v>
       </c>
       <c r="I46" s="3">
-        <v>108300</v>
+        <v>113500</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1851,16 +1851,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>129000</v>
+        <v>135200</v>
       </c>
       <c r="E47" s="3">
-        <v>70900</v>
+        <v>74300</v>
       </c>
       <c r="F47" s="3">
-        <v>42100</v>
+        <v>44100</v>
       </c>
       <c r="G47" s="3">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -1884,22 +1884,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2901900</v>
+        <v>3039600</v>
       </c>
       <c r="E48" s="3">
-        <v>2032500</v>
+        <v>2128900</v>
       </c>
       <c r="F48" s="3">
-        <v>1185900</v>
+        <v>1242200</v>
       </c>
       <c r="G48" s="3">
-        <v>627800</v>
+        <v>657600</v>
       </c>
       <c r="H48" s="3">
-        <v>364900</v>
+        <v>382200</v>
       </c>
       <c r="I48" s="3">
-        <v>246200</v>
+        <v>257800</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1917,22 +1917,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>334100</v>
+        <v>349900</v>
       </c>
       <c r="E49" s="3">
-        <v>324500</v>
+        <v>339900</v>
       </c>
       <c r="F49" s="3">
-        <v>278700</v>
+        <v>292000</v>
       </c>
       <c r="G49" s="3">
-        <v>208200</v>
+        <v>218100</v>
       </c>
       <c r="H49" s="3">
-        <v>199000</v>
+        <v>208400</v>
       </c>
       <c r="I49" s="3">
-        <v>200200</v>
+        <v>209700</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2016,22 +2016,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>179700</v>
+        <v>188300</v>
       </c>
       <c r="E52" s="3">
-        <v>164100</v>
+        <v>171900</v>
       </c>
       <c r="F52" s="3">
-        <v>45800</v>
+        <v>48000</v>
       </c>
       <c r="G52" s="3">
-        <v>20100</v>
+        <v>21000</v>
       </c>
       <c r="H52" s="3">
-        <v>12700</v>
+        <v>13300</v>
       </c>
       <c r="I52" s="3">
-        <v>5000</v>
+        <v>5300</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2082,22 +2082,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4573700</v>
+        <v>4790600</v>
       </c>
       <c r="E54" s="3">
-        <v>3033200</v>
+        <v>3177100</v>
       </c>
       <c r="F54" s="3">
-        <v>1909000</v>
+        <v>1999600</v>
       </c>
       <c r="G54" s="3">
-        <v>1191400</v>
+        <v>1248000</v>
       </c>
       <c r="H54" s="3">
-        <v>744800</v>
+        <v>780100</v>
       </c>
       <c r="I54" s="3">
-        <v>559700</v>
+        <v>586300</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2145,22 +2145,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>243400</v>
+        <v>254900</v>
       </c>
       <c r="E57" s="3">
-        <v>219000</v>
+        <v>229400</v>
       </c>
       <c r="F57" s="3">
-        <v>161300</v>
+        <v>168900</v>
       </c>
       <c r="G57" s="3">
-        <v>74600</v>
+        <v>78100</v>
       </c>
       <c r="H57" s="3">
-        <v>31300</v>
+        <v>32800</v>
       </c>
       <c r="I57" s="3">
-        <v>33700</v>
+        <v>35300</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2178,22 +2178,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>197500</v>
+        <v>206900</v>
       </c>
       <c r="E58" s="3">
-        <v>210600</v>
+        <v>220600</v>
       </c>
       <c r="F58" s="3">
-        <v>129000</v>
+        <v>135100</v>
       </c>
       <c r="G58" s="3">
-        <v>104100</v>
+        <v>109100</v>
       </c>
       <c r="H58" s="3">
-        <v>79100</v>
+        <v>82800</v>
       </c>
       <c r="I58" s="3">
-        <v>73200</v>
+        <v>76700</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2211,22 +2211,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>139900</v>
+        <v>146500</v>
       </c>
       <c r="E59" s="3">
-        <v>79800</v>
+        <v>83600</v>
       </c>
       <c r="F59" s="3">
-        <v>61600</v>
+        <v>64500</v>
       </c>
       <c r="G59" s="3">
-        <v>36100</v>
+        <v>37800</v>
       </c>
       <c r="H59" s="3">
-        <v>23900</v>
+        <v>25100</v>
       </c>
       <c r="I59" s="3">
-        <v>23500</v>
+        <v>24600</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2244,22 +2244,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>580800</v>
+        <v>608400</v>
       </c>
       <c r="E60" s="3">
-        <v>509400</v>
+        <v>533600</v>
       </c>
       <c r="F60" s="3">
-        <v>351900</v>
+        <v>368600</v>
       </c>
       <c r="G60" s="3">
-        <v>214800</v>
+        <v>225000</v>
       </c>
       <c r="H60" s="3">
-        <v>134300</v>
+        <v>140700</v>
       </c>
       <c r="I60" s="3">
-        <v>130400</v>
+        <v>136500</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2277,22 +2277,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2153700</v>
+        <v>2255800</v>
       </c>
       <c r="E61" s="3">
-        <v>1647300</v>
+        <v>1725500</v>
       </c>
       <c r="F61" s="3">
-        <v>836900</v>
+        <v>876600</v>
       </c>
       <c r="G61" s="3">
-        <v>518900</v>
+        <v>543600</v>
       </c>
       <c r="H61" s="3">
-        <v>295100</v>
+        <v>309100</v>
       </c>
       <c r="I61" s="3">
-        <v>107300</v>
+        <v>112400</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>190000</v>
+        <v>199000</v>
       </c>
       <c r="E62" s="3">
-        <v>74500</v>
+        <v>78000</v>
       </c>
       <c r="F62" s="3">
-        <v>70200</v>
+        <v>73500</v>
       </c>
       <c r="G62" s="3">
-        <v>24000</v>
+        <v>25100</v>
       </c>
       <c r="H62" s="3">
-        <v>16900</v>
+        <v>17800</v>
       </c>
       <c r="I62" s="3">
-        <v>10100</v>
+        <v>10600</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2442,22 +2442,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2924500</v>
+        <v>3063200</v>
       </c>
       <c r="E66" s="3">
-        <v>2231200</v>
+        <v>2337100</v>
       </c>
       <c r="F66" s="3">
-        <v>1259000</v>
+        <v>1318700</v>
       </c>
       <c r="G66" s="3">
-        <v>757700</v>
+        <v>793700</v>
       </c>
       <c r="H66" s="3">
-        <v>446400</v>
+        <v>467500</v>
       </c>
       <c r="I66" s="3">
-        <v>247800</v>
+        <v>259600</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2556,7 +2556,7 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>154200</v>
+        <v>161500</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -2568,10 +2568,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>347900</v>
+        <v>364400</v>
       </c>
       <c r="I70" s="3">
-        <v>314300</v>
+        <v>329200</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2622,22 +2622,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-298800</v>
+        <v>-312900</v>
       </c>
       <c r="E72" s="3">
-        <v>-234600</v>
+        <v>-245700</v>
       </c>
       <c r="F72" s="3">
-        <v>-172200</v>
+        <v>-180300</v>
       </c>
       <c r="G72" s="3">
-        <v>-124700</v>
+        <v>-130600</v>
       </c>
       <c r="H72" s="3">
-        <v>-84600</v>
+        <v>-88600</v>
       </c>
       <c r="I72" s="3">
-        <v>-70200</v>
+        <v>-73600</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2754,22 +2754,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1495000</v>
+        <v>1565900</v>
       </c>
       <c r="E76" s="3">
-        <v>801900</v>
+        <v>840000</v>
       </c>
       <c r="F76" s="3">
-        <v>650000</v>
+        <v>680800</v>
       </c>
       <c r="G76" s="3">
-        <v>433700</v>
+        <v>454300</v>
       </c>
       <c r="H76" s="3">
-        <v>-49500</v>
+        <v>-51800</v>
       </c>
       <c r="I76" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2858,22 +2858,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-72600</v>
+        <v>-76100</v>
       </c>
       <c r="E81" s="3">
-        <v>-62500</v>
+        <v>-65500</v>
       </c>
       <c r="F81" s="3">
-        <v>-47500</v>
+        <v>-49700</v>
       </c>
       <c r="G81" s="3">
-        <v>-58600</v>
+        <v>-61400</v>
       </c>
       <c r="H81" s="3">
-        <v>-31500</v>
+        <v>-33000</v>
       </c>
       <c r="I81" s="3">
-        <v>-44900</v>
+        <v>-47000</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2906,22 +2906,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>165900</v>
+        <v>173700</v>
       </c>
       <c r="E83" s="3">
-        <v>107700</v>
+        <v>112800</v>
       </c>
       <c r="F83" s="3">
-        <v>54900</v>
+        <v>57500</v>
       </c>
       <c r="G83" s="3">
-        <v>33000</v>
+        <v>34600</v>
       </c>
       <c r="H83" s="3">
-        <v>21100</v>
+        <v>22100</v>
       </c>
       <c r="I83" s="3">
-        <v>12000</v>
+        <v>12600</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3104,22 +3104,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>42600</v>
+        <v>44600</v>
       </c>
       <c r="E89" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="F89" s="3">
-        <v>-24400</v>
+        <v>-25500</v>
       </c>
       <c r="G89" s="3">
-        <v>-18700</v>
+        <v>-19600</v>
       </c>
       <c r="H89" s="3">
-        <v>-11700</v>
+        <v>-12200</v>
       </c>
       <c r="I89" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3152,22 +3152,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-661900</v>
+        <v>-693300</v>
       </c>
       <c r="E91" s="3">
-        <v>-618800</v>
+        <v>-648200</v>
       </c>
       <c r="F91" s="3">
-        <v>-249800</v>
+        <v>-261700</v>
       </c>
       <c r="G91" s="3">
-        <v>-143500</v>
+        <v>-150300</v>
       </c>
       <c r="H91" s="3">
-        <v>-106500</v>
+        <v>-111500</v>
       </c>
       <c r="I91" s="3">
-        <v>-36100</v>
+        <v>-37800</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3251,22 +3251,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-745200</v>
+        <v>-780600</v>
       </c>
       <c r="E94" s="3">
-        <v>-687400</v>
+        <v>-720000</v>
       </c>
       <c r="F94" s="3">
-        <v>-291200</v>
+        <v>-305000</v>
       </c>
       <c r="G94" s="3">
-        <v>-166600</v>
+        <v>-174500</v>
       </c>
       <c r="H94" s="3">
-        <v>-106300</v>
+        <v>-111300</v>
       </c>
       <c r="I94" s="3">
-        <v>-76100</v>
+        <v>-79700</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3299,7 +3299,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3600</v>
+        <v>-3800</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-11100</v>
+        <v>-11600</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3431,22 +3431,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1214400</v>
+        <v>1272000</v>
       </c>
       <c r="E100" s="3">
-        <v>708300</v>
+        <v>741900</v>
       </c>
       <c r="F100" s="3">
-        <v>342100</v>
+        <v>358400</v>
       </c>
       <c r="G100" s="3">
-        <v>309100</v>
+        <v>323800</v>
       </c>
       <c r="H100" s="3">
-        <v>163800</v>
+        <v>171500</v>
       </c>
       <c r="I100" s="3">
-        <v>153400</v>
+        <v>160700</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3464,22 +3464,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>23900</v>
+        <v>25000</v>
       </c>
       <c r="E101" s="3">
-        <v>30000</v>
+        <v>31400</v>
       </c>
       <c r="F101" s="3">
-        <v>-10800</v>
+        <v>-11300</v>
       </c>
       <c r="G101" s="3">
-        <v>8100</v>
+        <v>8400</v>
       </c>
       <c r="H101" s="3">
         <v>300</v>
       </c>
       <c r="I101" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3497,22 +3497,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>535700</v>
+        <v>561100</v>
       </c>
       <c r="E102" s="3">
-        <v>49000</v>
+        <v>51300</v>
       </c>
       <c r="F102" s="3">
-        <v>15800</v>
+        <v>16500</v>
       </c>
       <c r="G102" s="3">
-        <v>131900</v>
+        <v>138100</v>
       </c>
       <c r="H102" s="3">
-        <v>46100</v>
+        <v>48300</v>
       </c>
       <c r="I102" s="3">
-        <v>81100</v>
+        <v>84900</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/GDS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GDS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
   <si>
     <t>GDS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,81 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>627100</v>
+        <v>876800</v>
       </c>
       <c r="E8" s="3">
-        <v>424700</v>
+        <v>629800</v>
       </c>
       <c r="F8" s="3">
-        <v>245900</v>
+        <v>426600</v>
       </c>
       <c r="G8" s="3">
-        <v>160600</v>
+        <v>246900</v>
       </c>
       <c r="H8" s="3">
-        <v>107000</v>
+        <v>161300</v>
       </c>
       <c r="I8" s="3">
-        <v>71200</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>107500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>71600</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -744,32 +747,35 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>468500</v>
+        <v>639900</v>
       </c>
       <c r="E9" s="3">
-        <v>330000</v>
+        <v>470500</v>
       </c>
       <c r="F9" s="3">
-        <v>183700</v>
+        <v>331500</v>
       </c>
       <c r="G9" s="3">
-        <v>120200</v>
+        <v>184500</v>
       </c>
       <c r="H9" s="3">
-        <v>78300</v>
+        <v>120700</v>
       </c>
       <c r="I9" s="3">
-        <v>59000</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+        <v>78700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>59300</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -777,42 +783,48 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>158600</v>
+        <v>236900</v>
       </c>
       <c r="E10" s="3">
-        <v>94700</v>
+        <v>159300</v>
       </c>
       <c r="F10" s="3">
-        <v>62100</v>
+        <v>95100</v>
       </c>
       <c r="G10" s="3">
-        <v>40400</v>
+        <v>62400</v>
       </c>
       <c r="H10" s="3">
-        <v>28700</v>
+        <v>40600</v>
       </c>
       <c r="I10" s="3">
+        <v>28800</v>
+      </c>
+      <c r="J10" s="3">
         <v>12200</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,41 +838,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E12" s="3">
         <v>3100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,32 +907,35 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-8400</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -924,42 +943,48 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
         <v>1800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1100</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,31 +995,32 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>554100</v>
+        <v>765600</v>
       </c>
       <c r="E17" s="3">
-        <v>399100</v>
+        <v>556500</v>
       </c>
       <c r="F17" s="3">
-        <v>233300</v>
+        <v>400900</v>
       </c>
       <c r="G17" s="3">
-        <v>167100</v>
+        <v>234400</v>
       </c>
       <c r="H17" s="3">
-        <v>107200</v>
+        <v>167800</v>
       </c>
       <c r="I17" s="3">
-        <v>82800</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>107700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>83100</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1002,32 +1028,35 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>73000</v>
+        <v>111200</v>
       </c>
       <c r="E18" s="3">
-        <v>25600</v>
+        <v>73300</v>
       </c>
       <c r="F18" s="3">
-        <v>12500</v>
+        <v>25700</v>
       </c>
       <c r="G18" s="3">
-        <v>-6400</v>
+        <v>12600</v>
       </c>
       <c r="H18" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
-        <v>-11500</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="J18" s="3">
+        <v>-11600</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,31 +1083,32 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E20" s="3">
         <v>9500</v>
       </c>
-      <c r="E20" s="3">
-        <v>7300</v>
-      </c>
       <c r="F20" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2700</v>
       </c>
-      <c r="I20" s="3">
-        <v>11100</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>11200</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1083,32 +1116,35 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>256200</v>
+        <v>364100</v>
       </c>
       <c r="E21" s="3">
-        <v>145700</v>
+        <v>257900</v>
       </c>
       <c r="F21" s="3">
-        <v>69500</v>
+        <v>146800</v>
       </c>
       <c r="G21" s="3">
-        <v>31600</v>
+        <v>70000</v>
       </c>
       <c r="H21" s="3">
-        <v>24600</v>
+        <v>31900</v>
       </c>
       <c r="I21" s="3">
-        <v>12200</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>24800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>12300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1116,32 +1152,35 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>147400</v>
+        <v>196700</v>
       </c>
       <c r="E22" s="3">
-        <v>99800</v>
+        <v>148000</v>
       </c>
       <c r="F22" s="3">
-        <v>62700</v>
+        <v>100300</v>
       </c>
       <c r="G22" s="3">
-        <v>40300</v>
+        <v>62900</v>
       </c>
       <c r="H22" s="3">
-        <v>19300</v>
+        <v>40500</v>
       </c>
       <c r="I22" s="3">
-        <v>20100</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+        <v>19400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>20200</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1149,32 +1188,35 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-64900</v>
+        <v>-83800</v>
       </c>
       <c r="E23" s="3">
-        <v>-66900</v>
+        <v>-65200</v>
       </c>
       <c r="F23" s="3">
-        <v>-50700</v>
+        <v>-67200</v>
       </c>
       <c r="G23" s="3">
-        <v>-43300</v>
+        <v>-50900</v>
       </c>
       <c r="H23" s="3">
-        <v>-16800</v>
+        <v>-43500</v>
       </c>
       <c r="I23" s="3">
-        <v>-20500</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>-16900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-20600</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1182,42 +1224,48 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E24" s="3">
         <v>2400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-700</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,32 +1296,35 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-67200</v>
+        <v>-102200</v>
       </c>
       <c r="E26" s="3">
-        <v>-65500</v>
+        <v>-67500</v>
       </c>
       <c r="F26" s="3">
-        <v>-49700</v>
+        <v>-65700</v>
       </c>
       <c r="G26" s="3">
-        <v>-42000</v>
+        <v>-49900</v>
       </c>
       <c r="H26" s="3">
-        <v>-15000</v>
+        <v>-42200</v>
       </c>
       <c r="I26" s="3">
-        <v>-19800</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>-15100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-19900</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1281,32 +1332,35 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-76100</v>
+        <v>-112700</v>
       </c>
       <c r="E27" s="3">
-        <v>-65500</v>
+        <v>-76400</v>
       </c>
       <c r="F27" s="3">
-        <v>-49700</v>
+        <v>-65700</v>
       </c>
       <c r="G27" s="3">
-        <v>-61400</v>
+        <v>-49900</v>
       </c>
       <c r="H27" s="3">
-        <v>-33000</v>
+        <v>-61600</v>
       </c>
       <c r="I27" s="3">
-        <v>-47000</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>-33100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-47200</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1314,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,32 +1512,35 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-9500</v>
       </c>
-      <c r="E32" s="3">
-        <v>-7300</v>
-      </c>
       <c r="F32" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2700</v>
       </c>
-      <c r="I32" s="3">
-        <v>-11100</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>-11200</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1479,32 +1548,35 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-76100</v>
+        <v>-112700</v>
       </c>
       <c r="E33" s="3">
-        <v>-65500</v>
+        <v>-76400</v>
       </c>
       <c r="F33" s="3">
-        <v>-49700</v>
+        <v>-65700</v>
       </c>
       <c r="G33" s="3">
-        <v>-61400</v>
+        <v>-49900</v>
       </c>
       <c r="H33" s="3">
-        <v>-33000</v>
+        <v>-61600</v>
       </c>
       <c r="I33" s="3">
-        <v>-47000</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>-33100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-47200</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1512,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,32 +1620,35 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-76100</v>
+        <v>-112700</v>
       </c>
       <c r="E35" s="3">
-        <v>-65500</v>
+        <v>-76400</v>
       </c>
       <c r="F35" s="3">
-        <v>-49700</v>
+        <v>-65700</v>
       </c>
       <c r="G35" s="3">
-        <v>-61400</v>
+        <v>-49900</v>
       </c>
       <c r="H35" s="3">
-        <v>-33000</v>
+        <v>-61600</v>
       </c>
       <c r="I35" s="3">
-        <v>-47000</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>-33100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-47200</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1578,47 +1656,53 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,31 +1732,32 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>884000</v>
+        <v>2484100</v>
       </c>
       <c r="E41" s="3">
-        <v>328800</v>
+        <v>887800</v>
       </c>
       <c r="F41" s="3">
-        <v>285000</v>
+        <v>330300</v>
       </c>
       <c r="G41" s="3">
-        <v>275500</v>
+        <v>286200</v>
       </c>
       <c r="H41" s="3">
-        <v>140600</v>
+        <v>276700</v>
       </c>
       <c r="I41" s="3">
-        <v>92300</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+        <v>141200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>92700</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1679,9 +1765,12 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1712,32 +1801,35 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>153600</v>
+        <v>249900</v>
       </c>
       <c r="E43" s="3">
-        <v>106500</v>
+        <v>154300</v>
       </c>
       <c r="F43" s="3">
-        <v>72600</v>
+        <v>107000</v>
       </c>
       <c r="G43" s="3">
-        <v>41400</v>
+        <v>72900</v>
       </c>
       <c r="H43" s="3">
-        <v>26000</v>
+        <v>41600</v>
       </c>
       <c r="I43" s="3">
-        <v>14100</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+        <v>26200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>14200</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1745,9 +1837,12 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1778,65 +1873,71 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>40100</v>
+        <v>64700</v>
       </c>
       <c r="E45" s="3">
-        <v>26700</v>
+        <v>40300</v>
       </c>
       <c r="F45" s="3">
+        <v>26800</v>
+      </c>
+      <c r="G45" s="3">
         <v>15800</v>
       </c>
-      <c r="G45" s="3">
-        <v>19300</v>
-      </c>
       <c r="H45" s="3">
-        <v>13800</v>
+        <v>19400</v>
       </c>
       <c r="I45" s="3">
+        <v>13900</v>
+      </c>
+      <c r="J45" s="3">
         <v>7100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1077700</v>
+        <v>2798700</v>
       </c>
       <c r="E46" s="3">
-        <v>462000</v>
+        <v>1082400</v>
       </c>
       <c r="F46" s="3">
-        <v>373300</v>
+        <v>464100</v>
       </c>
       <c r="G46" s="3">
-        <v>336200</v>
+        <v>374900</v>
       </c>
       <c r="H46" s="3">
-        <v>180500</v>
+        <v>337700</v>
       </c>
       <c r="I46" s="3">
-        <v>113500</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+        <v>181300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>113900</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1844,29 +1945,32 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>135200</v>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="3">
-        <v>74300</v>
+        <v>135700</v>
       </c>
       <c r="F47" s="3">
-        <v>44100</v>
+        <v>74600</v>
       </c>
       <c r="G47" s="3">
-        <v>15000</v>
+        <v>44300</v>
       </c>
       <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+        <v>15100</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1877,32 +1981,35 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3039600</v>
+        <v>4989100</v>
       </c>
       <c r="E48" s="3">
-        <v>2128900</v>
+        <v>3052700</v>
       </c>
       <c r="F48" s="3">
-        <v>1242200</v>
+        <v>2138100</v>
       </c>
       <c r="G48" s="3">
-        <v>657600</v>
+        <v>1247500</v>
       </c>
       <c r="H48" s="3">
-        <v>382200</v>
+        <v>660500</v>
       </c>
       <c r="I48" s="3">
-        <v>257800</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+        <v>383900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>259000</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -1910,32 +2017,35 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>349900</v>
+        <v>516700</v>
       </c>
       <c r="E49" s="3">
-        <v>339900</v>
+        <v>351500</v>
       </c>
       <c r="F49" s="3">
-        <v>292000</v>
+        <v>341400</v>
       </c>
       <c r="G49" s="3">
-        <v>218100</v>
+        <v>293200</v>
       </c>
       <c r="H49" s="3">
-        <v>208400</v>
+        <v>219000</v>
       </c>
       <c r="I49" s="3">
-        <v>209700</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+        <v>209300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>210600</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,42 +2125,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>188300</v>
+        <v>443400</v>
       </c>
       <c r="E52" s="3">
-        <v>171900</v>
+        <v>189100</v>
       </c>
       <c r="F52" s="3">
-        <v>48000</v>
+        <v>172600</v>
       </c>
       <c r="G52" s="3">
-        <v>21000</v>
+        <v>48200</v>
       </c>
       <c r="H52" s="3">
+        <v>21100</v>
+      </c>
+      <c r="I52" s="3">
         <v>13300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,32 +2197,35 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4790600</v>
+        <v>8748000</v>
       </c>
       <c r="E54" s="3">
-        <v>3177100</v>
+        <v>4811400</v>
       </c>
       <c r="F54" s="3">
-        <v>1999600</v>
+        <v>3190800</v>
       </c>
       <c r="G54" s="3">
-        <v>1248000</v>
+        <v>2008200</v>
       </c>
       <c r="H54" s="3">
-        <v>780100</v>
+        <v>1253400</v>
       </c>
       <c r="I54" s="3">
-        <v>586300</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>783500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>588800</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2108,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,31 +2268,32 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>254900</v>
+        <v>558700</v>
       </c>
       <c r="E57" s="3">
-        <v>229400</v>
+        <v>256100</v>
       </c>
       <c r="F57" s="3">
-        <v>168900</v>
+        <v>230400</v>
       </c>
       <c r="G57" s="3">
-        <v>78100</v>
+        <v>169600</v>
       </c>
       <c r="H57" s="3">
-        <v>32800</v>
+        <v>78500</v>
       </c>
       <c r="I57" s="3">
-        <v>35300</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+        <v>32900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>35400</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2171,32 +2301,35 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>206900</v>
+        <v>367900</v>
       </c>
       <c r="E58" s="3">
-        <v>220600</v>
+        <v>207800</v>
       </c>
       <c r="F58" s="3">
-        <v>135100</v>
+        <v>221600</v>
       </c>
       <c r="G58" s="3">
-        <v>109100</v>
+        <v>135700</v>
       </c>
       <c r="H58" s="3">
-        <v>82800</v>
+        <v>109600</v>
       </c>
       <c r="I58" s="3">
-        <v>76700</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+        <v>83200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>77000</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2204,32 +2337,35 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>146500</v>
+        <v>241200</v>
       </c>
       <c r="E59" s="3">
-        <v>83600</v>
+        <v>147200</v>
       </c>
       <c r="F59" s="3">
-        <v>64500</v>
+        <v>84000</v>
       </c>
       <c r="G59" s="3">
-        <v>37800</v>
+        <v>64800</v>
       </c>
       <c r="H59" s="3">
-        <v>25100</v>
+        <v>38000</v>
       </c>
       <c r="I59" s="3">
-        <v>24600</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>25200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>24700</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2237,32 +2373,35 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>608400</v>
+        <v>1167800</v>
       </c>
       <c r="E60" s="3">
-        <v>533600</v>
+        <v>611000</v>
       </c>
       <c r="F60" s="3">
-        <v>368600</v>
+        <v>535900</v>
       </c>
       <c r="G60" s="3">
-        <v>225000</v>
+        <v>370200</v>
       </c>
       <c r="H60" s="3">
-        <v>140700</v>
+        <v>226000</v>
       </c>
       <c r="I60" s="3">
-        <v>136500</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+        <v>141300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>137100</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2270,32 +2409,35 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2255800</v>
+        <v>3146200</v>
       </c>
       <c r="E61" s="3">
-        <v>1725500</v>
+        <v>2265600</v>
       </c>
       <c r="F61" s="3">
-        <v>876600</v>
+        <v>1732900</v>
       </c>
       <c r="G61" s="3">
-        <v>543600</v>
+        <v>880400</v>
       </c>
       <c r="H61" s="3">
-        <v>309100</v>
+        <v>545900</v>
       </c>
       <c r="I61" s="3">
-        <v>112400</v>
+        <v>310400</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>112900</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2303,32 +2445,35 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>199000</v>
+        <v>359700</v>
       </c>
       <c r="E62" s="3">
-        <v>78000</v>
+        <v>199900</v>
       </c>
       <c r="F62" s="3">
-        <v>73500</v>
+        <v>78300</v>
       </c>
       <c r="G62" s="3">
-        <v>25100</v>
+        <v>73800</v>
       </c>
       <c r="H62" s="3">
+        <v>25200</v>
+      </c>
+      <c r="I62" s="3">
         <v>17800</v>
       </c>
-      <c r="I62" s="3">
-        <v>10600</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>10700</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2336,9 +2481,12 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,32 +2589,35 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3063200</v>
+        <v>4673700</v>
       </c>
       <c r="E66" s="3">
-        <v>2337100</v>
+        <v>3076500</v>
       </c>
       <c r="F66" s="3">
-        <v>1318700</v>
+        <v>2347200</v>
       </c>
       <c r="G66" s="3">
-        <v>793700</v>
+        <v>1324500</v>
       </c>
       <c r="H66" s="3">
-        <v>467500</v>
+        <v>797100</v>
       </c>
       <c r="I66" s="3">
-        <v>259600</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>469600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>260700</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,17 +2713,20 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>161500</v>
+        <v>168300</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>162200</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2568,13 +2735,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>364400</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>329200</v>
+        <v>366000</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>330600</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,32 +2785,35 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-312900</v>
+        <v>-416100</v>
       </c>
       <c r="E72" s="3">
-        <v>-245700</v>
+        <v>-314300</v>
       </c>
       <c r="F72" s="3">
-        <v>-180300</v>
+        <v>-246800</v>
       </c>
       <c r="G72" s="3">
-        <v>-130600</v>
+        <v>-181100</v>
       </c>
       <c r="H72" s="3">
-        <v>-88600</v>
+        <v>-131200</v>
       </c>
       <c r="I72" s="3">
-        <v>-73600</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>-89000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-73900</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,42 +2929,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1565900</v>
+        <v>3906000</v>
       </c>
       <c r="E76" s="3">
-        <v>840000</v>
+        <v>1572700</v>
       </c>
       <c r="F76" s="3">
-        <v>680800</v>
+        <v>843600</v>
       </c>
       <c r="G76" s="3">
-        <v>454300</v>
+        <v>683800</v>
       </c>
       <c r="H76" s="3">
-        <v>-51800</v>
+        <v>456300</v>
       </c>
       <c r="I76" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="J76" s="3">
         <v>-2500</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,70 +3001,76 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-76100</v>
+        <v>-112700</v>
       </c>
       <c r="E81" s="3">
-        <v>-65500</v>
+        <v>-76400</v>
       </c>
       <c r="F81" s="3">
-        <v>-49700</v>
+        <v>-65700</v>
       </c>
       <c r="G81" s="3">
-        <v>-61400</v>
+        <v>-49900</v>
       </c>
       <c r="H81" s="3">
-        <v>-33000</v>
+        <v>-61600</v>
       </c>
       <c r="I81" s="3">
-        <v>-47000</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>-33100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-47200</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2884,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,41 +3097,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>173700</v>
+        <v>250300</v>
       </c>
       <c r="E83" s="3">
-        <v>112800</v>
+        <v>174500</v>
       </c>
       <c r="F83" s="3">
-        <v>57500</v>
+        <v>113300</v>
       </c>
       <c r="G83" s="3">
-        <v>34600</v>
+        <v>57800</v>
       </c>
       <c r="H83" s="3">
-        <v>22100</v>
+        <v>34700</v>
       </c>
       <c r="I83" s="3">
+        <v>22200</v>
+      </c>
+      <c r="J83" s="3">
         <v>12600</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,32 +3310,35 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>44600</v>
+        <v>49000</v>
       </c>
       <c r="E89" s="3">
+        <v>44800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2000</v>
       </c>
-      <c r="F89" s="3">
-        <v>-25500</v>
-      </c>
       <c r="G89" s="3">
-        <v>-19600</v>
+        <v>-25600</v>
       </c>
       <c r="H89" s="3">
-        <v>-12200</v>
+        <v>-19700</v>
       </c>
       <c r="I89" s="3">
-        <v>4200</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>-12300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>4300</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,31 +3365,32 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-693300</v>
+        <v>-1225400</v>
       </c>
       <c r="E91" s="3">
-        <v>-648200</v>
+        <v>-696300</v>
       </c>
       <c r="F91" s="3">
-        <v>-261700</v>
+        <v>-651000</v>
       </c>
       <c r="G91" s="3">
-        <v>-150300</v>
+        <v>-262800</v>
       </c>
       <c r="H91" s="3">
-        <v>-111500</v>
+        <v>-150900</v>
       </c>
       <c r="I91" s="3">
-        <v>-37800</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+        <v>-112000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-37900</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,32 +3470,35 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-780600</v>
+        <v>-1432800</v>
       </c>
       <c r="E94" s="3">
-        <v>-720000</v>
+        <v>-783900</v>
       </c>
       <c r="F94" s="3">
-        <v>-305000</v>
+        <v>-723100</v>
       </c>
       <c r="G94" s="3">
-        <v>-174500</v>
+        <v>-306300</v>
       </c>
       <c r="H94" s="3">
-        <v>-111300</v>
+        <v>-175200</v>
       </c>
       <c r="I94" s="3">
-        <v>-79700</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-111800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-80000</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,25 +3525,26 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3800</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-11600</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-11700</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,32 +3666,35 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1272000</v>
+        <v>3077500</v>
       </c>
       <c r="E100" s="3">
-        <v>741900</v>
+        <v>1277500</v>
       </c>
       <c r="F100" s="3">
-        <v>358400</v>
+        <v>745100</v>
       </c>
       <c r="G100" s="3">
-        <v>323800</v>
+        <v>359900</v>
       </c>
       <c r="H100" s="3">
-        <v>171500</v>
+        <v>325200</v>
       </c>
       <c r="I100" s="3">
-        <v>160700</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>172300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>161400</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3457,65 +3702,71 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>25000</v>
+        <v>-86600</v>
       </c>
       <c r="E101" s="3">
-        <v>31400</v>
+        <v>25100</v>
       </c>
       <c r="F101" s="3">
+        <v>31500</v>
+      </c>
+      <c r="G101" s="3">
         <v>-11300</v>
       </c>
-      <c r="G101" s="3">
-        <v>8400</v>
-      </c>
       <c r="H101" s="3">
+        <v>8500</v>
+      </c>
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>561100</v>
+        <v>1607200</v>
       </c>
       <c r="E102" s="3">
-        <v>51300</v>
+        <v>563500</v>
       </c>
       <c r="F102" s="3">
-        <v>16500</v>
+        <v>51500</v>
       </c>
       <c r="G102" s="3">
-        <v>138100</v>
+        <v>16600</v>
       </c>
       <c r="H102" s="3">
-        <v>48300</v>
+        <v>138700</v>
       </c>
       <c r="I102" s="3">
-        <v>84900</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>48500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>85300</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3523,7 +3774,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/GDS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GDS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
   <si>
     <t>GDS</t>
   </si>
@@ -721,25 +721,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>876800</v>
+        <v>895300</v>
       </c>
       <c r="E8" s="3">
-        <v>629800</v>
+        <v>643100</v>
       </c>
       <c r="F8" s="3">
-        <v>426600</v>
+        <v>435600</v>
       </c>
       <c r="G8" s="3">
-        <v>246900</v>
+        <v>252100</v>
       </c>
       <c r="H8" s="3">
-        <v>161300</v>
+        <v>164700</v>
       </c>
       <c r="I8" s="3">
-        <v>107500</v>
+        <v>109800</v>
       </c>
       <c r="J8" s="3">
-        <v>71600</v>
+        <v>73100</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -757,25 +757,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>639900</v>
+        <v>653500</v>
       </c>
       <c r="E9" s="3">
-        <v>470500</v>
+        <v>480500</v>
       </c>
       <c r="F9" s="3">
-        <v>331500</v>
+        <v>338500</v>
       </c>
       <c r="G9" s="3">
-        <v>184500</v>
+        <v>188400</v>
       </c>
       <c r="H9" s="3">
-        <v>120700</v>
+        <v>123300</v>
       </c>
       <c r="I9" s="3">
-        <v>78700</v>
+        <v>80300</v>
       </c>
       <c r="J9" s="3">
-        <v>59300</v>
+        <v>60600</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -793,25 +793,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>236900</v>
+        <v>241900</v>
       </c>
       <c r="E10" s="3">
-        <v>159300</v>
+        <v>162700</v>
       </c>
       <c r="F10" s="3">
-        <v>95100</v>
+        <v>97100</v>
       </c>
       <c r="G10" s="3">
-        <v>62400</v>
+        <v>63700</v>
       </c>
       <c r="H10" s="3">
-        <v>40600</v>
+        <v>41400</v>
       </c>
       <c r="I10" s="3">
-        <v>28800</v>
+        <v>29400</v>
       </c>
       <c r="J10" s="3">
-        <v>12200</v>
+        <v>12500</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -845,13 +845,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>6100</v>
+        <v>5700</v>
       </c>
       <c r="E12" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F12" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G12" s="3">
         <v>1000</v>
@@ -860,7 +860,7 @@
         <v>1300</v>
       </c>
       <c r="I12" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J12" s="3">
         <v>200</v>
@@ -917,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-8400</v>
+        <v>-8600</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -952,8 +952,8 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>19400</v>
       </c>
       <c r="E15" s="3">
         <v>1800</v>
@@ -962,10 +962,10 @@
         <v>1200</v>
       </c>
       <c r="G15" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H15" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I15" s="3">
         <v>700</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>765600</v>
+        <v>781700</v>
       </c>
       <c r="E17" s="3">
-        <v>556500</v>
+        <v>568300</v>
       </c>
       <c r="F17" s="3">
-        <v>400900</v>
+        <v>409300</v>
       </c>
       <c r="G17" s="3">
-        <v>234400</v>
+        <v>239300</v>
       </c>
       <c r="H17" s="3">
-        <v>167800</v>
+        <v>171400</v>
       </c>
       <c r="I17" s="3">
-        <v>107700</v>
+        <v>110000</v>
       </c>
       <c r="J17" s="3">
-        <v>83100</v>
+        <v>84900</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>111200</v>
+        <v>113600</v>
       </c>
       <c r="E18" s="3">
-        <v>73300</v>
+        <v>74900</v>
       </c>
       <c r="F18" s="3">
-        <v>25700</v>
+        <v>26300</v>
       </c>
       <c r="G18" s="3">
-        <v>12600</v>
+        <v>12800</v>
       </c>
       <c r="H18" s="3">
-        <v>-6500</v>
+        <v>-6600</v>
       </c>
       <c r="I18" s="3">
         <v>-200</v>
       </c>
       <c r="J18" s="3">
-        <v>-11600</v>
+        <v>-11800</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1090,25 +1090,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1700</v>
+        <v>6200</v>
       </c>
       <c r="E20" s="3">
-        <v>9500</v>
+        <v>9700</v>
       </c>
       <c r="F20" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="G20" s="3">
         <v>-500</v>
       </c>
       <c r="H20" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="I20" s="3">
         <v>2700</v>
       </c>
       <c r="J20" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>364100</v>
+        <v>375100</v>
       </c>
       <c r="E21" s="3">
-        <v>257900</v>
+        <v>262500</v>
       </c>
       <c r="F21" s="3">
-        <v>146800</v>
+        <v>149300</v>
       </c>
       <c r="G21" s="3">
-        <v>70000</v>
+        <v>71200</v>
       </c>
       <c r="H21" s="3">
-        <v>31900</v>
+        <v>32400</v>
       </c>
       <c r="I21" s="3">
-        <v>24800</v>
+        <v>25200</v>
       </c>
       <c r="J21" s="3">
-        <v>12300</v>
+        <v>12500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1162,25 +1162,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>196700</v>
+        <v>205400</v>
       </c>
       <c r="E22" s="3">
-        <v>148000</v>
+        <v>151100</v>
       </c>
       <c r="F22" s="3">
-        <v>100300</v>
+        <v>102400</v>
       </c>
       <c r="G22" s="3">
-        <v>62900</v>
+        <v>64300</v>
       </c>
       <c r="H22" s="3">
-        <v>40500</v>
+        <v>41400</v>
       </c>
       <c r="I22" s="3">
-        <v>19400</v>
+        <v>19800</v>
       </c>
       <c r="J22" s="3">
-        <v>20200</v>
+        <v>20600</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-83800</v>
+        <v>-85600</v>
       </c>
       <c r="E23" s="3">
-        <v>-65200</v>
+        <v>-66500</v>
       </c>
       <c r="F23" s="3">
-        <v>-67200</v>
+        <v>-68600</v>
       </c>
       <c r="G23" s="3">
-        <v>-50900</v>
+        <v>-51900</v>
       </c>
       <c r="H23" s="3">
-        <v>-43500</v>
+        <v>-44400</v>
       </c>
       <c r="I23" s="3">
-        <v>-16900</v>
+        <v>-17200</v>
       </c>
       <c r="J23" s="3">
-        <v>-20600</v>
+        <v>-21000</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>18500</v>
+        <v>18800</v>
       </c>
       <c r="E24" s="3">
         <v>2400</v>
       </c>
       <c r="F24" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="G24" s="3">
         <v>-900</v>
@@ -1249,7 +1249,7 @@
         <v>-1300</v>
       </c>
       <c r="I24" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="J24" s="3">
         <v>-700</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-102200</v>
+        <v>-104400</v>
       </c>
       <c r="E26" s="3">
-        <v>-67500</v>
+        <v>-69000</v>
       </c>
       <c r="F26" s="3">
-        <v>-65700</v>
+        <v>-67100</v>
       </c>
       <c r="G26" s="3">
-        <v>-49900</v>
+        <v>-51000</v>
       </c>
       <c r="H26" s="3">
-        <v>-42200</v>
+        <v>-43100</v>
       </c>
       <c r="I26" s="3">
-        <v>-15100</v>
+        <v>-15400</v>
       </c>
       <c r="J26" s="3">
-        <v>-19900</v>
+        <v>-20300</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-112700</v>
+        <v>-115100</v>
       </c>
       <c r="E27" s="3">
-        <v>-76400</v>
+        <v>-78000</v>
       </c>
       <c r="F27" s="3">
-        <v>-65700</v>
+        <v>-67100</v>
       </c>
       <c r="G27" s="3">
-        <v>-49900</v>
+        <v>-51000</v>
       </c>
       <c r="H27" s="3">
-        <v>-61600</v>
+        <v>-62900</v>
       </c>
       <c r="I27" s="3">
-        <v>-33100</v>
+        <v>-33800</v>
       </c>
       <c r="J27" s="3">
-        <v>-47200</v>
+        <v>-48200</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1522,25 +1522,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1700</v>
+        <v>-6200</v>
       </c>
       <c r="E32" s="3">
-        <v>-9500</v>
+        <v>-9700</v>
       </c>
       <c r="F32" s="3">
-        <v>-7400</v>
+        <v>-7500</v>
       </c>
       <c r="G32" s="3">
         <v>500</v>
       </c>
       <c r="H32" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="I32" s="3">
         <v>-2700</v>
       </c>
       <c r="J32" s="3">
-        <v>-11200</v>
+        <v>-11400</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-112700</v>
+        <v>-115100</v>
       </c>
       <c r="E33" s="3">
-        <v>-76400</v>
+        <v>-78000</v>
       </c>
       <c r="F33" s="3">
-        <v>-65700</v>
+        <v>-67100</v>
       </c>
       <c r="G33" s="3">
-        <v>-49900</v>
+        <v>-51000</v>
       </c>
       <c r="H33" s="3">
-        <v>-61600</v>
+        <v>-62900</v>
       </c>
       <c r="I33" s="3">
-        <v>-33100</v>
+        <v>-33800</v>
       </c>
       <c r="J33" s="3">
-        <v>-47200</v>
+        <v>-48200</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-112700</v>
+        <v>-115100</v>
       </c>
       <c r="E35" s="3">
-        <v>-76400</v>
+        <v>-78000</v>
       </c>
       <c r="F35" s="3">
-        <v>-65700</v>
+        <v>-67100</v>
       </c>
       <c r="G35" s="3">
-        <v>-49900</v>
+        <v>-51000</v>
       </c>
       <c r="H35" s="3">
-        <v>-61600</v>
+        <v>-62900</v>
       </c>
       <c r="I35" s="3">
-        <v>-33100</v>
+        <v>-33800</v>
       </c>
       <c r="J35" s="3">
-        <v>-47200</v>
+        <v>-48200</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2484100</v>
+        <v>2536600</v>
       </c>
       <c r="E41" s="3">
-        <v>887800</v>
+        <v>906600</v>
       </c>
       <c r="F41" s="3">
-        <v>330300</v>
+        <v>337200</v>
       </c>
       <c r="G41" s="3">
-        <v>286200</v>
+        <v>292300</v>
       </c>
       <c r="H41" s="3">
-        <v>276700</v>
+        <v>282600</v>
       </c>
       <c r="I41" s="3">
-        <v>141200</v>
+        <v>144200</v>
       </c>
       <c r="J41" s="3">
-        <v>92700</v>
+        <v>94700</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1811,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>249900</v>
+        <v>255200</v>
       </c>
       <c r="E43" s="3">
-        <v>154300</v>
+        <v>157600</v>
       </c>
       <c r="F43" s="3">
-        <v>107000</v>
+        <v>109300</v>
       </c>
       <c r="G43" s="3">
-        <v>72900</v>
+        <v>74400</v>
       </c>
       <c r="H43" s="3">
-        <v>41600</v>
+        <v>42500</v>
       </c>
       <c r="I43" s="3">
-        <v>26200</v>
+        <v>26700</v>
       </c>
       <c r="J43" s="3">
-        <v>14200</v>
+        <v>14500</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1883,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>64700</v>
+        <v>66100</v>
       </c>
       <c r="E45" s="3">
-        <v>40300</v>
+        <v>41200</v>
       </c>
       <c r="F45" s="3">
-        <v>26800</v>
+        <v>27400</v>
       </c>
       <c r="G45" s="3">
-        <v>15800</v>
+        <v>16200</v>
       </c>
       <c r="H45" s="3">
-        <v>19400</v>
+        <v>19800</v>
       </c>
       <c r="I45" s="3">
-        <v>13900</v>
+        <v>14200</v>
       </c>
       <c r="J45" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2798700</v>
+        <v>2857900</v>
       </c>
       <c r="E46" s="3">
-        <v>1082400</v>
+        <v>1105300</v>
       </c>
       <c r="F46" s="3">
-        <v>464100</v>
+        <v>473900</v>
       </c>
       <c r="G46" s="3">
-        <v>374900</v>
+        <v>382900</v>
       </c>
       <c r="H46" s="3">
-        <v>337700</v>
+        <v>344800</v>
       </c>
       <c r="I46" s="3">
-        <v>181300</v>
+        <v>185100</v>
       </c>
       <c r="J46" s="3">
-        <v>113900</v>
+        <v>116400</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1954,20 +1954,20 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>225500</v>
       </c>
       <c r="E47" s="3">
-        <v>135700</v>
+        <v>138600</v>
       </c>
       <c r="F47" s="3">
-        <v>74600</v>
+        <v>76200</v>
       </c>
       <c r="G47" s="3">
-        <v>44300</v>
+        <v>45300</v>
       </c>
       <c r="H47" s="3">
-        <v>15100</v>
+        <v>15400</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4989100</v>
+        <v>5094600</v>
       </c>
       <c r="E48" s="3">
-        <v>3052700</v>
+        <v>3117300</v>
       </c>
       <c r="F48" s="3">
-        <v>2138100</v>
+        <v>2183400</v>
       </c>
       <c r="G48" s="3">
-        <v>1247500</v>
+        <v>1273900</v>
       </c>
       <c r="H48" s="3">
-        <v>660500</v>
+        <v>674400</v>
       </c>
       <c r="I48" s="3">
-        <v>383900</v>
+        <v>392000</v>
       </c>
       <c r="J48" s="3">
-        <v>259000</v>
+        <v>264400</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2027,25 +2027,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>516700</v>
+        <v>527600</v>
       </c>
       <c r="E49" s="3">
-        <v>351500</v>
+        <v>358900</v>
       </c>
       <c r="F49" s="3">
-        <v>341400</v>
+        <v>348600</v>
       </c>
       <c r="G49" s="3">
-        <v>293200</v>
+        <v>299400</v>
       </c>
       <c r="H49" s="3">
-        <v>219000</v>
+        <v>223700</v>
       </c>
       <c r="I49" s="3">
-        <v>209300</v>
+        <v>213700</v>
       </c>
       <c r="J49" s="3">
-        <v>210600</v>
+        <v>215100</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2135,25 +2135,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>443400</v>
+        <v>227300</v>
       </c>
       <c r="E52" s="3">
-        <v>189100</v>
+        <v>193100</v>
       </c>
       <c r="F52" s="3">
-        <v>172600</v>
+        <v>176300</v>
       </c>
       <c r="G52" s="3">
-        <v>48200</v>
+        <v>49200</v>
       </c>
       <c r="H52" s="3">
-        <v>21100</v>
+        <v>21600</v>
       </c>
       <c r="I52" s="3">
-        <v>13300</v>
+        <v>13600</v>
       </c>
       <c r="J52" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8748000</v>
+        <v>8932900</v>
       </c>
       <c r="E54" s="3">
-        <v>4811400</v>
+        <v>4913100</v>
       </c>
       <c r="F54" s="3">
-        <v>3190800</v>
+        <v>3258300</v>
       </c>
       <c r="G54" s="3">
-        <v>2008200</v>
+        <v>2050700</v>
       </c>
       <c r="H54" s="3">
-        <v>1253400</v>
+        <v>1279900</v>
       </c>
       <c r="I54" s="3">
-        <v>783500</v>
+        <v>800100</v>
       </c>
       <c r="J54" s="3">
-        <v>588800</v>
+        <v>601300</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2275,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>558700</v>
+        <v>570500</v>
       </c>
       <c r="E57" s="3">
-        <v>256100</v>
+        <v>261500</v>
       </c>
       <c r="F57" s="3">
-        <v>230400</v>
+        <v>235300</v>
       </c>
       <c r="G57" s="3">
-        <v>169600</v>
+        <v>173200</v>
       </c>
       <c r="H57" s="3">
-        <v>78500</v>
+        <v>80100</v>
       </c>
       <c r="I57" s="3">
-        <v>32900</v>
+        <v>33600</v>
       </c>
       <c r="J57" s="3">
-        <v>35400</v>
+        <v>36200</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2311,25 +2311,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>367900</v>
+        <v>375600</v>
       </c>
       <c r="E58" s="3">
-        <v>207800</v>
+        <v>212200</v>
       </c>
       <c r="F58" s="3">
-        <v>221600</v>
+        <v>226200</v>
       </c>
       <c r="G58" s="3">
-        <v>135700</v>
+        <v>138600</v>
       </c>
       <c r="H58" s="3">
-        <v>109600</v>
+        <v>111900</v>
       </c>
       <c r="I58" s="3">
-        <v>83200</v>
+        <v>85000</v>
       </c>
       <c r="J58" s="3">
-        <v>77000</v>
+        <v>78600</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>241200</v>
+        <v>246300</v>
       </c>
       <c r="E59" s="3">
-        <v>147200</v>
+        <v>150300</v>
       </c>
       <c r="F59" s="3">
-        <v>84000</v>
+        <v>85700</v>
       </c>
       <c r="G59" s="3">
-        <v>64800</v>
+        <v>66200</v>
       </c>
       <c r="H59" s="3">
-        <v>38000</v>
+        <v>38800</v>
       </c>
       <c r="I59" s="3">
+        <v>25700</v>
+      </c>
+      <c r="J59" s="3">
         <v>25200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>24700</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1167800</v>
+        <v>1192500</v>
       </c>
       <c r="E60" s="3">
-        <v>611000</v>
+        <v>624000</v>
       </c>
       <c r="F60" s="3">
-        <v>535900</v>
+        <v>547300</v>
       </c>
       <c r="G60" s="3">
-        <v>370200</v>
+        <v>378000</v>
       </c>
       <c r="H60" s="3">
-        <v>226000</v>
+        <v>230800</v>
       </c>
       <c r="I60" s="3">
-        <v>141300</v>
+        <v>144300</v>
       </c>
       <c r="J60" s="3">
-        <v>137100</v>
+        <v>140000</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2419,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3146200</v>
+        <v>3212700</v>
       </c>
       <c r="E61" s="3">
-        <v>2265600</v>
+        <v>2313500</v>
       </c>
       <c r="F61" s="3">
-        <v>1732900</v>
+        <v>1769600</v>
       </c>
       <c r="G61" s="3">
-        <v>880400</v>
+        <v>899100</v>
       </c>
       <c r="H61" s="3">
-        <v>545900</v>
+        <v>557500</v>
       </c>
       <c r="I61" s="3">
-        <v>310400</v>
+        <v>317000</v>
       </c>
       <c r="J61" s="3">
-        <v>112900</v>
+        <v>115300</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2455,25 +2455,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>359700</v>
+        <v>367300</v>
       </c>
       <c r="E62" s="3">
-        <v>199900</v>
+        <v>204100</v>
       </c>
       <c r="F62" s="3">
-        <v>78300</v>
+        <v>80000</v>
       </c>
       <c r="G62" s="3">
-        <v>73800</v>
+        <v>75400</v>
       </c>
       <c r="H62" s="3">
-        <v>25200</v>
+        <v>25700</v>
       </c>
       <c r="I62" s="3">
-        <v>17800</v>
+        <v>18200</v>
       </c>
       <c r="J62" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4673700</v>
+        <v>4791400</v>
       </c>
       <c r="E66" s="3">
-        <v>3076500</v>
+        <v>3141600</v>
       </c>
       <c r="F66" s="3">
-        <v>2347200</v>
+        <v>2396800</v>
       </c>
       <c r="G66" s="3">
-        <v>1324500</v>
+        <v>1352500</v>
       </c>
       <c r="H66" s="3">
-        <v>797100</v>
+        <v>814000</v>
       </c>
       <c r="I66" s="3">
-        <v>469600</v>
+        <v>479500</v>
       </c>
       <c r="J66" s="3">
-        <v>260700</v>
+        <v>266200</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2723,10 +2723,10 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>168300</v>
+        <v>153000</v>
       </c>
       <c r="E70" s="3">
-        <v>162200</v>
+        <v>165700</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2738,10 +2738,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>366000</v>
+        <v>373700</v>
       </c>
       <c r="J70" s="3">
-        <v>330600</v>
+        <v>337600</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-416100</v>
+        <v>-424900</v>
       </c>
       <c r="E72" s="3">
-        <v>-314300</v>
+        <v>-320900</v>
       </c>
       <c r="F72" s="3">
-        <v>-246800</v>
+        <v>-252000</v>
       </c>
       <c r="G72" s="3">
-        <v>-181100</v>
+        <v>-185000</v>
       </c>
       <c r="H72" s="3">
-        <v>-131200</v>
+        <v>-134000</v>
       </c>
       <c r="I72" s="3">
-        <v>-89000</v>
+        <v>-90800</v>
       </c>
       <c r="J72" s="3">
-        <v>-73900</v>
+        <v>-75500</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3906000</v>
+        <v>3988600</v>
       </c>
       <c r="E76" s="3">
-        <v>1572700</v>
+        <v>1605900</v>
       </c>
       <c r="F76" s="3">
-        <v>843600</v>
+        <v>861500</v>
       </c>
       <c r="G76" s="3">
-        <v>683800</v>
+        <v>698200</v>
       </c>
       <c r="H76" s="3">
-        <v>456300</v>
+        <v>465900</v>
       </c>
       <c r="I76" s="3">
-        <v>-52100</v>
+        <v>-53100</v>
       </c>
       <c r="J76" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-112700</v>
+        <v>-115100</v>
       </c>
       <c r="E81" s="3">
-        <v>-76400</v>
+        <v>-78000</v>
       </c>
       <c r="F81" s="3">
-        <v>-65700</v>
+        <v>-67100</v>
       </c>
       <c r="G81" s="3">
-        <v>-49900</v>
+        <v>-51000</v>
       </c>
       <c r="H81" s="3">
-        <v>-61600</v>
+        <v>-62900</v>
       </c>
       <c r="I81" s="3">
-        <v>-33100</v>
+        <v>-33800</v>
       </c>
       <c r="J81" s="3">
-        <v>-47200</v>
+        <v>-48200</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3104,25 +3104,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>250300</v>
+        <v>255600</v>
       </c>
       <c r="E83" s="3">
-        <v>174500</v>
+        <v>178200</v>
       </c>
       <c r="F83" s="3">
-        <v>113300</v>
+        <v>115700</v>
       </c>
       <c r="G83" s="3">
-        <v>57800</v>
+        <v>59000</v>
       </c>
       <c r="H83" s="3">
-        <v>34700</v>
+        <v>35500</v>
       </c>
       <c r="I83" s="3">
-        <v>22200</v>
+        <v>22700</v>
       </c>
       <c r="J83" s="3">
-        <v>12600</v>
+        <v>12900</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>49000</v>
+        <v>50100</v>
       </c>
       <c r="E89" s="3">
-        <v>44800</v>
+        <v>45800</v>
       </c>
       <c r="F89" s="3">
         <v>-2000</v>
       </c>
       <c r="G89" s="3">
-        <v>-25600</v>
+        <v>-26200</v>
       </c>
       <c r="H89" s="3">
-        <v>-19700</v>
+        <v>-20100</v>
       </c>
       <c r="I89" s="3">
-        <v>-12300</v>
+        <v>-12500</v>
       </c>
       <c r="J89" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3372,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1225400</v>
+        <v>-1253900</v>
       </c>
       <c r="E91" s="3">
-        <v>-696300</v>
+        <v>-711000</v>
       </c>
       <c r="F91" s="3">
-        <v>-651000</v>
+        <v>-664800</v>
       </c>
       <c r="G91" s="3">
-        <v>-262800</v>
+        <v>-268400</v>
       </c>
       <c r="H91" s="3">
-        <v>-150900</v>
+        <v>-154100</v>
       </c>
       <c r="I91" s="3">
-        <v>-112000</v>
+        <v>-114400</v>
       </c>
       <c r="J91" s="3">
-        <v>-37900</v>
+        <v>-38700</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1432800</v>
+        <v>-1463100</v>
       </c>
       <c r="E94" s="3">
-        <v>-783900</v>
+        <v>-800500</v>
       </c>
       <c r="F94" s="3">
-        <v>-723100</v>
+        <v>-738400</v>
       </c>
       <c r="G94" s="3">
-        <v>-306300</v>
+        <v>-312800</v>
       </c>
       <c r="H94" s="3">
-        <v>-175200</v>
+        <v>-179000</v>
       </c>
       <c r="I94" s="3">
-        <v>-111800</v>
+        <v>-114200</v>
       </c>
       <c r="J94" s="3">
-        <v>-80000</v>
+        <v>-81700</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3532,10 +3532,10 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-10200</v>
       </c>
       <c r="E96" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-11700</v>
+        <v>-11900</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3077500</v>
+        <v>3142600</v>
       </c>
       <c r="E100" s="3">
-        <v>1277500</v>
+        <v>1304500</v>
       </c>
       <c r="F100" s="3">
-        <v>745100</v>
+        <v>760800</v>
       </c>
       <c r="G100" s="3">
-        <v>359900</v>
+        <v>367500</v>
       </c>
       <c r="H100" s="3">
-        <v>325200</v>
+        <v>332100</v>
       </c>
       <c r="I100" s="3">
-        <v>172300</v>
+        <v>175900</v>
       </c>
       <c r="J100" s="3">
-        <v>161400</v>
+        <v>164800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3712,22 +3712,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-86600</v>
+        <v>-88400</v>
       </c>
       <c r="E101" s="3">
-        <v>25100</v>
+        <v>25600</v>
       </c>
       <c r="F101" s="3">
-        <v>31500</v>
+        <v>32200</v>
       </c>
       <c r="G101" s="3">
-        <v>-11300</v>
+        <v>-11600</v>
       </c>
       <c r="H101" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="I101" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J101" s="3">
         <v>-400</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1607200</v>
+        <v>1641200</v>
       </c>
       <c r="E102" s="3">
-        <v>563500</v>
+        <v>575400</v>
       </c>
       <c r="F102" s="3">
-        <v>51500</v>
+        <v>52600</v>
       </c>
       <c r="G102" s="3">
-        <v>16600</v>
+        <v>16900</v>
       </c>
       <c r="H102" s="3">
-        <v>138700</v>
+        <v>141700</v>
       </c>
       <c r="I102" s="3">
-        <v>48500</v>
+        <v>49600</v>
       </c>
       <c r="J102" s="3">
-        <v>85300</v>
+        <v>87100</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/GDS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GDS_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>895300</v>
+        <v>883700</v>
       </c>
       <c r="E8" s="3">
-        <v>643100</v>
+        <v>634800</v>
       </c>
       <c r="F8" s="3">
-        <v>435600</v>
+        <v>429900</v>
       </c>
       <c r="G8" s="3">
-        <v>252100</v>
+        <v>248900</v>
       </c>
       <c r="H8" s="3">
-        <v>164700</v>
+        <v>162600</v>
       </c>
       <c r="I8" s="3">
-        <v>109800</v>
+        <v>108300</v>
       </c>
       <c r="J8" s="3">
-        <v>73100</v>
+        <v>72100</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -757,25 +757,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>653500</v>
+        <v>644900</v>
       </c>
       <c r="E9" s="3">
-        <v>480500</v>
+        <v>474200</v>
       </c>
       <c r="F9" s="3">
-        <v>338500</v>
+        <v>334100</v>
       </c>
       <c r="G9" s="3">
-        <v>188400</v>
+        <v>186000</v>
       </c>
       <c r="H9" s="3">
-        <v>123300</v>
+        <v>121700</v>
       </c>
       <c r="I9" s="3">
-        <v>80300</v>
+        <v>79300</v>
       </c>
       <c r="J9" s="3">
-        <v>60600</v>
+        <v>59800</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -793,25 +793,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>241900</v>
+        <v>238700</v>
       </c>
       <c r="E10" s="3">
-        <v>162700</v>
+        <v>160600</v>
       </c>
       <c r="F10" s="3">
-        <v>97100</v>
+        <v>95800</v>
       </c>
       <c r="G10" s="3">
-        <v>63700</v>
+        <v>62900</v>
       </c>
       <c r="H10" s="3">
-        <v>41400</v>
+        <v>40900</v>
       </c>
       <c r="I10" s="3">
-        <v>29400</v>
+        <v>29000</v>
       </c>
       <c r="J10" s="3">
-        <v>12500</v>
+        <v>12300</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -845,10 +845,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="E12" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="F12" s="3">
         <v>2100</v>
@@ -860,7 +860,7 @@
         <v>1300</v>
       </c>
       <c r="I12" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J12" s="3">
         <v>200</v>
@@ -917,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-8600</v>
+        <v>-8500</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -953,7 +953,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>19400</v>
+        <v>19100</v>
       </c>
       <c r="E15" s="3">
         <v>1800</v>
@@ -962,10 +962,10 @@
         <v>1200</v>
       </c>
       <c r="G15" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H15" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I15" s="3">
         <v>700</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>781700</v>
+        <v>771600</v>
       </c>
       <c r="E17" s="3">
-        <v>568300</v>
+        <v>560900</v>
       </c>
       <c r="F17" s="3">
-        <v>409300</v>
+        <v>404000</v>
       </c>
       <c r="G17" s="3">
-        <v>239300</v>
+        <v>236200</v>
       </c>
       <c r="H17" s="3">
-        <v>171400</v>
+        <v>169100</v>
       </c>
       <c r="I17" s="3">
-        <v>110000</v>
+        <v>108500</v>
       </c>
       <c r="J17" s="3">
-        <v>84900</v>
+        <v>83800</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>113600</v>
+        <v>112100</v>
       </c>
       <c r="E18" s="3">
-        <v>74900</v>
+        <v>73900</v>
       </c>
       <c r="F18" s="3">
-        <v>26300</v>
+        <v>25900</v>
       </c>
       <c r="G18" s="3">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="H18" s="3">
-        <v>-6600</v>
+        <v>-6500</v>
       </c>
       <c r="I18" s="3">
         <v>-200</v>
       </c>
       <c r="J18" s="3">
-        <v>-11800</v>
+        <v>-11700</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1093,22 +1093,22 @@
         <v>6200</v>
       </c>
       <c r="E20" s="3">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="F20" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="G20" s="3">
         <v>-500</v>
       </c>
       <c r="H20" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="I20" s="3">
         <v>2700</v>
       </c>
       <c r="J20" s="3">
-        <v>11400</v>
+        <v>11200</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>375100</v>
+        <v>371000</v>
       </c>
       <c r="E21" s="3">
-        <v>262500</v>
+        <v>259600</v>
       </c>
       <c r="F21" s="3">
-        <v>149300</v>
+        <v>147700</v>
       </c>
       <c r="G21" s="3">
-        <v>71200</v>
+        <v>70500</v>
       </c>
       <c r="H21" s="3">
-        <v>32400</v>
+        <v>32100</v>
       </c>
       <c r="I21" s="3">
-        <v>25200</v>
+        <v>24900</v>
       </c>
       <c r="J21" s="3">
-        <v>12500</v>
+        <v>12400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1162,25 +1162,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>205400</v>
+        <v>202700</v>
       </c>
       <c r="E22" s="3">
-        <v>151100</v>
+        <v>149200</v>
       </c>
       <c r="F22" s="3">
-        <v>102400</v>
+        <v>101000</v>
       </c>
       <c r="G22" s="3">
-        <v>64300</v>
+        <v>63400</v>
       </c>
       <c r="H22" s="3">
-        <v>41400</v>
+        <v>40800</v>
       </c>
       <c r="I22" s="3">
-        <v>19800</v>
+        <v>19500</v>
       </c>
       <c r="J22" s="3">
-        <v>20600</v>
+        <v>20300</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-85600</v>
+        <v>-84400</v>
       </c>
       <c r="E23" s="3">
-        <v>-66500</v>
+        <v>-65700</v>
       </c>
       <c r="F23" s="3">
-        <v>-68600</v>
+        <v>-67700</v>
       </c>
       <c r="G23" s="3">
-        <v>-51900</v>
+        <v>-51300</v>
       </c>
       <c r="H23" s="3">
-        <v>-44400</v>
+        <v>-43800</v>
       </c>
       <c r="I23" s="3">
-        <v>-17200</v>
+        <v>-17000</v>
       </c>
       <c r="J23" s="3">
-        <v>-21000</v>
+        <v>-20700</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>18800</v>
+        <v>18600</v>
       </c>
       <c r="E24" s="3">
         <v>2400</v>
       </c>
       <c r="F24" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="G24" s="3">
         <v>-900</v>
@@ -1249,7 +1249,7 @@
         <v>-1300</v>
       </c>
       <c r="I24" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="J24" s="3">
         <v>-700</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-104400</v>
+        <v>-103000</v>
       </c>
       <c r="E26" s="3">
-        <v>-69000</v>
+        <v>-68100</v>
       </c>
       <c r="F26" s="3">
-        <v>-67100</v>
+        <v>-66300</v>
       </c>
       <c r="G26" s="3">
-        <v>-51000</v>
+        <v>-50300</v>
       </c>
       <c r="H26" s="3">
-        <v>-43100</v>
+        <v>-42600</v>
       </c>
       <c r="I26" s="3">
-        <v>-15400</v>
+        <v>-15200</v>
       </c>
       <c r="J26" s="3">
-        <v>-20300</v>
+        <v>-20000</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-115100</v>
+        <v>-113600</v>
       </c>
       <c r="E27" s="3">
-        <v>-78000</v>
+        <v>-77000</v>
       </c>
       <c r="F27" s="3">
-        <v>-67100</v>
+        <v>-66300</v>
       </c>
       <c r="G27" s="3">
-        <v>-51000</v>
+        <v>-50300</v>
       </c>
       <c r="H27" s="3">
-        <v>-62900</v>
+        <v>-62100</v>
       </c>
       <c r="I27" s="3">
-        <v>-33800</v>
+        <v>-33400</v>
       </c>
       <c r="J27" s="3">
-        <v>-48200</v>
+        <v>-47600</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1525,22 +1525,22 @@
         <v>-6200</v>
       </c>
       <c r="E32" s="3">
-        <v>-9700</v>
+        <v>-9600</v>
       </c>
       <c r="F32" s="3">
-        <v>-7500</v>
+        <v>-7400</v>
       </c>
       <c r="G32" s="3">
         <v>500</v>
       </c>
       <c r="H32" s="3">
-        <v>-3600</v>
+        <v>-3500</v>
       </c>
       <c r="I32" s="3">
         <v>-2700</v>
       </c>
       <c r="J32" s="3">
-        <v>-11400</v>
+        <v>-11200</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-115100</v>
+        <v>-113600</v>
       </c>
       <c r="E33" s="3">
-        <v>-78000</v>
+        <v>-77000</v>
       </c>
       <c r="F33" s="3">
-        <v>-67100</v>
+        <v>-66300</v>
       </c>
       <c r="G33" s="3">
-        <v>-51000</v>
+        <v>-50300</v>
       </c>
       <c r="H33" s="3">
-        <v>-62900</v>
+        <v>-62100</v>
       </c>
       <c r="I33" s="3">
-        <v>-33800</v>
+        <v>-33400</v>
       </c>
       <c r="J33" s="3">
-        <v>-48200</v>
+        <v>-47600</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-115100</v>
+        <v>-113600</v>
       </c>
       <c r="E35" s="3">
-        <v>-78000</v>
+        <v>-77000</v>
       </c>
       <c r="F35" s="3">
-        <v>-67100</v>
+        <v>-66300</v>
       </c>
       <c r="G35" s="3">
-        <v>-51000</v>
+        <v>-50300</v>
       </c>
       <c r="H35" s="3">
-        <v>-62900</v>
+        <v>-62100</v>
       </c>
       <c r="I35" s="3">
-        <v>-33800</v>
+        <v>-33400</v>
       </c>
       <c r="J35" s="3">
-        <v>-48200</v>
+        <v>-47600</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2536600</v>
+        <v>2503600</v>
       </c>
       <c r="E41" s="3">
-        <v>906600</v>
+        <v>894800</v>
       </c>
       <c r="F41" s="3">
-        <v>337200</v>
+        <v>332800</v>
       </c>
       <c r="G41" s="3">
-        <v>292300</v>
+        <v>288500</v>
       </c>
       <c r="H41" s="3">
-        <v>282600</v>
+        <v>278900</v>
       </c>
       <c r="I41" s="3">
-        <v>144200</v>
+        <v>142400</v>
       </c>
       <c r="J41" s="3">
-        <v>94700</v>
+        <v>93400</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1811,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>255200</v>
+        <v>251900</v>
       </c>
       <c r="E43" s="3">
-        <v>157600</v>
+        <v>155500</v>
       </c>
       <c r="F43" s="3">
-        <v>109300</v>
+        <v>107800</v>
       </c>
       <c r="G43" s="3">
-        <v>74400</v>
+        <v>73400</v>
       </c>
       <c r="H43" s="3">
-        <v>42500</v>
+        <v>41900</v>
       </c>
       <c r="I43" s="3">
-        <v>26700</v>
+        <v>26400</v>
       </c>
       <c r="J43" s="3">
-        <v>14500</v>
+        <v>14300</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1883,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>66100</v>
+        <v>65200</v>
       </c>
       <c r="E45" s="3">
-        <v>41200</v>
+        <v>40600</v>
       </c>
       <c r="F45" s="3">
-        <v>27400</v>
+        <v>27000</v>
       </c>
       <c r="G45" s="3">
-        <v>16200</v>
+        <v>16000</v>
       </c>
       <c r="H45" s="3">
-        <v>19800</v>
+        <v>19500</v>
       </c>
       <c r="I45" s="3">
-        <v>14200</v>
+        <v>14000</v>
       </c>
       <c r="J45" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2857900</v>
+        <v>2820700</v>
       </c>
       <c r="E46" s="3">
-        <v>1105300</v>
+        <v>1090900</v>
       </c>
       <c r="F46" s="3">
-        <v>473900</v>
+        <v>467700</v>
       </c>
       <c r="G46" s="3">
-        <v>382900</v>
+        <v>377900</v>
       </c>
       <c r="H46" s="3">
-        <v>344800</v>
+        <v>340300</v>
       </c>
       <c r="I46" s="3">
-        <v>185100</v>
+        <v>182700</v>
       </c>
       <c r="J46" s="3">
-        <v>116400</v>
+        <v>114800</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1955,19 +1955,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>225500</v>
+        <v>222600</v>
       </c>
       <c r="E47" s="3">
-        <v>138600</v>
+        <v>136800</v>
       </c>
       <c r="F47" s="3">
-        <v>76200</v>
+        <v>75200</v>
       </c>
       <c r="G47" s="3">
-        <v>45300</v>
+        <v>44700</v>
       </c>
       <c r="H47" s="3">
-        <v>15400</v>
+        <v>15200</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5094600</v>
+        <v>5028300</v>
       </c>
       <c r="E48" s="3">
-        <v>3117300</v>
+        <v>3076700</v>
       </c>
       <c r="F48" s="3">
-        <v>2183400</v>
+        <v>2154900</v>
       </c>
       <c r="G48" s="3">
-        <v>1273900</v>
+        <v>1257300</v>
       </c>
       <c r="H48" s="3">
-        <v>674400</v>
+        <v>665600</v>
       </c>
       <c r="I48" s="3">
-        <v>392000</v>
+        <v>386900</v>
       </c>
       <c r="J48" s="3">
-        <v>264400</v>
+        <v>261000</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2027,25 +2027,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>527600</v>
+        <v>520700</v>
       </c>
       <c r="E49" s="3">
-        <v>358900</v>
+        <v>354200</v>
       </c>
       <c r="F49" s="3">
-        <v>348600</v>
+        <v>344100</v>
       </c>
       <c r="G49" s="3">
-        <v>299400</v>
+        <v>295500</v>
       </c>
       <c r="H49" s="3">
-        <v>223700</v>
+        <v>220800</v>
       </c>
       <c r="I49" s="3">
-        <v>213700</v>
+        <v>210900</v>
       </c>
       <c r="J49" s="3">
-        <v>215100</v>
+        <v>212300</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2135,22 +2135,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>227300</v>
+        <v>224300</v>
       </c>
       <c r="E52" s="3">
-        <v>193100</v>
+        <v>190600</v>
       </c>
       <c r="F52" s="3">
-        <v>176300</v>
+        <v>174000</v>
       </c>
       <c r="G52" s="3">
-        <v>49200</v>
+        <v>48600</v>
       </c>
       <c r="H52" s="3">
-        <v>21600</v>
+        <v>21300</v>
       </c>
       <c r="I52" s="3">
-        <v>13600</v>
+        <v>13400</v>
       </c>
       <c r="J52" s="3">
         <v>5400</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8932900</v>
+        <v>8816700</v>
       </c>
       <c r="E54" s="3">
-        <v>4913100</v>
+        <v>4849200</v>
       </c>
       <c r="F54" s="3">
-        <v>3258300</v>
+        <v>3215900</v>
       </c>
       <c r="G54" s="3">
-        <v>2050700</v>
+        <v>2024000</v>
       </c>
       <c r="H54" s="3">
-        <v>1279900</v>
+        <v>1263200</v>
       </c>
       <c r="I54" s="3">
-        <v>800100</v>
+        <v>789700</v>
       </c>
       <c r="J54" s="3">
-        <v>601300</v>
+        <v>593500</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2275,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>570500</v>
+        <v>563100</v>
       </c>
       <c r="E57" s="3">
-        <v>261500</v>
+        <v>258100</v>
       </c>
       <c r="F57" s="3">
-        <v>235300</v>
+        <v>232200</v>
       </c>
       <c r="G57" s="3">
-        <v>173200</v>
+        <v>171000</v>
       </c>
       <c r="H57" s="3">
-        <v>80100</v>
+        <v>79100</v>
       </c>
       <c r="I57" s="3">
-        <v>33600</v>
+        <v>33200</v>
       </c>
       <c r="J57" s="3">
-        <v>36200</v>
+        <v>35700</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2311,25 +2311,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>375600</v>
+        <v>370800</v>
       </c>
       <c r="E58" s="3">
-        <v>212200</v>
+        <v>209400</v>
       </c>
       <c r="F58" s="3">
-        <v>226200</v>
+        <v>223300</v>
       </c>
       <c r="G58" s="3">
-        <v>138600</v>
+        <v>136800</v>
       </c>
       <c r="H58" s="3">
-        <v>111900</v>
+        <v>110400</v>
       </c>
       <c r="I58" s="3">
-        <v>85000</v>
+        <v>83900</v>
       </c>
       <c r="J58" s="3">
-        <v>78600</v>
+        <v>77600</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>246300</v>
+        <v>243100</v>
       </c>
       <c r="E59" s="3">
-        <v>150300</v>
+        <v>148300</v>
       </c>
       <c r="F59" s="3">
-        <v>85700</v>
+        <v>84600</v>
       </c>
       <c r="G59" s="3">
-        <v>66200</v>
+        <v>65300</v>
       </c>
       <c r="H59" s="3">
-        <v>38800</v>
+        <v>38300</v>
       </c>
       <c r="I59" s="3">
-        <v>25700</v>
+        <v>25400</v>
       </c>
       <c r="J59" s="3">
-        <v>25200</v>
+        <v>24900</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1192500</v>
+        <v>1177000</v>
       </c>
       <c r="E60" s="3">
-        <v>624000</v>
+        <v>615800</v>
       </c>
       <c r="F60" s="3">
-        <v>547300</v>
+        <v>540100</v>
       </c>
       <c r="G60" s="3">
-        <v>378000</v>
+        <v>373100</v>
       </c>
       <c r="H60" s="3">
-        <v>230800</v>
+        <v>227800</v>
       </c>
       <c r="I60" s="3">
-        <v>144300</v>
+        <v>142400</v>
       </c>
       <c r="J60" s="3">
-        <v>140000</v>
+        <v>138200</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2419,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3212700</v>
+        <v>3170900</v>
       </c>
       <c r="E61" s="3">
-        <v>2313500</v>
+        <v>2283400</v>
       </c>
       <c r="F61" s="3">
-        <v>1769600</v>
+        <v>1746600</v>
       </c>
       <c r="G61" s="3">
-        <v>899100</v>
+        <v>887400</v>
       </c>
       <c r="H61" s="3">
-        <v>557500</v>
+        <v>550200</v>
       </c>
       <c r="I61" s="3">
-        <v>317000</v>
+        <v>312800</v>
       </c>
       <c r="J61" s="3">
-        <v>115300</v>
+        <v>113800</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2455,25 +2455,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>367300</v>
+        <v>362500</v>
       </c>
       <c r="E62" s="3">
-        <v>204100</v>
+        <v>201400</v>
       </c>
       <c r="F62" s="3">
-        <v>80000</v>
+        <v>78900</v>
       </c>
       <c r="G62" s="3">
-        <v>75400</v>
+        <v>74400</v>
       </c>
       <c r="H62" s="3">
-        <v>25700</v>
+        <v>25400</v>
       </c>
       <c r="I62" s="3">
-        <v>18200</v>
+        <v>18000</v>
       </c>
       <c r="J62" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4791400</v>
+        <v>4729000</v>
       </c>
       <c r="E66" s="3">
-        <v>3141600</v>
+        <v>3100700</v>
       </c>
       <c r="F66" s="3">
-        <v>2396800</v>
+        <v>2365600</v>
       </c>
       <c r="G66" s="3">
-        <v>1352500</v>
+        <v>1334900</v>
       </c>
       <c r="H66" s="3">
-        <v>814000</v>
+        <v>803400</v>
       </c>
       <c r="I66" s="3">
-        <v>479500</v>
+        <v>473300</v>
       </c>
       <c r="J66" s="3">
-        <v>266200</v>
+        <v>262800</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2723,10 +2723,10 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>153000</v>
+        <v>151000</v>
       </c>
       <c r="E70" s="3">
-        <v>165700</v>
+        <v>163500</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2738,10 +2738,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>373700</v>
+        <v>368800</v>
       </c>
       <c r="J70" s="3">
-        <v>337600</v>
+        <v>333200</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-424900</v>
+        <v>-419400</v>
       </c>
       <c r="E72" s="3">
-        <v>-320900</v>
+        <v>-316800</v>
       </c>
       <c r="F72" s="3">
-        <v>-252000</v>
+        <v>-248700</v>
       </c>
       <c r="G72" s="3">
-        <v>-185000</v>
+        <v>-182600</v>
       </c>
       <c r="H72" s="3">
-        <v>-134000</v>
+        <v>-132200</v>
       </c>
       <c r="I72" s="3">
-        <v>-90800</v>
+        <v>-89700</v>
       </c>
       <c r="J72" s="3">
-        <v>-75500</v>
+        <v>-74500</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3988600</v>
+        <v>3936700</v>
       </c>
       <c r="E76" s="3">
-        <v>1605900</v>
+        <v>1585000</v>
       </c>
       <c r="F76" s="3">
-        <v>861500</v>
+        <v>850300</v>
       </c>
       <c r="G76" s="3">
-        <v>698200</v>
+        <v>689100</v>
       </c>
       <c r="H76" s="3">
-        <v>465900</v>
+        <v>459900</v>
       </c>
       <c r="I76" s="3">
-        <v>-53100</v>
+        <v>-52400</v>
       </c>
       <c r="J76" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-115100</v>
+        <v>-113600</v>
       </c>
       <c r="E81" s="3">
-        <v>-78000</v>
+        <v>-77000</v>
       </c>
       <c r="F81" s="3">
-        <v>-67100</v>
+        <v>-66300</v>
       </c>
       <c r="G81" s="3">
-        <v>-51000</v>
+        <v>-50300</v>
       </c>
       <c r="H81" s="3">
-        <v>-62900</v>
+        <v>-62100</v>
       </c>
       <c r="I81" s="3">
-        <v>-33800</v>
+        <v>-33400</v>
       </c>
       <c r="J81" s="3">
-        <v>-48200</v>
+        <v>-47600</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3104,25 +3104,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>255600</v>
+        <v>252300</v>
       </c>
       <c r="E83" s="3">
-        <v>178200</v>
+        <v>175900</v>
       </c>
       <c r="F83" s="3">
-        <v>115700</v>
+        <v>114200</v>
       </c>
       <c r="G83" s="3">
-        <v>59000</v>
+        <v>58200</v>
       </c>
       <c r="H83" s="3">
-        <v>35500</v>
+        <v>35000</v>
       </c>
       <c r="I83" s="3">
-        <v>22700</v>
+        <v>22400</v>
       </c>
       <c r="J83" s="3">
-        <v>12900</v>
+        <v>12700</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>50100</v>
+        <v>49400</v>
       </c>
       <c r="E89" s="3">
-        <v>45800</v>
+        <v>45200</v>
       </c>
       <c r="F89" s="3">
         <v>-2000</v>
       </c>
       <c r="G89" s="3">
-        <v>-26200</v>
+        <v>-25800</v>
       </c>
       <c r="H89" s="3">
-        <v>-20100</v>
+        <v>-19900</v>
       </c>
       <c r="I89" s="3">
-        <v>-12500</v>
+        <v>-12400</v>
       </c>
       <c r="J89" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3372,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1253900</v>
+        <v>-1237500</v>
       </c>
       <c r="E91" s="3">
-        <v>-711000</v>
+        <v>-701800</v>
       </c>
       <c r="F91" s="3">
-        <v>-664800</v>
+        <v>-656100</v>
       </c>
       <c r="G91" s="3">
-        <v>-268400</v>
+        <v>-264900</v>
       </c>
       <c r="H91" s="3">
-        <v>-154100</v>
+        <v>-152100</v>
       </c>
       <c r="I91" s="3">
-        <v>-114400</v>
+        <v>-112900</v>
       </c>
       <c r="J91" s="3">
-        <v>-38700</v>
+        <v>-38200</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1463100</v>
+        <v>-1444000</v>
       </c>
       <c r="E94" s="3">
-        <v>-800500</v>
+        <v>-790100</v>
       </c>
       <c r="F94" s="3">
-        <v>-738400</v>
+        <v>-728800</v>
       </c>
       <c r="G94" s="3">
-        <v>-312800</v>
+        <v>-308700</v>
       </c>
       <c r="H94" s="3">
-        <v>-179000</v>
+        <v>-176600</v>
       </c>
       <c r="I94" s="3">
-        <v>-114200</v>
+        <v>-112700</v>
       </c>
       <c r="J94" s="3">
-        <v>-81700</v>
+        <v>-80600</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3532,7 +3532,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-10200</v>
+        <v>-10100</v>
       </c>
       <c r="E96" s="3">
         <v>-3900</v>
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-11900</v>
+        <v>-11800</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3142600</v>
+        <v>3101700</v>
       </c>
       <c r="E100" s="3">
-        <v>1304500</v>
+        <v>1287600</v>
       </c>
       <c r="F100" s="3">
-        <v>760800</v>
+        <v>750900</v>
       </c>
       <c r="G100" s="3">
-        <v>367500</v>
+        <v>362700</v>
       </c>
       <c r="H100" s="3">
-        <v>332100</v>
+        <v>327800</v>
       </c>
       <c r="I100" s="3">
-        <v>175900</v>
+        <v>173600</v>
       </c>
       <c r="J100" s="3">
-        <v>164800</v>
+        <v>162600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3712,22 +3712,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-88400</v>
+        <v>-87300</v>
       </c>
       <c r="E101" s="3">
-        <v>25600</v>
+        <v>25300</v>
       </c>
       <c r="F101" s="3">
-        <v>32200</v>
+        <v>31800</v>
       </c>
       <c r="G101" s="3">
-        <v>-11600</v>
+        <v>-11400</v>
       </c>
       <c r="H101" s="3">
-        <v>8700</v>
+        <v>8500</v>
       </c>
       <c r="I101" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J101" s="3">
         <v>-400</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1641200</v>
+        <v>1619800</v>
       </c>
       <c r="E102" s="3">
-        <v>575400</v>
+        <v>568000</v>
       </c>
       <c r="F102" s="3">
-        <v>52600</v>
+        <v>51900</v>
       </c>
       <c r="G102" s="3">
-        <v>16900</v>
+        <v>16700</v>
       </c>
       <c r="H102" s="3">
-        <v>141700</v>
+        <v>139800</v>
       </c>
       <c r="I102" s="3">
-        <v>49600</v>
+        <v>48900</v>
       </c>
       <c r="J102" s="3">
-        <v>87100</v>
+        <v>85900</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/GDS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GDS_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>883700</v>
+        <v>898500</v>
       </c>
       <c r="E8" s="3">
-        <v>634800</v>
+        <v>645400</v>
       </c>
       <c r="F8" s="3">
-        <v>429900</v>
+        <v>437100</v>
       </c>
       <c r="G8" s="3">
-        <v>248900</v>
+        <v>253000</v>
       </c>
       <c r="H8" s="3">
-        <v>162600</v>
+        <v>165300</v>
       </c>
       <c r="I8" s="3">
-        <v>108300</v>
+        <v>110200</v>
       </c>
       <c r="J8" s="3">
-        <v>72100</v>
+        <v>73300</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -757,25 +757,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>644900</v>
+        <v>655800</v>
       </c>
       <c r="E9" s="3">
-        <v>474200</v>
+        <v>482200</v>
       </c>
       <c r="F9" s="3">
-        <v>334100</v>
+        <v>339700</v>
       </c>
       <c r="G9" s="3">
-        <v>186000</v>
+        <v>189100</v>
       </c>
       <c r="H9" s="3">
-        <v>121700</v>
+        <v>123700</v>
       </c>
       <c r="I9" s="3">
-        <v>79300</v>
+        <v>80600</v>
       </c>
       <c r="J9" s="3">
-        <v>59800</v>
+        <v>60800</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -793,25 +793,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>238700</v>
+        <v>242700</v>
       </c>
       <c r="E10" s="3">
-        <v>160600</v>
+        <v>163200</v>
       </c>
       <c r="F10" s="3">
-        <v>95800</v>
+        <v>97400</v>
       </c>
       <c r="G10" s="3">
-        <v>62900</v>
+        <v>64000</v>
       </c>
       <c r="H10" s="3">
-        <v>40900</v>
+        <v>41600</v>
       </c>
       <c r="I10" s="3">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="J10" s="3">
-        <v>12300</v>
+        <v>12600</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -845,25 +845,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="E12" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F12" s="3">
         <v>2100</v>
       </c>
       <c r="G12" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H12" s="3">
         <v>1300</v>
       </c>
       <c r="I12" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J12" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -917,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-8500</v>
+        <v>-8600</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -953,7 +953,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>19100</v>
+        <v>19500</v>
       </c>
       <c r="E15" s="3">
         <v>1800</v>
@@ -962,10 +962,10 @@
         <v>1200</v>
       </c>
       <c r="G15" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H15" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I15" s="3">
         <v>700</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>771600</v>
+        <v>784500</v>
       </c>
       <c r="E17" s="3">
-        <v>560900</v>
+        <v>570300</v>
       </c>
       <c r="F17" s="3">
-        <v>404000</v>
+        <v>410800</v>
       </c>
       <c r="G17" s="3">
-        <v>236200</v>
+        <v>240200</v>
       </c>
       <c r="H17" s="3">
-        <v>169100</v>
+        <v>172000</v>
       </c>
       <c r="I17" s="3">
-        <v>108500</v>
+        <v>110400</v>
       </c>
       <c r="J17" s="3">
-        <v>83800</v>
+        <v>85200</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>112100</v>
+        <v>114000</v>
       </c>
       <c r="E18" s="3">
-        <v>73900</v>
+        <v>75100</v>
       </c>
       <c r="F18" s="3">
-        <v>25900</v>
+        <v>26400</v>
       </c>
       <c r="G18" s="3">
-        <v>12700</v>
+        <v>12900</v>
       </c>
       <c r="H18" s="3">
-        <v>-6500</v>
+        <v>-6600</v>
       </c>
       <c r="I18" s="3">
         <v>-200</v>
       </c>
       <c r="J18" s="3">
-        <v>-11700</v>
+        <v>-11900</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1090,25 +1090,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="E20" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="F20" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="G20" s="3">
         <v>-500</v>
       </c>
       <c r="H20" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="I20" s="3">
         <v>2700</v>
       </c>
       <c r="J20" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>371000</v>
+        <v>376600</v>
       </c>
       <c r="E21" s="3">
-        <v>259600</v>
+        <v>263600</v>
       </c>
       <c r="F21" s="3">
-        <v>147700</v>
+        <v>149900</v>
       </c>
       <c r="G21" s="3">
-        <v>70500</v>
+        <v>71500</v>
       </c>
       <c r="H21" s="3">
-        <v>32100</v>
+        <v>32500</v>
       </c>
       <c r="I21" s="3">
-        <v>24900</v>
+        <v>25300</v>
       </c>
       <c r="J21" s="3">
-        <v>12400</v>
+        <v>12500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1162,25 +1162,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>202700</v>
+        <v>206100</v>
       </c>
       <c r="E22" s="3">
-        <v>149200</v>
+        <v>151700</v>
       </c>
       <c r="F22" s="3">
-        <v>101000</v>
+        <v>102700</v>
       </c>
       <c r="G22" s="3">
-        <v>63400</v>
+        <v>64500</v>
       </c>
       <c r="H22" s="3">
-        <v>40800</v>
+        <v>41500</v>
       </c>
       <c r="I22" s="3">
-        <v>19500</v>
+        <v>19900</v>
       </c>
       <c r="J22" s="3">
-        <v>20300</v>
+        <v>20700</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-84400</v>
+        <v>-85900</v>
       </c>
       <c r="E23" s="3">
-        <v>-65700</v>
+        <v>-66800</v>
       </c>
       <c r="F23" s="3">
-        <v>-67700</v>
+        <v>-68800</v>
       </c>
       <c r="G23" s="3">
-        <v>-51300</v>
+        <v>-52100</v>
       </c>
       <c r="H23" s="3">
-        <v>-43800</v>
+        <v>-44600</v>
       </c>
       <c r="I23" s="3">
-        <v>-17000</v>
+        <v>-17300</v>
       </c>
       <c r="J23" s="3">
-        <v>-20700</v>
+        <v>-21100</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1234,22 +1234,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>18600</v>
+        <v>18900</v>
       </c>
       <c r="E24" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="F24" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="G24" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="H24" s="3">
         <v>-1300</v>
       </c>
       <c r="I24" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="J24" s="3">
         <v>-700</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-103000</v>
+        <v>-104800</v>
       </c>
       <c r="E26" s="3">
-        <v>-68100</v>
+        <v>-69200</v>
       </c>
       <c r="F26" s="3">
-        <v>-66300</v>
+        <v>-67400</v>
       </c>
       <c r="G26" s="3">
-        <v>-50300</v>
+        <v>-51200</v>
       </c>
       <c r="H26" s="3">
-        <v>-42600</v>
+        <v>-43300</v>
       </c>
       <c r="I26" s="3">
-        <v>-15200</v>
+        <v>-15400</v>
       </c>
       <c r="J26" s="3">
-        <v>-20000</v>
+        <v>-20400</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-113600</v>
+        <v>-115500</v>
       </c>
       <c r="E27" s="3">
-        <v>-77000</v>
+        <v>-78300</v>
       </c>
       <c r="F27" s="3">
-        <v>-66300</v>
+        <v>-67400</v>
       </c>
       <c r="G27" s="3">
-        <v>-50300</v>
+        <v>-51200</v>
       </c>
       <c r="H27" s="3">
-        <v>-62100</v>
+        <v>-63200</v>
       </c>
       <c r="I27" s="3">
-        <v>-33400</v>
+        <v>-33900</v>
       </c>
       <c r="J27" s="3">
-        <v>-47600</v>
+        <v>-48400</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1522,25 +1522,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6200</v>
+        <v>-6300</v>
       </c>
       <c r="E32" s="3">
-        <v>-9600</v>
+        <v>-9800</v>
       </c>
       <c r="F32" s="3">
-        <v>-7400</v>
+        <v>-7500</v>
       </c>
       <c r="G32" s="3">
         <v>500</v>
       </c>
       <c r="H32" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="I32" s="3">
         <v>-2700</v>
       </c>
       <c r="J32" s="3">
-        <v>-11200</v>
+        <v>-11400</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-113600</v>
+        <v>-115500</v>
       </c>
       <c r="E33" s="3">
-        <v>-77000</v>
+        <v>-78300</v>
       </c>
       <c r="F33" s="3">
-        <v>-66300</v>
+        <v>-67400</v>
       </c>
       <c r="G33" s="3">
-        <v>-50300</v>
+        <v>-51200</v>
       </c>
       <c r="H33" s="3">
-        <v>-62100</v>
+        <v>-63200</v>
       </c>
       <c r="I33" s="3">
-        <v>-33400</v>
+        <v>-33900</v>
       </c>
       <c r="J33" s="3">
-        <v>-47600</v>
+        <v>-48400</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-113600</v>
+        <v>-115500</v>
       </c>
       <c r="E35" s="3">
-        <v>-77000</v>
+        <v>-78300</v>
       </c>
       <c r="F35" s="3">
-        <v>-66300</v>
+        <v>-67400</v>
       </c>
       <c r="G35" s="3">
-        <v>-50300</v>
+        <v>-51200</v>
       </c>
       <c r="H35" s="3">
-        <v>-62100</v>
+        <v>-63200</v>
       </c>
       <c r="I35" s="3">
-        <v>-33400</v>
+        <v>-33900</v>
       </c>
       <c r="J35" s="3">
-        <v>-47600</v>
+        <v>-48400</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2503600</v>
+        <v>2545600</v>
       </c>
       <c r="E41" s="3">
-        <v>894800</v>
+        <v>909800</v>
       </c>
       <c r="F41" s="3">
-        <v>332800</v>
+        <v>338400</v>
       </c>
       <c r="G41" s="3">
-        <v>288500</v>
+        <v>293300</v>
       </c>
       <c r="H41" s="3">
-        <v>278900</v>
+        <v>283600</v>
       </c>
       <c r="I41" s="3">
-        <v>142400</v>
+        <v>144700</v>
       </c>
       <c r="J41" s="3">
-        <v>93400</v>
+        <v>95000</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1811,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>251900</v>
+        <v>256100</v>
       </c>
       <c r="E43" s="3">
-        <v>155500</v>
+        <v>158100</v>
       </c>
       <c r="F43" s="3">
-        <v>107800</v>
+        <v>109600</v>
       </c>
       <c r="G43" s="3">
-        <v>73400</v>
+        <v>74700</v>
       </c>
       <c r="H43" s="3">
-        <v>41900</v>
+        <v>42600</v>
       </c>
       <c r="I43" s="3">
-        <v>26400</v>
+        <v>26800</v>
       </c>
       <c r="J43" s="3">
-        <v>14300</v>
+        <v>14500</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1883,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>65200</v>
+        <v>66300</v>
       </c>
       <c r="E45" s="3">
-        <v>40600</v>
+        <v>41300</v>
       </c>
       <c r="F45" s="3">
-        <v>27000</v>
+        <v>27500</v>
       </c>
       <c r="G45" s="3">
-        <v>16000</v>
+        <v>16200</v>
       </c>
       <c r="H45" s="3">
-        <v>19500</v>
+        <v>19800</v>
       </c>
       <c r="I45" s="3">
-        <v>14000</v>
+        <v>14200</v>
       </c>
       <c r="J45" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2820700</v>
+        <v>2868000</v>
       </c>
       <c r="E46" s="3">
-        <v>1090900</v>
+        <v>1109200</v>
       </c>
       <c r="F46" s="3">
-        <v>467700</v>
+        <v>475500</v>
       </c>
       <c r="G46" s="3">
-        <v>377900</v>
+        <v>384200</v>
       </c>
       <c r="H46" s="3">
-        <v>340300</v>
+        <v>346000</v>
       </c>
       <c r="I46" s="3">
-        <v>182700</v>
+        <v>185800</v>
       </c>
       <c r="J46" s="3">
-        <v>114800</v>
+        <v>116800</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1955,19 +1955,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>222600</v>
+        <v>226300</v>
       </c>
       <c r="E47" s="3">
-        <v>136800</v>
+        <v>139100</v>
       </c>
       <c r="F47" s="3">
-        <v>75200</v>
+        <v>76500</v>
       </c>
       <c r="G47" s="3">
-        <v>44700</v>
+        <v>45400</v>
       </c>
       <c r="H47" s="3">
-        <v>15200</v>
+        <v>15500</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5028300</v>
+        <v>5112600</v>
       </c>
       <c r="E48" s="3">
-        <v>3076700</v>
+        <v>3128300</v>
       </c>
       <c r="F48" s="3">
-        <v>2154900</v>
+        <v>2191000</v>
       </c>
       <c r="G48" s="3">
-        <v>1257300</v>
+        <v>1278400</v>
       </c>
       <c r="H48" s="3">
-        <v>665600</v>
+        <v>676800</v>
       </c>
       <c r="I48" s="3">
-        <v>386900</v>
+        <v>393400</v>
       </c>
       <c r="J48" s="3">
-        <v>261000</v>
+        <v>265400</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2027,25 +2027,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>520700</v>
+        <v>529400</v>
       </c>
       <c r="E49" s="3">
-        <v>354200</v>
+        <v>360200</v>
       </c>
       <c r="F49" s="3">
-        <v>344100</v>
+        <v>349800</v>
       </c>
       <c r="G49" s="3">
-        <v>295500</v>
+        <v>300500</v>
       </c>
       <c r="H49" s="3">
-        <v>220800</v>
+        <v>224500</v>
       </c>
       <c r="I49" s="3">
-        <v>210900</v>
+        <v>214500</v>
       </c>
       <c r="J49" s="3">
-        <v>212300</v>
+        <v>215800</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2135,22 +2135,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>224300</v>
+        <v>228100</v>
       </c>
       <c r="E52" s="3">
-        <v>190600</v>
+        <v>193800</v>
       </c>
       <c r="F52" s="3">
-        <v>174000</v>
+        <v>176900</v>
       </c>
       <c r="G52" s="3">
-        <v>48600</v>
+        <v>49400</v>
       </c>
       <c r="H52" s="3">
-        <v>21300</v>
+        <v>21600</v>
       </c>
       <c r="I52" s="3">
-        <v>13400</v>
+        <v>13700</v>
       </c>
       <c r="J52" s="3">
         <v>5400</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8816700</v>
+        <v>8964400</v>
       </c>
       <c r="E54" s="3">
-        <v>4849200</v>
+        <v>4930500</v>
       </c>
       <c r="F54" s="3">
-        <v>3215900</v>
+        <v>3269800</v>
       </c>
       <c r="G54" s="3">
-        <v>2024000</v>
+        <v>2057900</v>
       </c>
       <c r="H54" s="3">
-        <v>1263200</v>
+        <v>1284400</v>
       </c>
       <c r="I54" s="3">
-        <v>789700</v>
+        <v>802900</v>
       </c>
       <c r="J54" s="3">
-        <v>593500</v>
+        <v>603400</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2275,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>563100</v>
+        <v>572600</v>
       </c>
       <c r="E57" s="3">
-        <v>258100</v>
+        <v>262400</v>
       </c>
       <c r="F57" s="3">
-        <v>232200</v>
+        <v>236100</v>
       </c>
       <c r="G57" s="3">
-        <v>171000</v>
+        <v>173800</v>
       </c>
       <c r="H57" s="3">
-        <v>79100</v>
+        <v>80400</v>
       </c>
       <c r="I57" s="3">
-        <v>33200</v>
+        <v>33800</v>
       </c>
       <c r="J57" s="3">
-        <v>35700</v>
+        <v>36300</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2311,25 +2311,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>370800</v>
+        <v>377000</v>
       </c>
       <c r="E58" s="3">
-        <v>209400</v>
+        <v>213000</v>
       </c>
       <c r="F58" s="3">
-        <v>223300</v>
+        <v>227000</v>
       </c>
       <c r="G58" s="3">
-        <v>136800</v>
+        <v>139100</v>
       </c>
       <c r="H58" s="3">
-        <v>110400</v>
+        <v>112300</v>
       </c>
       <c r="I58" s="3">
-        <v>83900</v>
+        <v>85300</v>
       </c>
       <c r="J58" s="3">
-        <v>77600</v>
+        <v>78900</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>243100</v>
+        <v>247200</v>
       </c>
       <c r="E59" s="3">
-        <v>148300</v>
+        <v>150800</v>
       </c>
       <c r="F59" s="3">
-        <v>84600</v>
+        <v>86100</v>
       </c>
       <c r="G59" s="3">
-        <v>65300</v>
+        <v>66400</v>
       </c>
       <c r="H59" s="3">
-        <v>38300</v>
+        <v>38900</v>
       </c>
       <c r="I59" s="3">
-        <v>25400</v>
+        <v>25800</v>
       </c>
       <c r="J59" s="3">
-        <v>24900</v>
+        <v>25300</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1177000</v>
+        <v>1196700</v>
       </c>
       <c r="E60" s="3">
-        <v>615800</v>
+        <v>626200</v>
       </c>
       <c r="F60" s="3">
-        <v>540100</v>
+        <v>549200</v>
       </c>
       <c r="G60" s="3">
-        <v>373100</v>
+        <v>379400</v>
       </c>
       <c r="H60" s="3">
-        <v>227800</v>
+        <v>231600</v>
       </c>
       <c r="I60" s="3">
-        <v>142400</v>
+        <v>144800</v>
       </c>
       <c r="J60" s="3">
-        <v>138200</v>
+        <v>140500</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2419,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3170900</v>
+        <v>3224100</v>
       </c>
       <c r="E61" s="3">
-        <v>2283400</v>
+        <v>2321700</v>
       </c>
       <c r="F61" s="3">
-        <v>1746600</v>
+        <v>1775800</v>
       </c>
       <c r="G61" s="3">
-        <v>887400</v>
+        <v>902200</v>
       </c>
       <c r="H61" s="3">
-        <v>550200</v>
+        <v>559400</v>
       </c>
       <c r="I61" s="3">
-        <v>312800</v>
+        <v>318100</v>
       </c>
       <c r="J61" s="3">
-        <v>113800</v>
+        <v>115700</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2455,25 +2455,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>362500</v>
+        <v>368600</v>
       </c>
       <c r="E62" s="3">
-        <v>201400</v>
+        <v>204800</v>
       </c>
       <c r="F62" s="3">
-        <v>78900</v>
+        <v>80300</v>
       </c>
       <c r="G62" s="3">
-        <v>74400</v>
+        <v>75600</v>
       </c>
       <c r="H62" s="3">
-        <v>25400</v>
+        <v>25800</v>
       </c>
       <c r="I62" s="3">
-        <v>18000</v>
+        <v>18300</v>
       </c>
       <c r="J62" s="3">
-        <v>10800</v>
+        <v>10900</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4729000</v>
+        <v>4808300</v>
       </c>
       <c r="E66" s="3">
-        <v>3100700</v>
+        <v>3152600</v>
       </c>
       <c r="F66" s="3">
-        <v>2365600</v>
+        <v>2405300</v>
       </c>
       <c r="G66" s="3">
-        <v>1334900</v>
+        <v>1357200</v>
       </c>
       <c r="H66" s="3">
-        <v>803400</v>
+        <v>816800</v>
       </c>
       <c r="I66" s="3">
-        <v>473300</v>
+        <v>481200</v>
       </c>
       <c r="J66" s="3">
-        <v>262800</v>
+        <v>267200</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2723,10 +2723,10 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>151000</v>
+        <v>153600</v>
       </c>
       <c r="E70" s="3">
-        <v>163500</v>
+        <v>166300</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2738,10 +2738,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>368800</v>
+        <v>375000</v>
       </c>
       <c r="J70" s="3">
-        <v>333200</v>
+        <v>338800</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-419400</v>
+        <v>-426400</v>
       </c>
       <c r="E72" s="3">
-        <v>-316800</v>
+        <v>-322100</v>
       </c>
       <c r="F72" s="3">
-        <v>-248700</v>
+        <v>-252900</v>
       </c>
       <c r="G72" s="3">
-        <v>-182600</v>
+        <v>-185600</v>
       </c>
       <c r="H72" s="3">
-        <v>-132200</v>
+        <v>-134400</v>
       </c>
       <c r="I72" s="3">
-        <v>-89700</v>
+        <v>-91200</v>
       </c>
       <c r="J72" s="3">
-        <v>-74500</v>
+        <v>-75700</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3936700</v>
+        <v>4002600</v>
       </c>
       <c r="E76" s="3">
-        <v>1585000</v>
+        <v>1611500</v>
       </c>
       <c r="F76" s="3">
-        <v>850300</v>
+        <v>864500</v>
       </c>
       <c r="G76" s="3">
-        <v>689100</v>
+        <v>700700</v>
       </c>
       <c r="H76" s="3">
-        <v>459900</v>
+        <v>467600</v>
       </c>
       <c r="I76" s="3">
-        <v>-52400</v>
+        <v>-53300</v>
       </c>
       <c r="J76" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-113600</v>
+        <v>-115500</v>
       </c>
       <c r="E81" s="3">
-        <v>-77000</v>
+        <v>-78300</v>
       </c>
       <c r="F81" s="3">
-        <v>-66300</v>
+        <v>-67400</v>
       </c>
       <c r="G81" s="3">
-        <v>-50300</v>
+        <v>-51200</v>
       </c>
       <c r="H81" s="3">
-        <v>-62100</v>
+        <v>-63200</v>
       </c>
       <c r="I81" s="3">
-        <v>-33400</v>
+        <v>-33900</v>
       </c>
       <c r="J81" s="3">
-        <v>-47600</v>
+        <v>-48400</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3104,25 +3104,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>252300</v>
+        <v>256500</v>
       </c>
       <c r="E83" s="3">
-        <v>175900</v>
+        <v>178800</v>
       </c>
       <c r="F83" s="3">
-        <v>114200</v>
+        <v>116100</v>
       </c>
       <c r="G83" s="3">
-        <v>58200</v>
+        <v>59200</v>
       </c>
       <c r="H83" s="3">
-        <v>35000</v>
+        <v>35600</v>
       </c>
       <c r="I83" s="3">
-        <v>22400</v>
+        <v>22800</v>
       </c>
       <c r="J83" s="3">
-        <v>12700</v>
+        <v>13000</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>49400</v>
+        <v>50200</v>
       </c>
       <c r="E89" s="3">
-        <v>45200</v>
+        <v>45900</v>
       </c>
       <c r="F89" s="3">
         <v>-2000</v>
       </c>
       <c r="G89" s="3">
-        <v>-25800</v>
+        <v>-26300</v>
       </c>
       <c r="H89" s="3">
-        <v>-19900</v>
+        <v>-20200</v>
       </c>
       <c r="I89" s="3">
-        <v>-12400</v>
+        <v>-12600</v>
       </c>
       <c r="J89" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3372,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1237500</v>
+        <v>-1258300</v>
       </c>
       <c r="E91" s="3">
-        <v>-701800</v>
+        <v>-713600</v>
       </c>
       <c r="F91" s="3">
-        <v>-656100</v>
+        <v>-667100</v>
       </c>
       <c r="G91" s="3">
-        <v>-264900</v>
+        <v>-269300</v>
       </c>
       <c r="H91" s="3">
-        <v>-152100</v>
+        <v>-154600</v>
       </c>
       <c r="I91" s="3">
-        <v>-112900</v>
+        <v>-114800</v>
       </c>
       <c r="J91" s="3">
-        <v>-38200</v>
+        <v>-38900</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1444000</v>
+        <v>-1468200</v>
       </c>
       <c r="E94" s="3">
-        <v>-790100</v>
+        <v>-803300</v>
       </c>
       <c r="F94" s="3">
-        <v>-728800</v>
+        <v>-741000</v>
       </c>
       <c r="G94" s="3">
-        <v>-308700</v>
+        <v>-313900</v>
       </c>
       <c r="H94" s="3">
-        <v>-176600</v>
+        <v>-179600</v>
       </c>
       <c r="I94" s="3">
-        <v>-112700</v>
+        <v>-114600</v>
       </c>
       <c r="J94" s="3">
-        <v>-80600</v>
+        <v>-82000</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3532,7 +3532,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-10100</v>
+        <v>-10300</v>
       </c>
       <c r="E96" s="3">
         <v>-3900</v>
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-11800</v>
+        <v>-12000</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3101700</v>
+        <v>3153700</v>
       </c>
       <c r="E100" s="3">
-        <v>1287600</v>
+        <v>1309100</v>
       </c>
       <c r="F100" s="3">
-        <v>750900</v>
+        <v>763500</v>
       </c>
       <c r="G100" s="3">
-        <v>362700</v>
+        <v>368800</v>
       </c>
       <c r="H100" s="3">
-        <v>327800</v>
+        <v>333300</v>
       </c>
       <c r="I100" s="3">
-        <v>173600</v>
+        <v>176600</v>
       </c>
       <c r="J100" s="3">
-        <v>162600</v>
+        <v>165400</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3712,22 +3712,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-87300</v>
+        <v>-88700</v>
       </c>
       <c r="E101" s="3">
-        <v>25300</v>
+        <v>25700</v>
       </c>
       <c r="F101" s="3">
-        <v>31800</v>
+        <v>32300</v>
       </c>
       <c r="G101" s="3">
-        <v>-11400</v>
+        <v>-11600</v>
       </c>
       <c r="H101" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="I101" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J101" s="3">
         <v>-400</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1619800</v>
+        <v>1647000</v>
       </c>
       <c r="E102" s="3">
-        <v>568000</v>
+        <v>577500</v>
       </c>
       <c r="F102" s="3">
-        <v>51900</v>
+        <v>52800</v>
       </c>
       <c r="G102" s="3">
-        <v>16700</v>
+        <v>17000</v>
       </c>
       <c r="H102" s="3">
-        <v>139800</v>
+        <v>142200</v>
       </c>
       <c r="I102" s="3">
-        <v>48900</v>
+        <v>49700</v>
       </c>
       <c r="J102" s="3">
-        <v>85900</v>
+        <v>87400</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/GDS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GDS_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>898500</v>
+        <v>905400</v>
       </c>
       <c r="E8" s="3">
-        <v>645400</v>
+        <v>650400</v>
       </c>
       <c r="F8" s="3">
-        <v>437100</v>
+        <v>440500</v>
       </c>
       <c r="G8" s="3">
-        <v>253000</v>
+        <v>255000</v>
       </c>
       <c r="H8" s="3">
-        <v>165300</v>
+        <v>166600</v>
       </c>
       <c r="I8" s="3">
-        <v>110200</v>
+        <v>111000</v>
       </c>
       <c r="J8" s="3">
-        <v>73300</v>
+        <v>73900</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -757,25 +757,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>655800</v>
+        <v>660800</v>
       </c>
       <c r="E9" s="3">
-        <v>482200</v>
+        <v>485900</v>
       </c>
       <c r="F9" s="3">
-        <v>339700</v>
+        <v>342300</v>
       </c>
       <c r="G9" s="3">
-        <v>189100</v>
+        <v>190500</v>
       </c>
       <c r="H9" s="3">
-        <v>123700</v>
+        <v>124700</v>
       </c>
       <c r="I9" s="3">
-        <v>80600</v>
+        <v>81200</v>
       </c>
       <c r="J9" s="3">
-        <v>60800</v>
+        <v>61200</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -793,22 +793,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>242700</v>
+        <v>244600</v>
       </c>
       <c r="E10" s="3">
-        <v>163200</v>
+        <v>164500</v>
       </c>
       <c r="F10" s="3">
-        <v>97400</v>
+        <v>98200</v>
       </c>
       <c r="G10" s="3">
-        <v>64000</v>
+        <v>64400</v>
       </c>
       <c r="H10" s="3">
-        <v>41600</v>
+        <v>41900</v>
       </c>
       <c r="I10" s="3">
-        <v>29500</v>
+        <v>29800</v>
       </c>
       <c r="J10" s="3">
         <v>12600</v>
@@ -917,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -953,7 +953,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>19500</v>
+        <v>19600</v>
       </c>
       <c r="E15" s="3">
         <v>1800</v>
@@ -968,7 +968,7 @@
         <v>1000</v>
       </c>
       <c r="I15" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J15" s="3">
         <v>1100</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>784500</v>
+        <v>790500</v>
       </c>
       <c r="E17" s="3">
-        <v>570300</v>
+        <v>574700</v>
       </c>
       <c r="F17" s="3">
-        <v>410800</v>
+        <v>413900</v>
       </c>
       <c r="G17" s="3">
-        <v>240200</v>
+        <v>242000</v>
       </c>
       <c r="H17" s="3">
-        <v>172000</v>
+        <v>173300</v>
       </c>
       <c r="I17" s="3">
-        <v>110400</v>
+        <v>111200</v>
       </c>
       <c r="J17" s="3">
-        <v>85200</v>
+        <v>85800</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1038,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>114000</v>
+        <v>114900</v>
       </c>
       <c r="E18" s="3">
-        <v>75100</v>
+        <v>75700</v>
       </c>
       <c r="F18" s="3">
-        <v>26400</v>
+        <v>26600</v>
       </c>
       <c r="G18" s="3">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="H18" s="3">
-        <v>-6600</v>
+        <v>-6700</v>
       </c>
       <c r="I18" s="3">
         <v>-200</v>
@@ -1093,10 +1093,10 @@
         <v>6300</v>
       </c>
       <c r="E20" s="3">
-        <v>9800</v>
+        <v>9900</v>
       </c>
       <c r="F20" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="G20" s="3">
         <v>-500</v>
@@ -1105,10 +1105,10 @@
         <v>3600</v>
       </c>
       <c r="I20" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="J20" s="3">
-        <v>11400</v>
+        <v>11500</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>376600</v>
+        <v>380500</v>
       </c>
       <c r="E21" s="3">
-        <v>263600</v>
+        <v>266300</v>
       </c>
       <c r="F21" s="3">
-        <v>149900</v>
+        <v>151500</v>
       </c>
       <c r="G21" s="3">
-        <v>71500</v>
+        <v>72300</v>
       </c>
       <c r="H21" s="3">
-        <v>32500</v>
+        <v>32900</v>
       </c>
       <c r="I21" s="3">
-        <v>25300</v>
+        <v>25600</v>
       </c>
       <c r="J21" s="3">
-        <v>12500</v>
+        <v>12700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1162,25 +1162,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>206100</v>
+        <v>207700</v>
       </c>
       <c r="E22" s="3">
-        <v>151700</v>
+        <v>152800</v>
       </c>
       <c r="F22" s="3">
-        <v>102700</v>
+        <v>103500</v>
       </c>
       <c r="G22" s="3">
-        <v>64500</v>
+        <v>65000</v>
       </c>
       <c r="H22" s="3">
-        <v>41500</v>
+        <v>41800</v>
       </c>
       <c r="I22" s="3">
-        <v>19900</v>
+        <v>20000</v>
       </c>
       <c r="J22" s="3">
-        <v>20700</v>
+        <v>20800</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-85900</v>
+        <v>-86500</v>
       </c>
       <c r="E23" s="3">
-        <v>-66800</v>
+        <v>-67300</v>
       </c>
       <c r="F23" s="3">
-        <v>-68800</v>
+        <v>-69400</v>
       </c>
       <c r="G23" s="3">
-        <v>-52100</v>
+        <v>-52500</v>
       </c>
       <c r="H23" s="3">
-        <v>-44600</v>
+        <v>-44900</v>
       </c>
       <c r="I23" s="3">
-        <v>-17300</v>
+        <v>-17400</v>
       </c>
       <c r="J23" s="3">
-        <v>-21100</v>
+        <v>-21200</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1234,7 +1234,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>18900</v>
+        <v>19100</v>
       </c>
       <c r="E24" s="3">
         <v>2500</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-104800</v>
+        <v>-105600</v>
       </c>
       <c r="E26" s="3">
-        <v>-69200</v>
+        <v>-69700</v>
       </c>
       <c r="F26" s="3">
-        <v>-67400</v>
+        <v>-67900</v>
       </c>
       <c r="G26" s="3">
-        <v>-51200</v>
+        <v>-51600</v>
       </c>
       <c r="H26" s="3">
-        <v>-43300</v>
+        <v>-43600</v>
       </c>
       <c r="I26" s="3">
-        <v>-15400</v>
+        <v>-15600</v>
       </c>
       <c r="J26" s="3">
-        <v>-20400</v>
+        <v>-20500</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-115500</v>
+        <v>-116400</v>
       </c>
       <c r="E27" s="3">
-        <v>-78300</v>
+        <v>-78900</v>
       </c>
       <c r="F27" s="3">
-        <v>-67400</v>
+        <v>-67900</v>
       </c>
       <c r="G27" s="3">
-        <v>-51200</v>
+        <v>-51600</v>
       </c>
       <c r="H27" s="3">
-        <v>-63200</v>
+        <v>-63600</v>
       </c>
       <c r="I27" s="3">
-        <v>-33900</v>
+        <v>-34200</v>
       </c>
       <c r="J27" s="3">
-        <v>-48400</v>
+        <v>-48800</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1525,10 +1525,10 @@
         <v>-6300</v>
       </c>
       <c r="E32" s="3">
-        <v>-9800</v>
+        <v>-9900</v>
       </c>
       <c r="F32" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="G32" s="3">
         <v>500</v>
@@ -1537,10 +1537,10 @@
         <v>-3600</v>
       </c>
       <c r="I32" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="J32" s="3">
-        <v>-11400</v>
+        <v>-11500</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-115500</v>
+        <v>-116400</v>
       </c>
       <c r="E33" s="3">
-        <v>-78300</v>
+        <v>-78900</v>
       </c>
       <c r="F33" s="3">
-        <v>-67400</v>
+        <v>-67900</v>
       </c>
       <c r="G33" s="3">
-        <v>-51200</v>
+        <v>-51600</v>
       </c>
       <c r="H33" s="3">
-        <v>-63200</v>
+        <v>-63600</v>
       </c>
       <c r="I33" s="3">
-        <v>-33900</v>
+        <v>-34200</v>
       </c>
       <c r="J33" s="3">
-        <v>-48400</v>
+        <v>-48800</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-115500</v>
+        <v>-116400</v>
       </c>
       <c r="E35" s="3">
-        <v>-78300</v>
+        <v>-78900</v>
       </c>
       <c r="F35" s="3">
-        <v>-67400</v>
+        <v>-67900</v>
       </c>
       <c r="G35" s="3">
-        <v>-51200</v>
+        <v>-51600</v>
       </c>
       <c r="H35" s="3">
-        <v>-63200</v>
+        <v>-63600</v>
       </c>
       <c r="I35" s="3">
-        <v>-33900</v>
+        <v>-34200</v>
       </c>
       <c r="J35" s="3">
-        <v>-48400</v>
+        <v>-48800</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2545600</v>
+        <v>2565100</v>
       </c>
       <c r="E41" s="3">
-        <v>909800</v>
+        <v>916700</v>
       </c>
       <c r="F41" s="3">
-        <v>338400</v>
+        <v>341000</v>
       </c>
       <c r="G41" s="3">
-        <v>293300</v>
+        <v>295600</v>
       </c>
       <c r="H41" s="3">
-        <v>283600</v>
+        <v>285800</v>
       </c>
       <c r="I41" s="3">
-        <v>144700</v>
+        <v>145800</v>
       </c>
       <c r="J41" s="3">
-        <v>95000</v>
+        <v>95700</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1811,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>256100</v>
+        <v>258100</v>
       </c>
       <c r="E43" s="3">
-        <v>158100</v>
+        <v>159300</v>
       </c>
       <c r="F43" s="3">
-        <v>109600</v>
+        <v>110500</v>
       </c>
       <c r="G43" s="3">
-        <v>74700</v>
+        <v>75200</v>
       </c>
       <c r="H43" s="3">
-        <v>42600</v>
+        <v>43000</v>
       </c>
       <c r="I43" s="3">
-        <v>26800</v>
+        <v>27000</v>
       </c>
       <c r="J43" s="3">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1883,22 +1883,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>66300</v>
+        <v>66800</v>
       </c>
       <c r="E45" s="3">
-        <v>41300</v>
+        <v>41600</v>
       </c>
       <c r="F45" s="3">
-        <v>27500</v>
+        <v>27700</v>
       </c>
       <c r="G45" s="3">
-        <v>16200</v>
+        <v>16300</v>
       </c>
       <c r="H45" s="3">
-        <v>19800</v>
+        <v>20000</v>
       </c>
       <c r="I45" s="3">
-        <v>14200</v>
+        <v>14400</v>
       </c>
       <c r="J45" s="3">
         <v>7300</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2868000</v>
+        <v>2890000</v>
       </c>
       <c r="E46" s="3">
-        <v>1109200</v>
+        <v>1117700</v>
       </c>
       <c r="F46" s="3">
-        <v>475500</v>
+        <v>479200</v>
       </c>
       <c r="G46" s="3">
-        <v>384200</v>
+        <v>387100</v>
       </c>
       <c r="H46" s="3">
-        <v>346000</v>
+        <v>348700</v>
       </c>
       <c r="I46" s="3">
-        <v>185800</v>
+        <v>187200</v>
       </c>
       <c r="J46" s="3">
-        <v>116800</v>
+        <v>117700</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1955,19 +1955,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>226300</v>
+        <v>228000</v>
       </c>
       <c r="E47" s="3">
-        <v>139100</v>
+        <v>140200</v>
       </c>
       <c r="F47" s="3">
-        <v>76500</v>
+        <v>77100</v>
       </c>
       <c r="G47" s="3">
-        <v>45400</v>
+        <v>45800</v>
       </c>
       <c r="H47" s="3">
-        <v>15500</v>
+        <v>15600</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5112600</v>
+        <v>5151800</v>
       </c>
       <c r="E48" s="3">
-        <v>3128300</v>
+        <v>3152300</v>
       </c>
       <c r="F48" s="3">
-        <v>2191000</v>
+        <v>2207800</v>
       </c>
       <c r="G48" s="3">
-        <v>1278400</v>
+        <v>1288200</v>
       </c>
       <c r="H48" s="3">
-        <v>676800</v>
+        <v>682000</v>
       </c>
       <c r="I48" s="3">
-        <v>393400</v>
+        <v>396400</v>
       </c>
       <c r="J48" s="3">
-        <v>265400</v>
+        <v>267400</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2027,25 +2027,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>529400</v>
+        <v>533500</v>
       </c>
       <c r="E49" s="3">
-        <v>360200</v>
+        <v>362900</v>
       </c>
       <c r="F49" s="3">
-        <v>349800</v>
+        <v>352500</v>
       </c>
       <c r="G49" s="3">
-        <v>300500</v>
+        <v>302800</v>
       </c>
       <c r="H49" s="3">
-        <v>224500</v>
+        <v>226200</v>
       </c>
       <c r="I49" s="3">
-        <v>214500</v>
+        <v>216100</v>
       </c>
       <c r="J49" s="3">
-        <v>215800</v>
+        <v>217500</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2135,25 +2135,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>228100</v>
+        <v>229900</v>
       </c>
       <c r="E52" s="3">
-        <v>193800</v>
+        <v>195200</v>
       </c>
       <c r="F52" s="3">
-        <v>176900</v>
+        <v>178300</v>
       </c>
       <c r="G52" s="3">
-        <v>49400</v>
+        <v>49800</v>
       </c>
       <c r="H52" s="3">
-        <v>21600</v>
+        <v>21800</v>
       </c>
       <c r="I52" s="3">
-        <v>13700</v>
+        <v>13800</v>
       </c>
       <c r="J52" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8964400</v>
+        <v>9033100</v>
       </c>
       <c r="E54" s="3">
-        <v>4930500</v>
+        <v>4968300</v>
       </c>
       <c r="F54" s="3">
-        <v>3269800</v>
+        <v>3294900</v>
       </c>
       <c r="G54" s="3">
-        <v>2057900</v>
+        <v>2073700</v>
       </c>
       <c r="H54" s="3">
-        <v>1284400</v>
+        <v>1294200</v>
       </c>
       <c r="I54" s="3">
-        <v>802900</v>
+        <v>809000</v>
       </c>
       <c r="J54" s="3">
-        <v>603400</v>
+        <v>608000</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2275,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>572600</v>
+        <v>576900</v>
       </c>
       <c r="E57" s="3">
-        <v>262400</v>
+        <v>264400</v>
       </c>
       <c r="F57" s="3">
-        <v>236100</v>
+        <v>237900</v>
       </c>
       <c r="G57" s="3">
-        <v>173800</v>
+        <v>175200</v>
       </c>
       <c r="H57" s="3">
-        <v>80400</v>
+        <v>81000</v>
       </c>
       <c r="I57" s="3">
-        <v>33800</v>
+        <v>34000</v>
       </c>
       <c r="J57" s="3">
-        <v>36300</v>
+        <v>36600</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2311,25 +2311,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>377000</v>
+        <v>379900</v>
       </c>
       <c r="E58" s="3">
-        <v>213000</v>
+        <v>214600</v>
       </c>
       <c r="F58" s="3">
-        <v>227000</v>
+        <v>228800</v>
       </c>
       <c r="G58" s="3">
-        <v>139100</v>
+        <v>140200</v>
       </c>
       <c r="H58" s="3">
-        <v>112300</v>
+        <v>113100</v>
       </c>
       <c r="I58" s="3">
-        <v>85300</v>
+        <v>85900</v>
       </c>
       <c r="J58" s="3">
-        <v>78900</v>
+        <v>79500</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>247200</v>
+        <v>249100</v>
       </c>
       <c r="E59" s="3">
-        <v>150800</v>
+        <v>152000</v>
       </c>
       <c r="F59" s="3">
-        <v>86100</v>
+        <v>86700</v>
       </c>
       <c r="G59" s="3">
-        <v>66400</v>
+        <v>66900</v>
       </c>
       <c r="H59" s="3">
-        <v>38900</v>
+        <v>39200</v>
       </c>
       <c r="I59" s="3">
-        <v>25800</v>
+        <v>26000</v>
       </c>
       <c r="J59" s="3">
-        <v>25300</v>
+        <v>25500</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1196700</v>
+        <v>1205900</v>
       </c>
       <c r="E60" s="3">
-        <v>626200</v>
+        <v>631000</v>
       </c>
       <c r="F60" s="3">
-        <v>549200</v>
+        <v>553400</v>
       </c>
       <c r="G60" s="3">
-        <v>379400</v>
+        <v>382300</v>
       </c>
       <c r="H60" s="3">
-        <v>231600</v>
+        <v>233400</v>
       </c>
       <c r="I60" s="3">
-        <v>144800</v>
+        <v>145900</v>
       </c>
       <c r="J60" s="3">
-        <v>140500</v>
+        <v>141600</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2419,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3224100</v>
+        <v>3248800</v>
       </c>
       <c r="E61" s="3">
-        <v>2321700</v>
+        <v>2339500</v>
       </c>
       <c r="F61" s="3">
-        <v>1775800</v>
+        <v>1789400</v>
       </c>
       <c r="G61" s="3">
-        <v>902200</v>
+        <v>909100</v>
       </c>
       <c r="H61" s="3">
-        <v>559400</v>
+        <v>563700</v>
       </c>
       <c r="I61" s="3">
-        <v>318100</v>
+        <v>320500</v>
       </c>
       <c r="J61" s="3">
-        <v>115700</v>
+        <v>116600</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2455,25 +2455,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>368600</v>
+        <v>371400</v>
       </c>
       <c r="E62" s="3">
-        <v>204800</v>
+        <v>206400</v>
       </c>
       <c r="F62" s="3">
-        <v>80300</v>
+        <v>80900</v>
       </c>
       <c r="G62" s="3">
-        <v>75600</v>
+        <v>76200</v>
       </c>
       <c r="H62" s="3">
-        <v>25800</v>
+        <v>26000</v>
       </c>
       <c r="I62" s="3">
-        <v>18300</v>
+        <v>18400</v>
       </c>
       <c r="J62" s="3">
-        <v>10900</v>
+        <v>11000</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4808300</v>
+        <v>4845100</v>
       </c>
       <c r="E66" s="3">
-        <v>3152600</v>
+        <v>3176800</v>
       </c>
       <c r="F66" s="3">
-        <v>2405300</v>
+        <v>2423700</v>
       </c>
       <c r="G66" s="3">
-        <v>1357200</v>
+        <v>1367600</v>
       </c>
       <c r="H66" s="3">
-        <v>816800</v>
+        <v>823100</v>
       </c>
       <c r="I66" s="3">
-        <v>481200</v>
+        <v>484900</v>
       </c>
       <c r="J66" s="3">
-        <v>267200</v>
+        <v>269200</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2723,10 +2723,10 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>153600</v>
+        <v>154700</v>
       </c>
       <c r="E70" s="3">
-        <v>166300</v>
+        <v>167500</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2738,10 +2738,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>375000</v>
+        <v>377900</v>
       </c>
       <c r="J70" s="3">
-        <v>338800</v>
+        <v>341400</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-426400</v>
+        <v>-429700</v>
       </c>
       <c r="E72" s="3">
-        <v>-322100</v>
+        <v>-324500</v>
       </c>
       <c r="F72" s="3">
-        <v>-252900</v>
+        <v>-254800</v>
       </c>
       <c r="G72" s="3">
-        <v>-185600</v>
+        <v>-187000</v>
       </c>
       <c r="H72" s="3">
-        <v>-134400</v>
+        <v>-135500</v>
       </c>
       <c r="I72" s="3">
-        <v>-91200</v>
+        <v>-91900</v>
       </c>
       <c r="J72" s="3">
-        <v>-75700</v>
+        <v>-76300</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4002600</v>
+        <v>4033300</v>
       </c>
       <c r="E76" s="3">
-        <v>1611500</v>
+        <v>1624000</v>
       </c>
       <c r="F76" s="3">
-        <v>864500</v>
+        <v>871100</v>
       </c>
       <c r="G76" s="3">
-        <v>700700</v>
+        <v>706100</v>
       </c>
       <c r="H76" s="3">
-        <v>467600</v>
+        <v>471100</v>
       </c>
       <c r="I76" s="3">
-        <v>-53300</v>
+        <v>-53700</v>
       </c>
       <c r="J76" s="3">
         <v>-2600</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-115500</v>
+        <v>-116400</v>
       </c>
       <c r="E81" s="3">
-        <v>-78300</v>
+        <v>-78900</v>
       </c>
       <c r="F81" s="3">
-        <v>-67400</v>
+        <v>-67900</v>
       </c>
       <c r="G81" s="3">
-        <v>-51200</v>
+        <v>-51600</v>
       </c>
       <c r="H81" s="3">
-        <v>-63200</v>
+        <v>-63600</v>
       </c>
       <c r="I81" s="3">
-        <v>-33900</v>
+        <v>-34200</v>
       </c>
       <c r="J81" s="3">
-        <v>-48400</v>
+        <v>-48800</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3104,25 +3104,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>256500</v>
+        <v>258500</v>
       </c>
       <c r="E83" s="3">
-        <v>178800</v>
+        <v>180200</v>
       </c>
       <c r="F83" s="3">
-        <v>116100</v>
+        <v>117000</v>
       </c>
       <c r="G83" s="3">
-        <v>59200</v>
+        <v>59700</v>
       </c>
       <c r="H83" s="3">
-        <v>35600</v>
+        <v>35900</v>
       </c>
       <c r="I83" s="3">
-        <v>22800</v>
+        <v>22900</v>
       </c>
       <c r="J83" s="3">
-        <v>13000</v>
+        <v>13100</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>50200</v>
+        <v>50600</v>
       </c>
       <c r="E89" s="3">
-        <v>45900</v>
+        <v>46300</v>
       </c>
       <c r="F89" s="3">
         <v>-2000</v>
       </c>
       <c r="G89" s="3">
-        <v>-26300</v>
+        <v>-26500</v>
       </c>
       <c r="H89" s="3">
-        <v>-20200</v>
+        <v>-20300</v>
       </c>
       <c r="I89" s="3">
-        <v>-12600</v>
+        <v>-12700</v>
       </c>
       <c r="J89" s="3">
         <v>4400</v>
@@ -3372,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1258300</v>
+        <v>-1267900</v>
       </c>
       <c r="E91" s="3">
-        <v>-713600</v>
+        <v>-719000</v>
       </c>
       <c r="F91" s="3">
-        <v>-667100</v>
+        <v>-672200</v>
       </c>
       <c r="G91" s="3">
-        <v>-269300</v>
+        <v>-271400</v>
       </c>
       <c r="H91" s="3">
-        <v>-154600</v>
+        <v>-155800</v>
       </c>
       <c r="I91" s="3">
-        <v>-114800</v>
+        <v>-115600</v>
       </c>
       <c r="J91" s="3">
-        <v>-38900</v>
+        <v>-39200</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1468200</v>
+        <v>-1479500</v>
       </c>
       <c r="E94" s="3">
-        <v>-803300</v>
+        <v>-809500</v>
       </c>
       <c r="F94" s="3">
-        <v>-741000</v>
+        <v>-746700</v>
       </c>
       <c r="G94" s="3">
-        <v>-313900</v>
+        <v>-316300</v>
       </c>
       <c r="H94" s="3">
-        <v>-179600</v>
+        <v>-181000</v>
       </c>
       <c r="I94" s="3">
-        <v>-114600</v>
+        <v>-115500</v>
       </c>
       <c r="J94" s="3">
-        <v>-82000</v>
+        <v>-82600</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-12000</v>
+        <v>-12100</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3153700</v>
+        <v>3177900</v>
       </c>
       <c r="E100" s="3">
-        <v>1309100</v>
+        <v>1319200</v>
       </c>
       <c r="F100" s="3">
-        <v>763500</v>
+        <v>769400</v>
       </c>
       <c r="G100" s="3">
-        <v>368800</v>
+        <v>371600</v>
       </c>
       <c r="H100" s="3">
-        <v>333300</v>
+        <v>335800</v>
       </c>
       <c r="I100" s="3">
-        <v>176600</v>
+        <v>177900</v>
       </c>
       <c r="J100" s="3">
-        <v>165400</v>
+        <v>166600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3712,19 +3712,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-88700</v>
+        <v>-89400</v>
       </c>
       <c r="E101" s="3">
-        <v>25700</v>
+        <v>25900</v>
       </c>
       <c r="F101" s="3">
-        <v>32300</v>
+        <v>32500</v>
       </c>
       <c r="G101" s="3">
-        <v>-11600</v>
+        <v>-11700</v>
       </c>
       <c r="H101" s="3">
-        <v>8700</v>
+        <v>8800</v>
       </c>
       <c r="I101" s="3">
         <v>400</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1647000</v>
+        <v>1659600</v>
       </c>
       <c r="E102" s="3">
-        <v>577500</v>
+        <v>581900</v>
       </c>
       <c r="F102" s="3">
-        <v>52800</v>
+        <v>53200</v>
       </c>
       <c r="G102" s="3">
-        <v>17000</v>
+        <v>17100</v>
       </c>
       <c r="H102" s="3">
-        <v>142200</v>
+        <v>143300</v>
       </c>
       <c r="I102" s="3">
-        <v>49700</v>
+        <v>50100</v>
       </c>
       <c r="J102" s="3">
-        <v>87400</v>
+        <v>88100</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/GDS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GDS_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,178 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>905400</v>
+        <v>1152200</v>
       </c>
       <c r="E8" s="3">
-        <v>650400</v>
+        <v>845700</v>
       </c>
       <c r="F8" s="3">
-        <v>440500</v>
+        <v>607500</v>
       </c>
       <c r="G8" s="3">
-        <v>255000</v>
+        <v>411400</v>
       </c>
       <c r="H8" s="3">
-        <v>166600</v>
+        <v>238200</v>
       </c>
       <c r="I8" s="3">
-        <v>111000</v>
+        <v>155600</v>
       </c>
       <c r="J8" s="3">
+        <v>103700</v>
+      </c>
+      <c r="K8" s="3">
         <v>73900</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>660800</v>
+        <v>889900</v>
       </c>
       <c r="E9" s="3">
-        <v>485900</v>
+        <v>617200</v>
       </c>
       <c r="F9" s="3">
-        <v>342300</v>
+        <v>453800</v>
       </c>
       <c r="G9" s="3">
-        <v>190500</v>
+        <v>319700</v>
       </c>
       <c r="H9" s="3">
-        <v>124700</v>
+        <v>178000</v>
       </c>
       <c r="I9" s="3">
-        <v>81200</v>
+        <v>116500</v>
       </c>
       <c r="J9" s="3">
+        <v>75900</v>
+      </c>
+      <c r="K9" s="3">
         <v>61200</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>244600</v>
+        <v>262200</v>
       </c>
       <c r="E10" s="3">
-        <v>164500</v>
+        <v>228500</v>
       </c>
       <c r="F10" s="3">
-        <v>98200</v>
+        <v>153700</v>
       </c>
       <c r="G10" s="3">
-        <v>64400</v>
+        <v>91700</v>
       </c>
       <c r="H10" s="3">
-        <v>41900</v>
+        <v>60200</v>
       </c>
       <c r="I10" s="3">
-        <v>29800</v>
+        <v>39100</v>
       </c>
       <c r="J10" s="3">
+        <v>27800</v>
+      </c>
+      <c r="K10" s="3">
         <v>12600</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,44 +851,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>5700</v>
+        <v>5000</v>
       </c>
       <c r="E12" s="3">
-        <v>3200</v>
+        <v>5400</v>
       </c>
       <c r="F12" s="3">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="G12" s="3">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="H12" s="3">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="I12" s="3">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="J12" s="3">
+        <v>500</v>
+      </c>
+      <c r="K12" s="3">
         <v>300</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,17 +926,20 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+        <v>-1000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-8100</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -937,8 +956,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -946,45 +965,51 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>19600</v>
+        <v>19900</v>
       </c>
       <c r="E15" s="3">
-        <v>1800</v>
+        <v>18300</v>
       </c>
       <c r="F15" s="3">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="G15" s="3">
         <v>1200</v>
       </c>
       <c r="H15" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I15" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="J15" s="3">
+        <v>700</v>
+      </c>
+      <c r="K15" s="3">
         <v>1100</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,80 +1021,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>790500</v>
+        <v>1067200</v>
       </c>
       <c r="E17" s="3">
-        <v>574700</v>
+        <v>738400</v>
       </c>
       <c r="F17" s="3">
-        <v>413900</v>
+        <v>536800</v>
       </c>
       <c r="G17" s="3">
-        <v>242000</v>
+        <v>386600</v>
       </c>
       <c r="H17" s="3">
-        <v>173300</v>
+        <v>226000</v>
       </c>
       <c r="I17" s="3">
-        <v>111200</v>
+        <v>161900</v>
       </c>
       <c r="J17" s="3">
+        <v>103900</v>
+      </c>
+      <c r="K17" s="3">
         <v>85800</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>114900</v>
+        <v>85000</v>
       </c>
       <c r="E18" s="3">
-        <v>75700</v>
+        <v>107300</v>
       </c>
       <c r="F18" s="3">
-        <v>26600</v>
+        <v>70700</v>
       </c>
       <c r="G18" s="3">
-        <v>13000</v>
+        <v>24800</v>
       </c>
       <c r="H18" s="3">
-        <v>-6700</v>
+        <v>12100</v>
       </c>
       <c r="I18" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-11900</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,188 +1116,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6300</v>
+        <v>19100</v>
       </c>
       <c r="E20" s="3">
-        <v>9900</v>
+        <v>5900</v>
       </c>
       <c r="F20" s="3">
-        <v>7600</v>
+        <v>9200</v>
       </c>
       <c r="G20" s="3">
+        <v>7100</v>
+      </c>
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
-        <v>3600</v>
-      </c>
       <c r="I20" s="3">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="J20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K20" s="3">
         <v>11500</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>380500</v>
+        <v>493500</v>
       </c>
       <c r="E21" s="3">
-        <v>266300</v>
+        <v>357100</v>
       </c>
       <c r="F21" s="3">
-        <v>151500</v>
+        <v>249900</v>
       </c>
       <c r="G21" s="3">
-        <v>72300</v>
+        <v>142300</v>
       </c>
       <c r="H21" s="3">
-        <v>32900</v>
+        <v>67900</v>
       </c>
       <c r="I21" s="3">
-        <v>25600</v>
+        <v>31000</v>
       </c>
       <c r="J21" s="3">
+        <v>24000</v>
+      </c>
+      <c r="K21" s="3">
         <v>12700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>207700</v>
+        <v>243800</v>
       </c>
       <c r="E22" s="3">
-        <v>152800</v>
+        <v>194000</v>
       </c>
       <c r="F22" s="3">
-        <v>103500</v>
+        <v>142700</v>
       </c>
       <c r="G22" s="3">
-        <v>65000</v>
+        <v>96700</v>
       </c>
       <c r="H22" s="3">
-        <v>41800</v>
+        <v>60700</v>
       </c>
       <c r="I22" s="3">
-        <v>20000</v>
+        <v>39100</v>
       </c>
       <c r="J22" s="3">
+        <v>18700</v>
+      </c>
+      <c r="K22" s="3">
         <v>20800</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-86500</v>
+        <v>-139800</v>
       </c>
       <c r="E23" s="3">
-        <v>-67300</v>
+        <v>-80800</v>
       </c>
       <c r="F23" s="3">
-        <v>-69400</v>
+        <v>-62800</v>
       </c>
       <c r="G23" s="3">
-        <v>-52500</v>
+        <v>-64800</v>
       </c>
       <c r="H23" s="3">
-        <v>-44900</v>
+        <v>-49100</v>
       </c>
       <c r="I23" s="3">
-        <v>-17400</v>
+        <v>-42000</v>
       </c>
       <c r="J23" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-21200</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>19100</v>
+        <v>35700</v>
       </c>
       <c r="E24" s="3">
-        <v>2500</v>
+        <v>17800</v>
       </c>
       <c r="F24" s="3">
-        <v>-1500</v>
+        <v>2300</v>
       </c>
       <c r="G24" s="3">
-        <v>-1000</v>
+        <v>-1400</v>
       </c>
       <c r="H24" s="3">
-        <v>-1300</v>
+        <v>-900</v>
       </c>
       <c r="I24" s="3">
-        <v>-1900</v>
+        <v>-1200</v>
       </c>
       <c r="J24" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K24" s="3">
         <v>-700</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,81 +1347,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-105600</v>
+        <v>-175500</v>
       </c>
       <c r="E26" s="3">
-        <v>-69700</v>
+        <v>-98600</v>
       </c>
       <c r="F26" s="3">
-        <v>-67900</v>
+        <v>-65100</v>
       </c>
       <c r="G26" s="3">
-        <v>-51600</v>
+        <v>-63400</v>
       </c>
       <c r="H26" s="3">
-        <v>-43600</v>
+        <v>-48200</v>
       </c>
       <c r="I26" s="3">
-        <v>-15600</v>
+        <v>-40700</v>
       </c>
       <c r="J26" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-20500</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-116400</v>
+        <v>-193600</v>
       </c>
       <c r="E27" s="3">
-        <v>-78900</v>
+        <v>-108700</v>
       </c>
       <c r="F27" s="3">
-        <v>-67900</v>
+        <v>-73700</v>
       </c>
       <c r="G27" s="3">
-        <v>-51600</v>
+        <v>-63400</v>
       </c>
       <c r="H27" s="3">
-        <v>-63600</v>
+        <v>-48200</v>
       </c>
       <c r="I27" s="3">
-        <v>-34200</v>
+        <v>-59400</v>
       </c>
       <c r="J27" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-48800</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,81 +1581,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6300</v>
+        <v>-19100</v>
       </c>
       <c r="E32" s="3">
-        <v>-9900</v>
+        <v>-5900</v>
       </c>
       <c r="F32" s="3">
-        <v>-7600</v>
+        <v>-9200</v>
       </c>
       <c r="G32" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
-        <v>-3600</v>
-      </c>
       <c r="I32" s="3">
-        <v>-2800</v>
+        <v>-3400</v>
       </c>
       <c r="J32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-11500</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-116400</v>
+        <v>-193600</v>
       </c>
       <c r="E33" s="3">
-        <v>-78900</v>
+        <v>-108700</v>
       </c>
       <c r="F33" s="3">
-        <v>-67900</v>
+        <v>-73700</v>
       </c>
       <c r="G33" s="3">
-        <v>-51600</v>
+        <v>-63400</v>
       </c>
       <c r="H33" s="3">
-        <v>-63600</v>
+        <v>-48200</v>
       </c>
       <c r="I33" s="3">
-        <v>-34200</v>
+        <v>-59400</v>
       </c>
       <c r="J33" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-48800</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,86 +1698,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-116400</v>
+        <v>-193600</v>
       </c>
       <c r="E35" s="3">
-        <v>-78900</v>
+        <v>-108700</v>
       </c>
       <c r="F35" s="3">
-        <v>-67900</v>
+        <v>-73700</v>
       </c>
       <c r="G35" s="3">
-        <v>-51600</v>
+        <v>-63400</v>
       </c>
       <c r="H35" s="3">
-        <v>-63600</v>
+        <v>-48200</v>
       </c>
       <c r="I35" s="3">
-        <v>-34200</v>
+        <v>-59400</v>
       </c>
       <c r="J35" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-48800</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,44 +1818,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2565100</v>
+        <v>1468900</v>
       </c>
       <c r="E41" s="3">
-        <v>916700</v>
+        <v>2396000</v>
       </c>
       <c r="F41" s="3">
-        <v>341000</v>
+        <v>856300</v>
       </c>
       <c r="G41" s="3">
-        <v>295600</v>
+        <v>318500</v>
       </c>
       <c r="H41" s="3">
-        <v>285800</v>
+        <v>276100</v>
       </c>
       <c r="I41" s="3">
-        <v>145800</v>
+        <v>266900</v>
       </c>
       <c r="J41" s="3">
+        <v>136200</v>
+      </c>
+      <c r="K41" s="3">
         <v>95700</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1804,45 +1893,51 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>258100</v>
+        <v>289100</v>
       </c>
       <c r="E43" s="3">
-        <v>159300</v>
+        <v>241100</v>
       </c>
       <c r="F43" s="3">
-        <v>110500</v>
+        <v>148800</v>
       </c>
       <c r="G43" s="3">
-        <v>75200</v>
+        <v>103200</v>
       </c>
       <c r="H43" s="3">
-        <v>43000</v>
+        <v>70300</v>
       </c>
       <c r="I43" s="3">
-        <v>27000</v>
+        <v>40100</v>
       </c>
       <c r="J43" s="3">
+        <v>25200</v>
+      </c>
+      <c r="K43" s="3">
         <v>14600</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1876,104 +1971,113 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>66800</v>
+        <v>373400</v>
       </c>
       <c r="E45" s="3">
-        <v>41600</v>
+        <v>62400</v>
       </c>
       <c r="F45" s="3">
-        <v>27700</v>
+        <v>38900</v>
       </c>
       <c r="G45" s="3">
-        <v>16300</v>
+        <v>25900</v>
       </c>
       <c r="H45" s="3">
-        <v>20000</v>
+        <v>15300</v>
       </c>
       <c r="I45" s="3">
-        <v>14400</v>
+        <v>18700</v>
       </c>
       <c r="J45" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K45" s="3">
         <v>7300</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2890000</v>
+        <v>2131400</v>
       </c>
       <c r="E46" s="3">
-        <v>1117700</v>
+        <v>2699500</v>
       </c>
       <c r="F46" s="3">
-        <v>479200</v>
+        <v>1044000</v>
       </c>
       <c r="G46" s="3">
-        <v>387100</v>
+        <v>447600</v>
       </c>
       <c r="H46" s="3">
-        <v>348700</v>
+        <v>361600</v>
       </c>
       <c r="I46" s="3">
-        <v>187200</v>
+        <v>325700</v>
       </c>
       <c r="J46" s="3">
+        <v>174900</v>
+      </c>
+      <c r="K46" s="3">
         <v>117700</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>228000</v>
+        <v>327000</v>
       </c>
       <c r="E47" s="3">
-        <v>140200</v>
+        <v>213000</v>
       </c>
       <c r="F47" s="3">
-        <v>77100</v>
+        <v>130900</v>
       </c>
       <c r="G47" s="3">
-        <v>45800</v>
+        <v>72000</v>
       </c>
       <c r="H47" s="3">
-        <v>15600</v>
+        <v>42700</v>
       </c>
       <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+        <v>14600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -1984,81 +2088,90 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5151800</v>
+        <v>6580200</v>
       </c>
       <c r="E48" s="3">
-        <v>3152300</v>
+        <v>4812200</v>
       </c>
       <c r="F48" s="3">
-        <v>2207800</v>
+        <v>2944400</v>
       </c>
       <c r="G48" s="3">
-        <v>1288200</v>
+        <v>2062300</v>
       </c>
       <c r="H48" s="3">
-        <v>682000</v>
+        <v>1203300</v>
       </c>
       <c r="I48" s="3">
-        <v>396400</v>
+        <v>637000</v>
       </c>
       <c r="J48" s="3">
+        <v>370300</v>
+      </c>
+      <c r="K48" s="3">
         <v>267400</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>533500</v>
+        <v>1231800</v>
       </c>
       <c r="E49" s="3">
-        <v>362900</v>
+        <v>498300</v>
       </c>
       <c r="F49" s="3">
-        <v>352500</v>
+        <v>339000</v>
       </c>
       <c r="G49" s="3">
-        <v>302800</v>
+        <v>329300</v>
       </c>
       <c r="H49" s="3">
-        <v>226200</v>
+        <v>282800</v>
       </c>
       <c r="I49" s="3">
-        <v>216100</v>
+        <v>211300</v>
       </c>
       <c r="J49" s="3">
+        <v>201900</v>
+      </c>
+      <c r="K49" s="3">
         <v>217500</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,45 +2244,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>229900</v>
+        <v>285400</v>
       </c>
       <c r="E52" s="3">
-        <v>195200</v>
+        <v>214700</v>
       </c>
       <c r="F52" s="3">
-        <v>178300</v>
+        <v>182400</v>
       </c>
       <c r="G52" s="3">
-        <v>49800</v>
+        <v>166500</v>
       </c>
       <c r="H52" s="3">
-        <v>21800</v>
+        <v>46500</v>
       </c>
       <c r="I52" s="3">
-        <v>13800</v>
+        <v>20400</v>
       </c>
       <c r="J52" s="3">
+        <v>12900</v>
+      </c>
+      <c r="K52" s="3">
         <v>5500</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,45 +2322,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9033100</v>
+        <v>10555800</v>
       </c>
       <c r="E54" s="3">
-        <v>4968300</v>
+        <v>8437700</v>
       </c>
       <c r="F54" s="3">
-        <v>3294900</v>
+        <v>4640700</v>
       </c>
       <c r="G54" s="3">
-        <v>2073700</v>
+        <v>3077600</v>
       </c>
       <c r="H54" s="3">
-        <v>1294200</v>
+        <v>1937000</v>
       </c>
       <c r="I54" s="3">
-        <v>809000</v>
+        <v>1208900</v>
       </c>
       <c r="J54" s="3">
+        <v>755700</v>
+      </c>
+      <c r="K54" s="3">
         <v>608000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,224 +2398,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>576900</v>
+        <v>575000</v>
       </c>
       <c r="E57" s="3">
-        <v>264400</v>
+        <v>538900</v>
       </c>
       <c r="F57" s="3">
-        <v>237900</v>
+        <v>247000</v>
       </c>
       <c r="G57" s="3">
-        <v>175200</v>
+        <v>222200</v>
       </c>
       <c r="H57" s="3">
-        <v>81000</v>
+        <v>163600</v>
       </c>
       <c r="I57" s="3">
-        <v>34000</v>
+        <v>75700</v>
       </c>
       <c r="J57" s="3">
+        <v>31800</v>
+      </c>
+      <c r="K57" s="3">
         <v>36600</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>379900</v>
+        <v>979500</v>
       </c>
       <c r="E58" s="3">
-        <v>214600</v>
+        <v>354800</v>
       </c>
       <c r="F58" s="3">
-        <v>228800</v>
+        <v>200400</v>
       </c>
       <c r="G58" s="3">
-        <v>140200</v>
+        <v>213700</v>
       </c>
       <c r="H58" s="3">
-        <v>113100</v>
+        <v>130900</v>
       </c>
       <c r="I58" s="3">
-        <v>85900</v>
+        <v>105700</v>
       </c>
       <c r="J58" s="3">
+        <v>80200</v>
+      </c>
+      <c r="K58" s="3">
         <v>79500</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>249100</v>
+        <v>429700</v>
       </c>
       <c r="E59" s="3">
-        <v>152000</v>
+        <v>232700</v>
       </c>
       <c r="F59" s="3">
-        <v>86700</v>
+        <v>142000</v>
       </c>
       <c r="G59" s="3">
-        <v>66900</v>
+        <v>81000</v>
       </c>
       <c r="H59" s="3">
-        <v>39200</v>
+        <v>62500</v>
       </c>
       <c r="I59" s="3">
-        <v>26000</v>
+        <v>36600</v>
       </c>
       <c r="J59" s="3">
+        <v>24300</v>
+      </c>
+      <c r="K59" s="3">
         <v>25500</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1205900</v>
+        <v>1984200</v>
       </c>
       <c r="E60" s="3">
-        <v>631000</v>
+        <v>1126400</v>
       </c>
       <c r="F60" s="3">
-        <v>553400</v>
+        <v>589400</v>
       </c>
       <c r="G60" s="3">
-        <v>382300</v>
+        <v>516900</v>
       </c>
       <c r="H60" s="3">
-        <v>233400</v>
+        <v>357100</v>
       </c>
       <c r="I60" s="3">
-        <v>145900</v>
+        <v>218000</v>
       </c>
       <c r="J60" s="3">
+        <v>136300</v>
+      </c>
+      <c r="K60" s="3">
         <v>141600</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3248800</v>
+        <v>4290200</v>
       </c>
       <c r="E61" s="3">
-        <v>2339500</v>
+        <v>3034600</v>
       </c>
       <c r="F61" s="3">
-        <v>1789400</v>
+        <v>2185200</v>
       </c>
       <c r="G61" s="3">
-        <v>909100</v>
+        <v>1671500</v>
       </c>
       <c r="H61" s="3">
-        <v>563700</v>
+        <v>849200</v>
       </c>
       <c r="I61" s="3">
-        <v>320500</v>
+        <v>526500</v>
       </c>
       <c r="J61" s="3">
+        <v>299400</v>
+      </c>
+      <c r="K61" s="3">
         <v>116600</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>371400</v>
+        <v>465200</v>
       </c>
       <c r="E62" s="3">
-        <v>206400</v>
+        <v>346900</v>
       </c>
       <c r="F62" s="3">
-        <v>80900</v>
+        <v>192800</v>
       </c>
       <c r="G62" s="3">
-        <v>76200</v>
+        <v>75500</v>
       </c>
       <c r="H62" s="3">
-        <v>26000</v>
+        <v>71200</v>
       </c>
       <c r="I62" s="3">
-        <v>18400</v>
+        <v>24300</v>
       </c>
       <c r="J62" s="3">
+        <v>17200</v>
+      </c>
+      <c r="K62" s="3">
         <v>11000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,45 +2746,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4845100</v>
+        <v>6808100</v>
       </c>
       <c r="E66" s="3">
-        <v>3176800</v>
+        <v>4525700</v>
       </c>
       <c r="F66" s="3">
-        <v>2423700</v>
+        <v>2967400</v>
       </c>
       <c r="G66" s="3">
-        <v>1367600</v>
+        <v>2263900</v>
       </c>
       <c r="H66" s="3">
-        <v>823100</v>
+        <v>1277500</v>
       </c>
       <c r="I66" s="3">
-        <v>484900</v>
+        <v>768800</v>
       </c>
       <c r="J66" s="3">
+        <v>452900</v>
+      </c>
+      <c r="K66" s="3">
         <v>269200</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,20 +2880,23 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>154700</v>
+        <v>141200</v>
       </c>
       <c r="E70" s="3">
-        <v>167500</v>
+        <v>144500</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>156500</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2738,23 +2905,26 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>377900</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>353000</v>
+      </c>
+      <c r="K70" s="3">
         <v>341400</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,45 +2958,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-429700</v>
+        <v>-576300</v>
       </c>
       <c r="E72" s="3">
-        <v>-324500</v>
+        <v>-401300</v>
       </c>
       <c r="F72" s="3">
-        <v>-254800</v>
+        <v>-303100</v>
       </c>
       <c r="G72" s="3">
-        <v>-187000</v>
+        <v>-238000</v>
       </c>
       <c r="H72" s="3">
-        <v>-135500</v>
+        <v>-174700</v>
       </c>
       <c r="I72" s="3">
-        <v>-91900</v>
+        <v>-126500</v>
       </c>
       <c r="J72" s="3">
+        <v>-85800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-76300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,45 +3114,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4033300</v>
+        <v>3606500</v>
       </c>
       <c r="E76" s="3">
-        <v>1624000</v>
+        <v>3767500</v>
       </c>
       <c r="F76" s="3">
-        <v>871100</v>
+        <v>1516900</v>
       </c>
       <c r="G76" s="3">
-        <v>706100</v>
+        <v>813700</v>
       </c>
       <c r="H76" s="3">
-        <v>471100</v>
+        <v>659500</v>
       </c>
       <c r="I76" s="3">
-        <v>-53700</v>
+        <v>440100</v>
       </c>
       <c r="J76" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="K76" s="3">
         <v>-2600</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,86 +3192,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-116400</v>
+        <v>-193600</v>
       </c>
       <c r="E81" s="3">
-        <v>-78900</v>
+        <v>-108700</v>
       </c>
       <c r="F81" s="3">
-        <v>-67900</v>
+        <v>-73700</v>
       </c>
       <c r="G81" s="3">
-        <v>-51600</v>
+        <v>-63400</v>
       </c>
       <c r="H81" s="3">
-        <v>-63600</v>
+        <v>-48200</v>
       </c>
       <c r="I81" s="3">
-        <v>-34200</v>
+        <v>-59400</v>
       </c>
       <c r="J81" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-48800</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,44 +3295,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>258500</v>
+        <v>385600</v>
       </c>
       <c r="E83" s="3">
-        <v>180200</v>
+        <v>241400</v>
       </c>
       <c r="F83" s="3">
-        <v>117000</v>
+        <v>168300</v>
       </c>
       <c r="G83" s="3">
-        <v>59700</v>
+        <v>109300</v>
       </c>
       <c r="H83" s="3">
-        <v>35900</v>
+        <v>55700</v>
       </c>
       <c r="I83" s="3">
-        <v>22900</v>
+        <v>33500</v>
       </c>
       <c r="J83" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K83" s="3">
         <v>13100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,45 +3526,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>50600</v>
+        <v>177000</v>
       </c>
       <c r="E89" s="3">
-        <v>46300</v>
+        <v>47300</v>
       </c>
       <c r="F89" s="3">
-        <v>-2000</v>
+        <v>43200</v>
       </c>
       <c r="G89" s="3">
-        <v>-26500</v>
+        <v>-1900</v>
       </c>
       <c r="H89" s="3">
-        <v>-20300</v>
+        <v>-24700</v>
       </c>
       <c r="I89" s="3">
-        <v>-12700</v>
+        <v>-19000</v>
       </c>
       <c r="J89" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="K89" s="3">
         <v>4400</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,44 +3585,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1267900</v>
+        <v>-1429500</v>
       </c>
       <c r="E91" s="3">
-        <v>-719000</v>
+        <v>-1184300</v>
       </c>
       <c r="F91" s="3">
-        <v>-672200</v>
+        <v>-671600</v>
       </c>
       <c r="G91" s="3">
-        <v>-271400</v>
+        <v>-627900</v>
       </c>
       <c r="H91" s="3">
-        <v>-155800</v>
+        <v>-253500</v>
       </c>
       <c r="I91" s="3">
-        <v>-115600</v>
+        <v>-145600</v>
       </c>
       <c r="J91" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-39200</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,45 +3699,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1479500</v>
+        <v>-2017600</v>
       </c>
       <c r="E94" s="3">
-        <v>-809500</v>
+        <v>-1381900</v>
       </c>
       <c r="F94" s="3">
-        <v>-746700</v>
+        <v>-756100</v>
       </c>
       <c r="G94" s="3">
-        <v>-316300</v>
+        <v>-697500</v>
       </c>
       <c r="H94" s="3">
-        <v>-181000</v>
+        <v>-295500</v>
       </c>
       <c r="I94" s="3">
-        <v>-115500</v>
+        <v>-169000</v>
       </c>
       <c r="J94" s="3">
+        <v>-107900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-82600</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,28 +3758,29 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-10300</v>
+        <v>-7300</v>
       </c>
       <c r="E96" s="3">
-        <v>-3900</v>
+        <v>-9700</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-3700</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-12100</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-11300</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,115 +3911,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3177900</v>
+        <v>1196400</v>
       </c>
       <c r="E100" s="3">
-        <v>1319200</v>
+        <v>2968400</v>
       </c>
       <c r="F100" s="3">
-        <v>769400</v>
+        <v>1232200</v>
       </c>
       <c r="G100" s="3">
-        <v>371600</v>
+        <v>718600</v>
       </c>
       <c r="H100" s="3">
-        <v>335800</v>
+        <v>347100</v>
       </c>
       <c r="I100" s="3">
-        <v>177900</v>
+        <v>313700</v>
       </c>
       <c r="J100" s="3">
+        <v>166200</v>
+      </c>
+      <c r="K100" s="3">
         <v>166600</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-89400</v>
+        <v>-14100</v>
       </c>
       <c r="E101" s="3">
-        <v>25900</v>
+        <v>-83500</v>
       </c>
       <c r="F101" s="3">
-        <v>32500</v>
+        <v>24200</v>
       </c>
       <c r="G101" s="3">
-        <v>-11700</v>
+        <v>30400</v>
       </c>
       <c r="H101" s="3">
-        <v>8800</v>
+        <v>-10900</v>
       </c>
       <c r="I101" s="3">
-        <v>400</v>
+        <v>8200</v>
       </c>
       <c r="J101" s="3">
+        <v>300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1659600</v>
+        <v>-658200</v>
       </c>
       <c r="E102" s="3">
-        <v>581900</v>
+        <v>1550200</v>
       </c>
       <c r="F102" s="3">
-        <v>53200</v>
+        <v>543500</v>
       </c>
       <c r="G102" s="3">
-        <v>17100</v>
+        <v>49700</v>
       </c>
       <c r="H102" s="3">
-        <v>143300</v>
+        <v>16000</v>
       </c>
       <c r="I102" s="3">
-        <v>50100</v>
+        <v>133800</v>
       </c>
       <c r="J102" s="3">
+        <v>46800</v>
+      </c>
+      <c r="K102" s="3">
         <v>88100</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/GDS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GDS_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1152200</v>
+        <v>1141800</v>
       </c>
       <c r="E8" s="3">
-        <v>845700</v>
+        <v>838100</v>
       </c>
       <c r="F8" s="3">
-        <v>607500</v>
+        <v>602000</v>
       </c>
       <c r="G8" s="3">
-        <v>411400</v>
+        <v>407700</v>
       </c>
       <c r="H8" s="3">
-        <v>238200</v>
+        <v>236000</v>
       </c>
       <c r="I8" s="3">
-        <v>155600</v>
+        <v>154200</v>
       </c>
       <c r="J8" s="3">
-        <v>103700</v>
+        <v>102800</v>
       </c>
       <c r="K8" s="3">
         <v>73900</v>
@@ -763,25 +763,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>889900</v>
+        <v>881900</v>
       </c>
       <c r="E9" s="3">
-        <v>617200</v>
+        <v>611600</v>
       </c>
       <c r="F9" s="3">
-        <v>453800</v>
+        <v>449700</v>
       </c>
       <c r="G9" s="3">
-        <v>319700</v>
+        <v>316800</v>
       </c>
       <c r="H9" s="3">
-        <v>178000</v>
+        <v>176400</v>
       </c>
       <c r="I9" s="3">
-        <v>116500</v>
+        <v>115400</v>
       </c>
       <c r="J9" s="3">
-        <v>75900</v>
+        <v>75200</v>
       </c>
       <c r="K9" s="3">
         <v>61200</v>
@@ -802,25 +802,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>262200</v>
+        <v>259900</v>
       </c>
       <c r="E10" s="3">
-        <v>228500</v>
+        <v>226400</v>
       </c>
       <c r="F10" s="3">
-        <v>153700</v>
+        <v>152300</v>
       </c>
       <c r="G10" s="3">
-        <v>91700</v>
+        <v>90900</v>
       </c>
       <c r="H10" s="3">
-        <v>60200</v>
+        <v>59600</v>
       </c>
       <c r="I10" s="3">
-        <v>39100</v>
+        <v>38800</v>
       </c>
       <c r="J10" s="3">
-        <v>27800</v>
+        <v>27500</v>
       </c>
       <c r="K10" s="3">
         <v>12600</v>
@@ -858,16 +858,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="E12" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="F12" s="3">
         <v>3000</v>
       </c>
       <c r="G12" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H12" s="3">
         <v>1000</v>
@@ -975,10 +975,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>19900</v>
+        <v>19700</v>
       </c>
       <c r="E15" s="3">
-        <v>18300</v>
+        <v>18100</v>
       </c>
       <c r="F15" s="3">
         <v>1700</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1067200</v>
+        <v>1057600</v>
       </c>
       <c r="E17" s="3">
-        <v>738400</v>
+        <v>731700</v>
       </c>
       <c r="F17" s="3">
-        <v>536800</v>
+        <v>531900</v>
       </c>
       <c r="G17" s="3">
-        <v>386600</v>
+        <v>383100</v>
       </c>
       <c r="H17" s="3">
-        <v>226000</v>
+        <v>224000</v>
       </c>
       <c r="I17" s="3">
-        <v>161900</v>
+        <v>160400</v>
       </c>
       <c r="J17" s="3">
-        <v>103900</v>
+        <v>102900</v>
       </c>
       <c r="K17" s="3">
         <v>85800</v>
@@ -1067,19 +1067,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>85000</v>
+        <v>84200</v>
       </c>
       <c r="E18" s="3">
-        <v>107300</v>
+        <v>106300</v>
       </c>
       <c r="F18" s="3">
-        <v>70700</v>
+        <v>70100</v>
       </c>
       <c r="G18" s="3">
-        <v>24800</v>
+        <v>24600</v>
       </c>
       <c r="H18" s="3">
-        <v>12100</v>
+        <v>12000</v>
       </c>
       <c r="I18" s="3">
         <v>-6200</v>
@@ -1123,22 +1123,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>19100</v>
+        <v>18900</v>
       </c>
       <c r="E20" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="F20" s="3">
-        <v>9200</v>
+        <v>9100</v>
       </c>
       <c r="G20" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="H20" s="3">
         <v>-500</v>
       </c>
       <c r="I20" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="J20" s="3">
         <v>2600</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>493500</v>
+        <v>484700</v>
       </c>
       <c r="E21" s="3">
-        <v>357100</v>
+        <v>351100</v>
       </c>
       <c r="F21" s="3">
-        <v>249900</v>
+        <v>245700</v>
       </c>
       <c r="G21" s="3">
-        <v>142300</v>
+        <v>139700</v>
       </c>
       <c r="H21" s="3">
-        <v>67900</v>
+        <v>66700</v>
       </c>
       <c r="I21" s="3">
-        <v>31000</v>
+        <v>30300</v>
       </c>
       <c r="J21" s="3">
-        <v>24000</v>
+        <v>23600</v>
       </c>
       <c r="K21" s="3">
         <v>12700</v>
@@ -1201,25 +1201,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>243800</v>
+        <v>241600</v>
       </c>
       <c r="E22" s="3">
-        <v>194000</v>
+        <v>192200</v>
       </c>
       <c r="F22" s="3">
-        <v>142700</v>
+        <v>141500</v>
       </c>
       <c r="G22" s="3">
-        <v>96700</v>
+        <v>95800</v>
       </c>
       <c r="H22" s="3">
-        <v>60700</v>
+        <v>60200</v>
       </c>
       <c r="I22" s="3">
-        <v>39100</v>
+        <v>38700</v>
       </c>
       <c r="J22" s="3">
-        <v>18700</v>
+        <v>18500</v>
       </c>
       <c r="K22" s="3">
         <v>20800</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-139800</v>
+        <v>-138500</v>
       </c>
       <c r="E23" s="3">
-        <v>-80800</v>
+        <v>-80100</v>
       </c>
       <c r="F23" s="3">
-        <v>-62800</v>
+        <v>-62300</v>
       </c>
       <c r="G23" s="3">
-        <v>-64800</v>
+        <v>-64200</v>
       </c>
       <c r="H23" s="3">
-        <v>-49100</v>
+        <v>-48600</v>
       </c>
       <c r="I23" s="3">
-        <v>-42000</v>
+        <v>-41600</v>
       </c>
       <c r="J23" s="3">
-        <v>-16300</v>
+        <v>-16100</v>
       </c>
       <c r="K23" s="3">
         <v>-21200</v>
@@ -1279,10 +1279,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>35700</v>
+        <v>35400</v>
       </c>
       <c r="E24" s="3">
-        <v>17800</v>
+        <v>17600</v>
       </c>
       <c r="F24" s="3">
         <v>2300</v>
@@ -1297,7 +1297,7 @@
         <v>-1200</v>
       </c>
       <c r="J24" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="K24" s="3">
         <v>-700</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-175500</v>
+        <v>-174000</v>
       </c>
       <c r="E26" s="3">
-        <v>-98600</v>
+        <v>-97700</v>
       </c>
       <c r="F26" s="3">
-        <v>-65100</v>
+        <v>-64600</v>
       </c>
       <c r="G26" s="3">
-        <v>-63400</v>
+        <v>-62800</v>
       </c>
       <c r="H26" s="3">
-        <v>-48200</v>
+        <v>-47700</v>
       </c>
       <c r="I26" s="3">
-        <v>-40700</v>
+        <v>-40400</v>
       </c>
       <c r="J26" s="3">
-        <v>-14500</v>
+        <v>-14400</v>
       </c>
       <c r="K26" s="3">
         <v>-20500</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-193600</v>
+        <v>-191900</v>
       </c>
       <c r="E27" s="3">
-        <v>-108700</v>
+        <v>-107700</v>
       </c>
       <c r="F27" s="3">
-        <v>-73700</v>
+        <v>-73000</v>
       </c>
       <c r="G27" s="3">
-        <v>-63400</v>
+        <v>-62800</v>
       </c>
       <c r="H27" s="3">
-        <v>-48200</v>
+        <v>-47700</v>
       </c>
       <c r="I27" s="3">
-        <v>-59400</v>
+        <v>-58900</v>
       </c>
       <c r="J27" s="3">
-        <v>-31900</v>
+        <v>-31600</v>
       </c>
       <c r="K27" s="3">
         <v>-48800</v>
@@ -1591,22 +1591,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-19100</v>
+        <v>-18900</v>
       </c>
       <c r="E32" s="3">
-        <v>-5900</v>
+        <v>-5800</v>
       </c>
       <c r="F32" s="3">
-        <v>-9200</v>
+        <v>-9100</v>
       </c>
       <c r="G32" s="3">
-        <v>-7100</v>
+        <v>-7000</v>
       </c>
       <c r="H32" s="3">
         <v>500</v>
       </c>
       <c r="I32" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="J32" s="3">
         <v>-2600</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-193600</v>
+        <v>-191900</v>
       </c>
       <c r="E33" s="3">
-        <v>-108700</v>
+        <v>-107700</v>
       </c>
       <c r="F33" s="3">
-        <v>-73700</v>
+        <v>-73000</v>
       </c>
       <c r="G33" s="3">
-        <v>-63400</v>
+        <v>-62800</v>
       </c>
       <c r="H33" s="3">
-        <v>-48200</v>
+        <v>-47700</v>
       </c>
       <c r="I33" s="3">
-        <v>-59400</v>
+        <v>-58900</v>
       </c>
       <c r="J33" s="3">
-        <v>-31900</v>
+        <v>-31600</v>
       </c>
       <c r="K33" s="3">
         <v>-48800</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-193600</v>
+        <v>-191900</v>
       </c>
       <c r="E35" s="3">
-        <v>-108700</v>
+        <v>-107700</v>
       </c>
       <c r="F35" s="3">
-        <v>-73700</v>
+        <v>-73000</v>
       </c>
       <c r="G35" s="3">
-        <v>-63400</v>
+        <v>-62800</v>
       </c>
       <c r="H35" s="3">
-        <v>-48200</v>
+        <v>-47700</v>
       </c>
       <c r="I35" s="3">
-        <v>-59400</v>
+        <v>-58900</v>
       </c>
       <c r="J35" s="3">
-        <v>-31900</v>
+        <v>-31600</v>
       </c>
       <c r="K35" s="3">
         <v>-48800</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1468900</v>
+        <v>1455600</v>
       </c>
       <c r="E41" s="3">
-        <v>2396000</v>
+        <v>2374400</v>
       </c>
       <c r="F41" s="3">
-        <v>856300</v>
+        <v>848600</v>
       </c>
       <c r="G41" s="3">
-        <v>318500</v>
+        <v>315700</v>
       </c>
       <c r="H41" s="3">
-        <v>276100</v>
+        <v>273600</v>
       </c>
       <c r="I41" s="3">
-        <v>266900</v>
+        <v>264500</v>
       </c>
       <c r="J41" s="3">
-        <v>136200</v>
+        <v>135000</v>
       </c>
       <c r="K41" s="3">
         <v>95700</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>289100</v>
+        <v>286500</v>
       </c>
       <c r="E43" s="3">
-        <v>241100</v>
+        <v>238900</v>
       </c>
       <c r="F43" s="3">
-        <v>148800</v>
+        <v>147500</v>
       </c>
       <c r="G43" s="3">
-        <v>103200</v>
+        <v>102300</v>
       </c>
       <c r="H43" s="3">
-        <v>70300</v>
+        <v>69700</v>
       </c>
       <c r="I43" s="3">
-        <v>40100</v>
+        <v>39800</v>
       </c>
       <c r="J43" s="3">
-        <v>25200</v>
+        <v>25000</v>
       </c>
       <c r="K43" s="3">
         <v>14600</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>373400</v>
+        <v>370000</v>
       </c>
       <c r="E45" s="3">
-        <v>62400</v>
+        <v>61800</v>
       </c>
       <c r="F45" s="3">
-        <v>38900</v>
+        <v>38500</v>
       </c>
       <c r="G45" s="3">
-        <v>25900</v>
+        <v>25600</v>
       </c>
       <c r="H45" s="3">
-        <v>15300</v>
+        <v>15100</v>
       </c>
       <c r="I45" s="3">
-        <v>18700</v>
+        <v>18500</v>
       </c>
       <c r="J45" s="3">
-        <v>13400</v>
+        <v>13300</v>
       </c>
       <c r="K45" s="3">
         <v>7300</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2131400</v>
+        <v>2112200</v>
       </c>
       <c r="E46" s="3">
-        <v>2699500</v>
+        <v>2675100</v>
       </c>
       <c r="F46" s="3">
-        <v>1044000</v>
+        <v>1034600</v>
       </c>
       <c r="G46" s="3">
-        <v>447600</v>
+        <v>443600</v>
       </c>
       <c r="H46" s="3">
-        <v>361600</v>
+        <v>358400</v>
       </c>
       <c r="I46" s="3">
-        <v>325700</v>
+        <v>322800</v>
       </c>
       <c r="J46" s="3">
-        <v>174900</v>
+        <v>173300</v>
       </c>
       <c r="K46" s="3">
         <v>117700</v>
@@ -2059,22 +2059,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>327000</v>
+        <v>324000</v>
       </c>
       <c r="E47" s="3">
-        <v>213000</v>
+        <v>211100</v>
       </c>
       <c r="F47" s="3">
-        <v>130900</v>
+        <v>129700</v>
       </c>
       <c r="G47" s="3">
-        <v>72000</v>
+        <v>71300</v>
       </c>
       <c r="H47" s="3">
-        <v>42700</v>
+        <v>42400</v>
       </c>
       <c r="I47" s="3">
-        <v>14600</v>
+        <v>14400</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6580200</v>
+        <v>6520800</v>
       </c>
       <c r="E48" s="3">
-        <v>4812200</v>
+        <v>4768700</v>
       </c>
       <c r="F48" s="3">
-        <v>2944400</v>
+        <v>2917900</v>
       </c>
       <c r="G48" s="3">
-        <v>2062300</v>
+        <v>2043700</v>
       </c>
       <c r="H48" s="3">
-        <v>1203300</v>
+        <v>1192400</v>
       </c>
       <c r="I48" s="3">
-        <v>637000</v>
+        <v>631300</v>
       </c>
       <c r="J48" s="3">
-        <v>370300</v>
+        <v>366900</v>
       </c>
       <c r="K48" s="3">
         <v>267400</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1231800</v>
+        <v>1220700</v>
       </c>
       <c r="E49" s="3">
-        <v>498300</v>
+        <v>493800</v>
       </c>
       <c r="F49" s="3">
-        <v>339000</v>
+        <v>335900</v>
       </c>
       <c r="G49" s="3">
-        <v>329300</v>
+        <v>326300</v>
       </c>
       <c r="H49" s="3">
-        <v>282800</v>
+        <v>280300</v>
       </c>
       <c r="I49" s="3">
-        <v>211300</v>
+        <v>209400</v>
       </c>
       <c r="J49" s="3">
-        <v>201900</v>
+        <v>200100</v>
       </c>
       <c r="K49" s="3">
         <v>217500</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>285400</v>
+        <v>282800</v>
       </c>
       <c r="E52" s="3">
-        <v>214700</v>
+        <v>212800</v>
       </c>
       <c r="F52" s="3">
-        <v>182400</v>
+        <v>180700</v>
       </c>
       <c r="G52" s="3">
-        <v>166500</v>
+        <v>165000</v>
       </c>
       <c r="H52" s="3">
-        <v>46500</v>
+        <v>46100</v>
       </c>
       <c r="I52" s="3">
-        <v>20400</v>
+        <v>20200</v>
       </c>
       <c r="J52" s="3">
-        <v>12900</v>
+        <v>12700</v>
       </c>
       <c r="K52" s="3">
         <v>5500</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10555800</v>
+        <v>10460500</v>
       </c>
       <c r="E54" s="3">
-        <v>8437700</v>
+        <v>8361500</v>
       </c>
       <c r="F54" s="3">
-        <v>4640700</v>
+        <v>4598900</v>
       </c>
       <c r="G54" s="3">
-        <v>3077600</v>
+        <v>3049900</v>
       </c>
       <c r="H54" s="3">
-        <v>1937000</v>
+        <v>1919500</v>
       </c>
       <c r="I54" s="3">
-        <v>1208900</v>
+        <v>1198000</v>
       </c>
       <c r="J54" s="3">
-        <v>755700</v>
+        <v>748900</v>
       </c>
       <c r="K54" s="3">
         <v>608000</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>575000</v>
+        <v>569800</v>
       </c>
       <c r="E57" s="3">
-        <v>538900</v>
+        <v>534000</v>
       </c>
       <c r="F57" s="3">
-        <v>247000</v>
+        <v>244700</v>
       </c>
       <c r="G57" s="3">
-        <v>222200</v>
+        <v>220200</v>
       </c>
       <c r="H57" s="3">
-        <v>163600</v>
+        <v>162200</v>
       </c>
       <c r="I57" s="3">
-        <v>75700</v>
+        <v>75000</v>
       </c>
       <c r="J57" s="3">
-        <v>31800</v>
+        <v>31500</v>
       </c>
       <c r="K57" s="3">
         <v>36600</v>
@@ -2444,25 +2444,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>979500</v>
+        <v>970700</v>
       </c>
       <c r="E58" s="3">
-        <v>354800</v>
+        <v>351600</v>
       </c>
       <c r="F58" s="3">
-        <v>200400</v>
+        <v>198600</v>
       </c>
       <c r="G58" s="3">
-        <v>213700</v>
+        <v>211800</v>
       </c>
       <c r="H58" s="3">
-        <v>130900</v>
+        <v>129700</v>
       </c>
       <c r="I58" s="3">
-        <v>105700</v>
+        <v>104700</v>
       </c>
       <c r="J58" s="3">
-        <v>80200</v>
+        <v>79500</v>
       </c>
       <c r="K58" s="3">
         <v>79500</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>429700</v>
+        <v>425900</v>
       </c>
       <c r="E59" s="3">
-        <v>232700</v>
+        <v>230600</v>
       </c>
       <c r="F59" s="3">
-        <v>142000</v>
+        <v>140700</v>
       </c>
       <c r="G59" s="3">
-        <v>81000</v>
+        <v>80300</v>
       </c>
       <c r="H59" s="3">
-        <v>62500</v>
+        <v>62000</v>
       </c>
       <c r="I59" s="3">
-        <v>36600</v>
+        <v>36300</v>
       </c>
       <c r="J59" s="3">
-        <v>24300</v>
+        <v>24100</v>
       </c>
       <c r="K59" s="3">
         <v>25500</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1984200</v>
+        <v>1966300</v>
       </c>
       <c r="E60" s="3">
-        <v>1126400</v>
+        <v>1116200</v>
       </c>
       <c r="F60" s="3">
-        <v>589400</v>
+        <v>584000</v>
       </c>
       <c r="G60" s="3">
-        <v>516900</v>
+        <v>512300</v>
       </c>
       <c r="H60" s="3">
-        <v>357100</v>
+        <v>353800</v>
       </c>
       <c r="I60" s="3">
-        <v>218000</v>
+        <v>216000</v>
       </c>
       <c r="J60" s="3">
-        <v>136300</v>
+        <v>135100</v>
       </c>
       <c r="K60" s="3">
         <v>141600</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4290200</v>
+        <v>4251500</v>
       </c>
       <c r="E61" s="3">
-        <v>3034600</v>
+        <v>3007200</v>
       </c>
       <c r="F61" s="3">
-        <v>2185200</v>
+        <v>2165500</v>
       </c>
       <c r="G61" s="3">
-        <v>1671500</v>
+        <v>1656400</v>
       </c>
       <c r="H61" s="3">
-        <v>849200</v>
+        <v>841500</v>
       </c>
       <c r="I61" s="3">
-        <v>526500</v>
+        <v>521800</v>
       </c>
       <c r="J61" s="3">
-        <v>299400</v>
+        <v>296700</v>
       </c>
       <c r="K61" s="3">
         <v>116600</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>465200</v>
+        <v>461000</v>
       </c>
       <c r="E62" s="3">
-        <v>346900</v>
+        <v>343800</v>
       </c>
       <c r="F62" s="3">
-        <v>192800</v>
+        <v>191000</v>
       </c>
       <c r="G62" s="3">
-        <v>75500</v>
+        <v>74900</v>
       </c>
       <c r="H62" s="3">
-        <v>71200</v>
+        <v>70600</v>
       </c>
       <c r="I62" s="3">
-        <v>24300</v>
+        <v>24100</v>
       </c>
       <c r="J62" s="3">
-        <v>17200</v>
+        <v>17000</v>
       </c>
       <c r="K62" s="3">
         <v>11000</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6808100</v>
+        <v>6746600</v>
       </c>
       <c r="E66" s="3">
-        <v>4525700</v>
+        <v>4484900</v>
       </c>
       <c r="F66" s="3">
-        <v>2967400</v>
+        <v>2940600</v>
       </c>
       <c r="G66" s="3">
-        <v>2263900</v>
+        <v>2243500</v>
       </c>
       <c r="H66" s="3">
-        <v>1277500</v>
+        <v>1265900</v>
       </c>
       <c r="I66" s="3">
-        <v>768800</v>
+        <v>761900</v>
       </c>
       <c r="J66" s="3">
-        <v>452900</v>
+        <v>448800</v>
       </c>
       <c r="K66" s="3">
         <v>269200</v>
@@ -2890,13 +2890,13 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>141200</v>
+        <v>140000</v>
       </c>
       <c r="E70" s="3">
-        <v>144500</v>
+        <v>143200</v>
       </c>
       <c r="F70" s="3">
-        <v>156500</v>
+        <v>155100</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>353000</v>
+        <v>349800</v>
       </c>
       <c r="K70" s="3">
         <v>341400</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-576300</v>
+        <v>-571100</v>
       </c>
       <c r="E72" s="3">
-        <v>-401300</v>
+        <v>-397700</v>
       </c>
       <c r="F72" s="3">
-        <v>-303100</v>
+        <v>-300400</v>
       </c>
       <c r="G72" s="3">
-        <v>-238000</v>
+        <v>-235900</v>
       </c>
       <c r="H72" s="3">
-        <v>-174700</v>
+        <v>-173100</v>
       </c>
       <c r="I72" s="3">
-        <v>-126500</v>
+        <v>-125400</v>
       </c>
       <c r="J72" s="3">
-        <v>-85800</v>
+        <v>-85000</v>
       </c>
       <c r="K72" s="3">
         <v>-76300</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3606500</v>
+        <v>3573900</v>
       </c>
       <c r="E76" s="3">
-        <v>3767500</v>
+        <v>3733400</v>
       </c>
       <c r="F76" s="3">
-        <v>1516900</v>
+        <v>1503200</v>
       </c>
       <c r="G76" s="3">
-        <v>813700</v>
+        <v>806400</v>
       </c>
       <c r="H76" s="3">
-        <v>659500</v>
+        <v>653600</v>
       </c>
       <c r="I76" s="3">
-        <v>440100</v>
+        <v>436100</v>
       </c>
       <c r="J76" s="3">
-        <v>-50200</v>
+        <v>-49700</v>
       </c>
       <c r="K76" s="3">
         <v>-2600</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-193600</v>
+        <v>-191900</v>
       </c>
       <c r="E81" s="3">
-        <v>-108700</v>
+        <v>-107700</v>
       </c>
       <c r="F81" s="3">
-        <v>-73700</v>
+        <v>-73000</v>
       </c>
       <c r="G81" s="3">
-        <v>-63400</v>
+        <v>-62800</v>
       </c>
       <c r="H81" s="3">
-        <v>-48200</v>
+        <v>-47700</v>
       </c>
       <c r="I81" s="3">
-        <v>-59400</v>
+        <v>-58900</v>
       </c>
       <c r="J81" s="3">
-        <v>-31900</v>
+        <v>-31600</v>
       </c>
       <c r="K81" s="3">
         <v>-48800</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>385600</v>
+        <v>382100</v>
       </c>
       <c r="E83" s="3">
-        <v>241400</v>
+        <v>239300</v>
       </c>
       <c r="F83" s="3">
-        <v>168300</v>
+        <v>166800</v>
       </c>
       <c r="G83" s="3">
-        <v>109300</v>
+        <v>108300</v>
       </c>
       <c r="H83" s="3">
-        <v>55700</v>
+        <v>55200</v>
       </c>
       <c r="I83" s="3">
-        <v>33500</v>
+        <v>33200</v>
       </c>
       <c r="J83" s="3">
-        <v>21400</v>
+        <v>21200</v>
       </c>
       <c r="K83" s="3">
         <v>13100</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>177000</v>
+        <v>175400</v>
       </c>
       <c r="E89" s="3">
-        <v>47300</v>
+        <v>46900</v>
       </c>
       <c r="F89" s="3">
-        <v>43200</v>
+        <v>42900</v>
       </c>
       <c r="G89" s="3">
         <v>-1900</v>
       </c>
       <c r="H89" s="3">
-        <v>-24700</v>
+        <v>-24500</v>
       </c>
       <c r="I89" s="3">
-        <v>-19000</v>
+        <v>-18800</v>
       </c>
       <c r="J89" s="3">
-        <v>-11800</v>
+        <v>-11700</v>
       </c>
       <c r="K89" s="3">
         <v>4400</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1429500</v>
+        <v>-1416600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1184300</v>
+        <v>-1173600</v>
       </c>
       <c r="F91" s="3">
-        <v>-671600</v>
+        <v>-665600</v>
       </c>
       <c r="G91" s="3">
-        <v>-627900</v>
+        <v>-622200</v>
       </c>
       <c r="H91" s="3">
-        <v>-253500</v>
+        <v>-251200</v>
       </c>
       <c r="I91" s="3">
-        <v>-145600</v>
+        <v>-144200</v>
       </c>
       <c r="J91" s="3">
-        <v>-108000</v>
+        <v>-107000</v>
       </c>
       <c r="K91" s="3">
         <v>-39200</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2017600</v>
+        <v>-1999400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1381900</v>
+        <v>-1369500</v>
       </c>
       <c r="F94" s="3">
-        <v>-756100</v>
+        <v>-749300</v>
       </c>
       <c r="G94" s="3">
-        <v>-697500</v>
+        <v>-691200</v>
       </c>
       <c r="H94" s="3">
-        <v>-295500</v>
+        <v>-292800</v>
       </c>
       <c r="I94" s="3">
-        <v>-169000</v>
+        <v>-167500</v>
       </c>
       <c r="J94" s="3">
-        <v>-107900</v>
+        <v>-106900</v>
       </c>
       <c r="K94" s="3">
         <v>-82600</v>
@@ -3765,10 +3765,10 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-7300</v>
+        <v>-7200</v>
       </c>
       <c r="E96" s="3">
-        <v>-9700</v>
+        <v>-9600</v>
       </c>
       <c r="F96" s="3">
         <v>-3700</v>
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-11300</v>
+        <v>-11200</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1196400</v>
+        <v>1185600</v>
       </c>
       <c r="E100" s="3">
-        <v>2968400</v>
+        <v>2941600</v>
       </c>
       <c r="F100" s="3">
-        <v>1232200</v>
+        <v>1221100</v>
       </c>
       <c r="G100" s="3">
-        <v>718600</v>
+        <v>712200</v>
       </c>
       <c r="H100" s="3">
-        <v>347100</v>
+        <v>344000</v>
       </c>
       <c r="I100" s="3">
-        <v>313700</v>
+        <v>310800</v>
       </c>
       <c r="J100" s="3">
-        <v>166200</v>
+        <v>164700</v>
       </c>
       <c r="K100" s="3">
         <v>166600</v>
@@ -3960,22 +3960,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-14100</v>
+        <v>-14000</v>
       </c>
       <c r="E101" s="3">
-        <v>-83500</v>
+        <v>-82800</v>
       </c>
       <c r="F101" s="3">
-        <v>24200</v>
+        <v>24000</v>
       </c>
       <c r="G101" s="3">
-        <v>30400</v>
+        <v>30100</v>
       </c>
       <c r="H101" s="3">
-        <v>-10900</v>
+        <v>-10800</v>
       </c>
       <c r="I101" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="J101" s="3">
         <v>300</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-658200</v>
+        <v>-652300</v>
       </c>
       <c r="E102" s="3">
-        <v>1550200</v>
+        <v>1536200</v>
       </c>
       <c r="F102" s="3">
-        <v>543500</v>
+        <v>538600</v>
       </c>
       <c r="G102" s="3">
-        <v>49700</v>
+        <v>49200</v>
       </c>
       <c r="H102" s="3">
-        <v>16000</v>
+        <v>15900</v>
       </c>
       <c r="I102" s="3">
-        <v>133800</v>
+        <v>132600</v>
       </c>
       <c r="J102" s="3">
-        <v>46800</v>
+        <v>46400</v>
       </c>
       <c r="K102" s="3">
         <v>88100</v>

--- a/AAII_Financials/Yearly/GDS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GDS_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1141800</v>
+        <v>1088400</v>
       </c>
       <c r="E8" s="3">
-        <v>838100</v>
+        <v>798900</v>
       </c>
       <c r="F8" s="3">
-        <v>602000</v>
+        <v>573800</v>
       </c>
       <c r="G8" s="3">
-        <v>407700</v>
+        <v>388700</v>
       </c>
       <c r="H8" s="3">
-        <v>236000</v>
+        <v>225000</v>
       </c>
       <c r="I8" s="3">
-        <v>154200</v>
+        <v>147000</v>
       </c>
       <c r="J8" s="3">
-        <v>102800</v>
+        <v>97900</v>
       </c>
       <c r="K8" s="3">
         <v>73900</v>
@@ -763,25 +763,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>881900</v>
+        <v>840700</v>
       </c>
       <c r="E9" s="3">
-        <v>611600</v>
+        <v>583000</v>
       </c>
       <c r="F9" s="3">
-        <v>449700</v>
+        <v>428700</v>
       </c>
       <c r="G9" s="3">
-        <v>316800</v>
+        <v>302000</v>
       </c>
       <c r="H9" s="3">
-        <v>176400</v>
+        <v>168100</v>
       </c>
       <c r="I9" s="3">
-        <v>115400</v>
+        <v>110000</v>
       </c>
       <c r="J9" s="3">
-        <v>75200</v>
+        <v>71700</v>
       </c>
       <c r="K9" s="3">
         <v>61200</v>
@@ -802,25 +802,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>259900</v>
+        <v>247700</v>
       </c>
       <c r="E10" s="3">
-        <v>226400</v>
+        <v>215800</v>
       </c>
       <c r="F10" s="3">
-        <v>152300</v>
+        <v>145100</v>
       </c>
       <c r="G10" s="3">
-        <v>90900</v>
+        <v>86600</v>
       </c>
       <c r="H10" s="3">
-        <v>59600</v>
+        <v>56900</v>
       </c>
       <c r="I10" s="3">
-        <v>38800</v>
+        <v>37000</v>
       </c>
       <c r="J10" s="3">
-        <v>27500</v>
+        <v>26300</v>
       </c>
       <c r="K10" s="3">
         <v>12600</v>
@@ -858,19 +858,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="E12" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="F12" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="G12" s="3">
         <v>1900</v>
       </c>
       <c r="H12" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I12" s="3">
         <v>1200</v>
@@ -939,7 +939,7 @@
         <v>-1000</v>
       </c>
       <c r="E14" s="3">
-        <v>-8100</v>
+        <v>-7700</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -975,19 +975,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>19700</v>
+        <v>18800</v>
       </c>
       <c r="E15" s="3">
-        <v>18100</v>
+        <v>17300</v>
       </c>
       <c r="F15" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="G15" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H15" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I15" s="3">
         <v>900</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1057600</v>
+        <v>1008100</v>
       </c>
       <c r="E17" s="3">
-        <v>731700</v>
+        <v>697500</v>
       </c>
       <c r="F17" s="3">
-        <v>531900</v>
+        <v>507100</v>
       </c>
       <c r="G17" s="3">
-        <v>383100</v>
+        <v>365200</v>
       </c>
       <c r="H17" s="3">
-        <v>224000</v>
+        <v>213500</v>
       </c>
       <c r="I17" s="3">
-        <v>160400</v>
+        <v>152900</v>
       </c>
       <c r="J17" s="3">
-        <v>102900</v>
+        <v>98100</v>
       </c>
       <c r="K17" s="3">
         <v>85800</v>
@@ -1067,22 +1067,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>84200</v>
+        <v>80300</v>
       </c>
       <c r="E18" s="3">
-        <v>106300</v>
+        <v>101400</v>
       </c>
       <c r="F18" s="3">
-        <v>70100</v>
+        <v>66800</v>
       </c>
       <c r="G18" s="3">
-        <v>24600</v>
+        <v>23400</v>
       </c>
       <c r="H18" s="3">
-        <v>12000</v>
+        <v>11400</v>
       </c>
       <c r="I18" s="3">
-        <v>-6200</v>
+        <v>-5900</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>18900</v>
+        <v>18000</v>
       </c>
       <c r="E20" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="F20" s="3">
-        <v>9100</v>
+        <v>8700</v>
       </c>
       <c r="G20" s="3">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="H20" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="I20" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="J20" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="K20" s="3">
         <v>11500</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>484700</v>
+        <v>459700</v>
       </c>
       <c r="E21" s="3">
-        <v>351100</v>
+        <v>333200</v>
       </c>
       <c r="F21" s="3">
-        <v>245700</v>
+        <v>233200</v>
       </c>
       <c r="G21" s="3">
-        <v>139700</v>
+        <v>132600</v>
       </c>
       <c r="H21" s="3">
-        <v>66700</v>
+        <v>63200</v>
       </c>
       <c r="I21" s="3">
-        <v>30300</v>
+        <v>28700</v>
       </c>
       <c r="J21" s="3">
-        <v>23600</v>
+        <v>22400</v>
       </c>
       <c r="K21" s="3">
         <v>12700</v>
@@ -1201,25 +1201,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>241600</v>
+        <v>230300</v>
       </c>
       <c r="E22" s="3">
-        <v>192200</v>
+        <v>183300</v>
       </c>
       <c r="F22" s="3">
-        <v>141500</v>
+        <v>134800</v>
       </c>
       <c r="G22" s="3">
-        <v>95800</v>
+        <v>91300</v>
       </c>
       <c r="H22" s="3">
-        <v>60200</v>
+        <v>57400</v>
       </c>
       <c r="I22" s="3">
-        <v>38700</v>
+        <v>36900</v>
       </c>
       <c r="J22" s="3">
-        <v>18500</v>
+        <v>17700</v>
       </c>
       <c r="K22" s="3">
         <v>20800</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-138500</v>
+        <v>-132100</v>
       </c>
       <c r="E23" s="3">
-        <v>-80100</v>
+        <v>-76300</v>
       </c>
       <c r="F23" s="3">
-        <v>-62300</v>
+        <v>-59400</v>
       </c>
       <c r="G23" s="3">
-        <v>-64200</v>
+        <v>-61200</v>
       </c>
       <c r="H23" s="3">
-        <v>-48600</v>
+        <v>-46400</v>
       </c>
       <c r="I23" s="3">
-        <v>-41600</v>
+        <v>-39600</v>
       </c>
       <c r="J23" s="3">
-        <v>-16100</v>
+        <v>-15400</v>
       </c>
       <c r="K23" s="3">
         <v>-21200</v>
@@ -1279,19 +1279,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>35400</v>
+        <v>33800</v>
       </c>
       <c r="E24" s="3">
-        <v>17600</v>
+        <v>16800</v>
       </c>
       <c r="F24" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G24" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="H24" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="I24" s="3">
         <v>-1200</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-174000</v>
+        <v>-165800</v>
       </c>
       <c r="E26" s="3">
-        <v>-97700</v>
+        <v>-93200</v>
       </c>
       <c r="F26" s="3">
-        <v>-64600</v>
+        <v>-61500</v>
       </c>
       <c r="G26" s="3">
-        <v>-62800</v>
+        <v>-59900</v>
       </c>
       <c r="H26" s="3">
-        <v>-47700</v>
+        <v>-45500</v>
       </c>
       <c r="I26" s="3">
-        <v>-40400</v>
+        <v>-38500</v>
       </c>
       <c r="J26" s="3">
-        <v>-14400</v>
+        <v>-13700</v>
       </c>
       <c r="K26" s="3">
         <v>-20500</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-191900</v>
+        <v>-182900</v>
       </c>
       <c r="E27" s="3">
-        <v>-107700</v>
+        <v>-102700</v>
       </c>
       <c r="F27" s="3">
-        <v>-73000</v>
+        <v>-69600</v>
       </c>
       <c r="G27" s="3">
-        <v>-62800</v>
+        <v>-59900</v>
       </c>
       <c r="H27" s="3">
-        <v>-47700</v>
+        <v>-45500</v>
       </c>
       <c r="I27" s="3">
-        <v>-58900</v>
+        <v>-56200</v>
       </c>
       <c r="J27" s="3">
-        <v>-31600</v>
+        <v>-30200</v>
       </c>
       <c r="K27" s="3">
         <v>-48800</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-18900</v>
+        <v>-18000</v>
       </c>
       <c r="E32" s="3">
-        <v>-5800</v>
+        <v>-5600</v>
       </c>
       <c r="F32" s="3">
-        <v>-9100</v>
+        <v>-8700</v>
       </c>
       <c r="G32" s="3">
-        <v>-7000</v>
+        <v>-6700</v>
       </c>
       <c r="H32" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I32" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="J32" s="3">
-        <v>-2600</v>
+        <v>-2400</v>
       </c>
       <c r="K32" s="3">
         <v>-11500</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-191900</v>
+        <v>-182900</v>
       </c>
       <c r="E33" s="3">
-        <v>-107700</v>
+        <v>-102700</v>
       </c>
       <c r="F33" s="3">
-        <v>-73000</v>
+        <v>-69600</v>
       </c>
       <c r="G33" s="3">
-        <v>-62800</v>
+        <v>-59900</v>
       </c>
       <c r="H33" s="3">
-        <v>-47700</v>
+        <v>-45500</v>
       </c>
       <c r="I33" s="3">
-        <v>-58900</v>
+        <v>-56200</v>
       </c>
       <c r="J33" s="3">
-        <v>-31600</v>
+        <v>-30200</v>
       </c>
       <c r="K33" s="3">
         <v>-48800</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-191900</v>
+        <v>-182900</v>
       </c>
       <c r="E35" s="3">
-        <v>-107700</v>
+        <v>-102700</v>
       </c>
       <c r="F35" s="3">
-        <v>-73000</v>
+        <v>-69600</v>
       </c>
       <c r="G35" s="3">
-        <v>-62800</v>
+        <v>-59900</v>
       </c>
       <c r="H35" s="3">
-        <v>-47700</v>
+        <v>-45500</v>
       </c>
       <c r="I35" s="3">
-        <v>-58900</v>
+        <v>-56200</v>
       </c>
       <c r="J35" s="3">
-        <v>-31600</v>
+        <v>-30200</v>
       </c>
       <c r="K35" s="3">
         <v>-48800</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1455600</v>
+        <v>1387600</v>
       </c>
       <c r="E41" s="3">
-        <v>2374400</v>
+        <v>2263300</v>
       </c>
       <c r="F41" s="3">
-        <v>848600</v>
+        <v>808900</v>
       </c>
       <c r="G41" s="3">
-        <v>315700</v>
+        <v>300900</v>
       </c>
       <c r="H41" s="3">
-        <v>273600</v>
+        <v>260800</v>
       </c>
       <c r="I41" s="3">
-        <v>264500</v>
+        <v>252100</v>
       </c>
       <c r="J41" s="3">
-        <v>135000</v>
+        <v>128700</v>
       </c>
       <c r="K41" s="3">
         <v>95700</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>286500</v>
+        <v>273100</v>
       </c>
       <c r="E43" s="3">
-        <v>238900</v>
+        <v>227700</v>
       </c>
       <c r="F43" s="3">
-        <v>147500</v>
+        <v>140600</v>
       </c>
       <c r="G43" s="3">
-        <v>102300</v>
+        <v>97500</v>
       </c>
       <c r="H43" s="3">
-        <v>69700</v>
+        <v>66400</v>
       </c>
       <c r="I43" s="3">
-        <v>39800</v>
+        <v>37900</v>
       </c>
       <c r="J43" s="3">
-        <v>25000</v>
+        <v>23800</v>
       </c>
       <c r="K43" s="3">
         <v>14600</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>370000</v>
+        <v>352700</v>
       </c>
       <c r="E45" s="3">
-        <v>61800</v>
+        <v>58900</v>
       </c>
       <c r="F45" s="3">
-        <v>38500</v>
+        <v>36700</v>
       </c>
       <c r="G45" s="3">
-        <v>25600</v>
+        <v>24400</v>
       </c>
       <c r="H45" s="3">
-        <v>15100</v>
+        <v>14400</v>
       </c>
       <c r="I45" s="3">
-        <v>18500</v>
+        <v>17600</v>
       </c>
       <c r="J45" s="3">
-        <v>13300</v>
+        <v>12700</v>
       </c>
       <c r="K45" s="3">
         <v>7300</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2112200</v>
+        <v>2013400</v>
       </c>
       <c r="E46" s="3">
-        <v>2675100</v>
+        <v>2550000</v>
       </c>
       <c r="F46" s="3">
-        <v>1034600</v>
+        <v>986200</v>
       </c>
       <c r="G46" s="3">
-        <v>443600</v>
+        <v>422800</v>
       </c>
       <c r="H46" s="3">
-        <v>358400</v>
+        <v>341600</v>
       </c>
       <c r="I46" s="3">
-        <v>322800</v>
+        <v>307700</v>
       </c>
       <c r="J46" s="3">
-        <v>173300</v>
+        <v>165200</v>
       </c>
       <c r="K46" s="3">
         <v>117700</v>
@@ -2059,22 +2059,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>324000</v>
+        <v>308900</v>
       </c>
       <c r="E47" s="3">
-        <v>211100</v>
+        <v>201200</v>
       </c>
       <c r="F47" s="3">
-        <v>129700</v>
+        <v>123700</v>
       </c>
       <c r="G47" s="3">
-        <v>71300</v>
+        <v>68000</v>
       </c>
       <c r="H47" s="3">
-        <v>42400</v>
+        <v>40400</v>
       </c>
       <c r="I47" s="3">
-        <v>14400</v>
+        <v>13800</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6520800</v>
+        <v>6215800</v>
       </c>
       <c r="E48" s="3">
-        <v>4768700</v>
+        <v>4545700</v>
       </c>
       <c r="F48" s="3">
-        <v>2917900</v>
+        <v>2781400</v>
       </c>
       <c r="G48" s="3">
-        <v>2043700</v>
+        <v>1948100</v>
       </c>
       <c r="H48" s="3">
-        <v>1192400</v>
+        <v>1136700</v>
       </c>
       <c r="I48" s="3">
-        <v>631300</v>
+        <v>601700</v>
       </c>
       <c r="J48" s="3">
-        <v>366900</v>
+        <v>349800</v>
       </c>
       <c r="K48" s="3">
         <v>267400</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1220700</v>
+        <v>1163600</v>
       </c>
       <c r="E49" s="3">
-        <v>493800</v>
+        <v>470700</v>
       </c>
       <c r="F49" s="3">
-        <v>335900</v>
+        <v>320200</v>
       </c>
       <c r="G49" s="3">
-        <v>326300</v>
+        <v>311000</v>
       </c>
       <c r="H49" s="3">
-        <v>280300</v>
+        <v>267200</v>
       </c>
       <c r="I49" s="3">
-        <v>209400</v>
+        <v>199600</v>
       </c>
       <c r="J49" s="3">
-        <v>200100</v>
+        <v>190700</v>
       </c>
       <c r="K49" s="3">
         <v>217500</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>282800</v>
+        <v>269600</v>
       </c>
       <c r="E52" s="3">
-        <v>212800</v>
+        <v>202800</v>
       </c>
       <c r="F52" s="3">
-        <v>180700</v>
+        <v>172300</v>
       </c>
       <c r="G52" s="3">
-        <v>165000</v>
+        <v>157300</v>
       </c>
       <c r="H52" s="3">
-        <v>46100</v>
+        <v>43900</v>
       </c>
       <c r="I52" s="3">
-        <v>20200</v>
+        <v>19200</v>
       </c>
       <c r="J52" s="3">
-        <v>12700</v>
+        <v>12200</v>
       </c>
       <c r="K52" s="3">
         <v>5500</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10460500</v>
+        <v>9971200</v>
       </c>
       <c r="E54" s="3">
-        <v>8361500</v>
+        <v>7970400</v>
       </c>
       <c r="F54" s="3">
-        <v>4598900</v>
+        <v>4383800</v>
       </c>
       <c r="G54" s="3">
-        <v>3049900</v>
+        <v>2907200</v>
       </c>
       <c r="H54" s="3">
-        <v>1919500</v>
+        <v>1829700</v>
       </c>
       <c r="I54" s="3">
-        <v>1198000</v>
+        <v>1142000</v>
       </c>
       <c r="J54" s="3">
-        <v>748900</v>
+        <v>713900</v>
       </c>
       <c r="K54" s="3">
         <v>608000</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>569800</v>
+        <v>543100</v>
       </c>
       <c r="E57" s="3">
-        <v>534000</v>
+        <v>509100</v>
       </c>
       <c r="F57" s="3">
-        <v>244700</v>
+        <v>233300</v>
       </c>
       <c r="G57" s="3">
-        <v>220200</v>
+        <v>209900</v>
       </c>
       <c r="H57" s="3">
-        <v>162200</v>
+        <v>154600</v>
       </c>
       <c r="I57" s="3">
-        <v>75000</v>
+        <v>71500</v>
       </c>
       <c r="J57" s="3">
-        <v>31500</v>
+        <v>30000</v>
       </c>
       <c r="K57" s="3">
         <v>36600</v>
@@ -2444,25 +2444,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>970700</v>
+        <v>925300</v>
       </c>
       <c r="E58" s="3">
-        <v>351600</v>
+        <v>335200</v>
       </c>
       <c r="F58" s="3">
-        <v>198600</v>
+        <v>189300</v>
       </c>
       <c r="G58" s="3">
-        <v>211800</v>
+        <v>201900</v>
       </c>
       <c r="H58" s="3">
-        <v>129700</v>
+        <v>123700</v>
       </c>
       <c r="I58" s="3">
-        <v>104700</v>
+        <v>99800</v>
       </c>
       <c r="J58" s="3">
-        <v>79500</v>
+        <v>75800</v>
       </c>
       <c r="K58" s="3">
         <v>79500</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>425900</v>
+        <v>405900</v>
       </c>
       <c r="E59" s="3">
-        <v>230600</v>
+        <v>219800</v>
       </c>
       <c r="F59" s="3">
-        <v>140700</v>
+        <v>134100</v>
       </c>
       <c r="G59" s="3">
-        <v>80300</v>
+        <v>76500</v>
       </c>
       <c r="H59" s="3">
-        <v>62000</v>
+        <v>59100</v>
       </c>
       <c r="I59" s="3">
-        <v>36300</v>
+        <v>34600</v>
       </c>
       <c r="J59" s="3">
-        <v>24100</v>
+        <v>22900</v>
       </c>
       <c r="K59" s="3">
         <v>25500</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1966300</v>
+        <v>1874400</v>
       </c>
       <c r="E60" s="3">
-        <v>1116200</v>
+        <v>1064000</v>
       </c>
       <c r="F60" s="3">
-        <v>584000</v>
+        <v>556700</v>
       </c>
       <c r="G60" s="3">
-        <v>512300</v>
+        <v>488300</v>
       </c>
       <c r="H60" s="3">
-        <v>353800</v>
+        <v>337300</v>
       </c>
       <c r="I60" s="3">
-        <v>216000</v>
+        <v>205900</v>
       </c>
       <c r="J60" s="3">
-        <v>135100</v>
+        <v>128800</v>
       </c>
       <c r="K60" s="3">
         <v>141600</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4251500</v>
+        <v>4052700</v>
       </c>
       <c r="E61" s="3">
-        <v>3007200</v>
+        <v>2866600</v>
       </c>
       <c r="F61" s="3">
-        <v>2165500</v>
+        <v>2064200</v>
       </c>
       <c r="G61" s="3">
-        <v>1656400</v>
+        <v>1578900</v>
       </c>
       <c r="H61" s="3">
-        <v>841500</v>
+        <v>802200</v>
       </c>
       <c r="I61" s="3">
-        <v>521800</v>
+        <v>497400</v>
       </c>
       <c r="J61" s="3">
-        <v>296700</v>
+        <v>282800</v>
       </c>
       <c r="K61" s="3">
         <v>116600</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>461000</v>
+        <v>439500</v>
       </c>
       <c r="E62" s="3">
-        <v>343800</v>
+        <v>327700</v>
       </c>
       <c r="F62" s="3">
-        <v>191000</v>
+        <v>182100</v>
       </c>
       <c r="G62" s="3">
-        <v>74900</v>
+        <v>71400</v>
       </c>
       <c r="H62" s="3">
-        <v>70600</v>
+        <v>67300</v>
       </c>
       <c r="I62" s="3">
-        <v>24100</v>
+        <v>23000</v>
       </c>
       <c r="J62" s="3">
-        <v>17000</v>
+        <v>16200</v>
       </c>
       <c r="K62" s="3">
         <v>11000</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6746600</v>
+        <v>6431100</v>
       </c>
       <c r="E66" s="3">
-        <v>4484900</v>
+        <v>4275100</v>
       </c>
       <c r="F66" s="3">
-        <v>2940600</v>
+        <v>2803100</v>
       </c>
       <c r="G66" s="3">
-        <v>2243500</v>
+        <v>2138600</v>
       </c>
       <c r="H66" s="3">
-        <v>1265900</v>
+        <v>1206700</v>
       </c>
       <c r="I66" s="3">
-        <v>761900</v>
+        <v>726300</v>
       </c>
       <c r="J66" s="3">
-        <v>448800</v>
+        <v>427800</v>
       </c>
       <c r="K66" s="3">
         <v>269200</v>
@@ -2890,13 +2890,13 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>140000</v>
+        <v>133400</v>
       </c>
       <c r="E70" s="3">
-        <v>143200</v>
+        <v>136500</v>
       </c>
       <c r="F70" s="3">
-        <v>155100</v>
+        <v>147800</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>349800</v>
+        <v>333400</v>
       </c>
       <c r="K70" s="3">
         <v>341400</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-571100</v>
+        <v>-544400</v>
       </c>
       <c r="E72" s="3">
-        <v>-397700</v>
+        <v>-379100</v>
       </c>
       <c r="F72" s="3">
-        <v>-300400</v>
+        <v>-286400</v>
       </c>
       <c r="G72" s="3">
-        <v>-235900</v>
+        <v>-224800</v>
       </c>
       <c r="H72" s="3">
-        <v>-173100</v>
+        <v>-165000</v>
       </c>
       <c r="I72" s="3">
-        <v>-125400</v>
+        <v>-119500</v>
       </c>
       <c r="J72" s="3">
-        <v>-85000</v>
+        <v>-81000</v>
       </c>
       <c r="K72" s="3">
         <v>-76300</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3573900</v>
+        <v>3406800</v>
       </c>
       <c r="E76" s="3">
-        <v>3733400</v>
+        <v>3558800</v>
       </c>
       <c r="F76" s="3">
-        <v>1503200</v>
+        <v>1432900</v>
       </c>
       <c r="G76" s="3">
-        <v>806400</v>
+        <v>768700</v>
       </c>
       <c r="H76" s="3">
-        <v>653600</v>
+        <v>623000</v>
       </c>
       <c r="I76" s="3">
-        <v>436100</v>
+        <v>415700</v>
       </c>
       <c r="J76" s="3">
-        <v>-49700</v>
+        <v>-47400</v>
       </c>
       <c r="K76" s="3">
         <v>-2600</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-191900</v>
+        <v>-182900</v>
       </c>
       <c r="E81" s="3">
-        <v>-107700</v>
+        <v>-102700</v>
       </c>
       <c r="F81" s="3">
-        <v>-73000</v>
+        <v>-69600</v>
       </c>
       <c r="G81" s="3">
-        <v>-62800</v>
+        <v>-59900</v>
       </c>
       <c r="H81" s="3">
-        <v>-47700</v>
+        <v>-45500</v>
       </c>
       <c r="I81" s="3">
-        <v>-58900</v>
+        <v>-56200</v>
       </c>
       <c r="J81" s="3">
-        <v>-31600</v>
+        <v>-30200</v>
       </c>
       <c r="K81" s="3">
         <v>-48800</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>382100</v>
+        <v>364300</v>
       </c>
       <c r="E83" s="3">
-        <v>239300</v>
+        <v>228100</v>
       </c>
       <c r="F83" s="3">
-        <v>166800</v>
+        <v>159000</v>
       </c>
       <c r="G83" s="3">
-        <v>108300</v>
+        <v>103200</v>
       </c>
       <c r="H83" s="3">
-        <v>55200</v>
+        <v>52600</v>
       </c>
       <c r="I83" s="3">
-        <v>33200</v>
+        <v>31600</v>
       </c>
       <c r="J83" s="3">
-        <v>21200</v>
+        <v>20200</v>
       </c>
       <c r="K83" s="3">
         <v>13100</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>175400</v>
+        <v>167200</v>
       </c>
       <c r="E89" s="3">
-        <v>46900</v>
+        <v>44700</v>
       </c>
       <c r="F89" s="3">
-        <v>42900</v>
+        <v>40800</v>
       </c>
       <c r="G89" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="H89" s="3">
-        <v>-24500</v>
+        <v>-23400</v>
       </c>
       <c r="I89" s="3">
-        <v>-18800</v>
+        <v>-18000</v>
       </c>
       <c r="J89" s="3">
-        <v>-11700</v>
+        <v>-11200</v>
       </c>
       <c r="K89" s="3">
         <v>4400</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1416600</v>
+        <v>-1350300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1173600</v>
+        <v>-1118800</v>
       </c>
       <c r="F91" s="3">
-        <v>-665600</v>
+        <v>-634400</v>
       </c>
       <c r="G91" s="3">
-        <v>-622200</v>
+        <v>-593100</v>
       </c>
       <c r="H91" s="3">
-        <v>-251200</v>
+        <v>-239400</v>
       </c>
       <c r="I91" s="3">
-        <v>-144200</v>
+        <v>-137500</v>
       </c>
       <c r="J91" s="3">
-        <v>-107000</v>
+        <v>-102000</v>
       </c>
       <c r="K91" s="3">
         <v>-39200</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1999400</v>
+        <v>-1905900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1369500</v>
+        <v>-1305400</v>
       </c>
       <c r="F94" s="3">
-        <v>-749300</v>
+        <v>-714300</v>
       </c>
       <c r="G94" s="3">
-        <v>-691200</v>
+        <v>-658800</v>
       </c>
       <c r="H94" s="3">
-        <v>-292800</v>
+        <v>-279100</v>
       </c>
       <c r="I94" s="3">
-        <v>-167500</v>
+        <v>-159700</v>
       </c>
       <c r="J94" s="3">
-        <v>-106900</v>
+        <v>-101900</v>
       </c>
       <c r="K94" s="3">
         <v>-82600</v>
@@ -3765,13 +3765,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-7200</v>
+        <v>-6900</v>
       </c>
       <c r="E96" s="3">
-        <v>-9600</v>
+        <v>-9100</v>
       </c>
       <c r="F96" s="3">
-        <v>-3700</v>
+        <v>-3500</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-11200</v>
+        <v>-10600</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1185600</v>
+        <v>1130200</v>
       </c>
       <c r="E100" s="3">
-        <v>2941600</v>
+        <v>2804000</v>
       </c>
       <c r="F100" s="3">
-        <v>1221100</v>
+        <v>1164000</v>
       </c>
       <c r="G100" s="3">
-        <v>712200</v>
+        <v>678900</v>
       </c>
       <c r="H100" s="3">
-        <v>344000</v>
+        <v>327900</v>
       </c>
       <c r="I100" s="3">
-        <v>310800</v>
+        <v>296300</v>
       </c>
       <c r="J100" s="3">
-        <v>164700</v>
+        <v>157000</v>
       </c>
       <c r="K100" s="3">
         <v>166600</v>
@@ -3960,22 +3960,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-14000</v>
+        <v>-13300</v>
       </c>
       <c r="E101" s="3">
-        <v>-82800</v>
+        <v>-78900</v>
       </c>
       <c r="F101" s="3">
-        <v>24000</v>
+        <v>22900</v>
       </c>
       <c r="G101" s="3">
-        <v>30100</v>
+        <v>28700</v>
       </c>
       <c r="H101" s="3">
-        <v>-10800</v>
+        <v>-10300</v>
       </c>
       <c r="I101" s="3">
-        <v>8100</v>
+        <v>7700</v>
       </c>
       <c r="J101" s="3">
         <v>300</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-652300</v>
+        <v>-621700</v>
       </c>
       <c r="E102" s="3">
-        <v>1536200</v>
+        <v>1464300</v>
       </c>
       <c r="F102" s="3">
-        <v>538600</v>
+        <v>513400</v>
       </c>
       <c r="G102" s="3">
-        <v>49200</v>
+        <v>46900</v>
       </c>
       <c r="H102" s="3">
-        <v>15900</v>
+        <v>15100</v>
       </c>
       <c r="I102" s="3">
-        <v>132600</v>
+        <v>126400</v>
       </c>
       <c r="J102" s="3">
-        <v>46400</v>
+        <v>44200</v>
       </c>
       <c r="K102" s="3">
         <v>88100</v>

--- a/AAII_Financials/Yearly/GDS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GDS_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1088400</v>
+        <v>1122900</v>
       </c>
       <c r="E8" s="3">
-        <v>798900</v>
+        <v>824200</v>
       </c>
       <c r="F8" s="3">
-        <v>573800</v>
+        <v>592100</v>
       </c>
       <c r="G8" s="3">
-        <v>388700</v>
+        <v>401000</v>
       </c>
       <c r="H8" s="3">
-        <v>225000</v>
+        <v>232100</v>
       </c>
       <c r="I8" s="3">
-        <v>147000</v>
+        <v>151700</v>
       </c>
       <c r="J8" s="3">
-        <v>97900</v>
+        <v>101100</v>
       </c>
       <c r="K8" s="3">
         <v>73900</v>
@@ -763,25 +763,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>840700</v>
+        <v>867400</v>
       </c>
       <c r="E9" s="3">
-        <v>583000</v>
+        <v>601600</v>
       </c>
       <c r="F9" s="3">
-        <v>428700</v>
+        <v>442300</v>
       </c>
       <c r="G9" s="3">
-        <v>302000</v>
+        <v>311600</v>
       </c>
       <c r="H9" s="3">
-        <v>168100</v>
+        <v>173400</v>
       </c>
       <c r="I9" s="3">
-        <v>110000</v>
+        <v>113500</v>
       </c>
       <c r="J9" s="3">
-        <v>71700</v>
+        <v>74000</v>
       </c>
       <c r="K9" s="3">
         <v>61200</v>
@@ -802,25 +802,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>247700</v>
+        <v>255600</v>
       </c>
       <c r="E10" s="3">
-        <v>215800</v>
+        <v>222700</v>
       </c>
       <c r="F10" s="3">
-        <v>145100</v>
+        <v>149800</v>
       </c>
       <c r="G10" s="3">
-        <v>86600</v>
+        <v>89400</v>
       </c>
       <c r="H10" s="3">
-        <v>56900</v>
+        <v>58700</v>
       </c>
       <c r="I10" s="3">
-        <v>37000</v>
+        <v>38200</v>
       </c>
       <c r="J10" s="3">
-        <v>26300</v>
+        <v>27100</v>
       </c>
       <c r="K10" s="3">
         <v>12600</v>
@@ -858,19 +858,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="E12" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="F12" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="G12" s="3">
         <v>1900</v>
       </c>
       <c r="H12" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I12" s="3">
         <v>1200</v>
@@ -939,7 +939,7 @@
         <v>-1000</v>
       </c>
       <c r="E14" s="3">
-        <v>-7700</v>
+        <v>-7900</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -975,19 +975,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>18800</v>
+        <v>19400</v>
       </c>
       <c r="E15" s="3">
-        <v>17300</v>
+        <v>17800</v>
       </c>
       <c r="F15" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="G15" s="3">
         <v>1100</v>
       </c>
       <c r="H15" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I15" s="3">
         <v>900</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1008100</v>
+        <v>1040100</v>
       </c>
       <c r="E17" s="3">
-        <v>697500</v>
+        <v>719700</v>
       </c>
       <c r="F17" s="3">
-        <v>507100</v>
+        <v>523200</v>
       </c>
       <c r="G17" s="3">
-        <v>365200</v>
+        <v>376800</v>
       </c>
       <c r="H17" s="3">
-        <v>213500</v>
+        <v>220300</v>
       </c>
       <c r="I17" s="3">
-        <v>152900</v>
+        <v>157700</v>
       </c>
       <c r="J17" s="3">
-        <v>98100</v>
+        <v>101200</v>
       </c>
       <c r="K17" s="3">
         <v>85800</v>
@@ -1067,22 +1067,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>80300</v>
+        <v>82800</v>
       </c>
       <c r="E18" s="3">
-        <v>101400</v>
+        <v>104600</v>
       </c>
       <c r="F18" s="3">
-        <v>66800</v>
+        <v>68900</v>
       </c>
       <c r="G18" s="3">
-        <v>23400</v>
+        <v>24200</v>
       </c>
       <c r="H18" s="3">
-        <v>11400</v>
+        <v>11800</v>
       </c>
       <c r="I18" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>18000</v>
+        <v>18600</v>
       </c>
       <c r="E20" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="F20" s="3">
-        <v>8700</v>
+        <v>9000</v>
       </c>
       <c r="G20" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="H20" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="I20" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="J20" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K20" s="3">
         <v>11500</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>459700</v>
+        <v>477900</v>
       </c>
       <c r="E21" s="3">
-        <v>333200</v>
+        <v>346100</v>
       </c>
       <c r="F21" s="3">
-        <v>233200</v>
+        <v>242200</v>
       </c>
       <c r="G21" s="3">
-        <v>132600</v>
+        <v>137800</v>
       </c>
       <c r="H21" s="3">
-        <v>63200</v>
+        <v>65800</v>
       </c>
       <c r="I21" s="3">
-        <v>28700</v>
+        <v>29900</v>
       </c>
       <c r="J21" s="3">
-        <v>22400</v>
+        <v>23300</v>
       </c>
       <c r="K21" s="3">
         <v>12700</v>
@@ -1201,25 +1201,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>230300</v>
+        <v>237700</v>
       </c>
       <c r="E22" s="3">
-        <v>183300</v>
+        <v>189100</v>
       </c>
       <c r="F22" s="3">
-        <v>134800</v>
+        <v>139100</v>
       </c>
       <c r="G22" s="3">
-        <v>91300</v>
+        <v>94200</v>
       </c>
       <c r="H22" s="3">
-        <v>57400</v>
+        <v>59200</v>
       </c>
       <c r="I22" s="3">
-        <v>36900</v>
+        <v>38100</v>
       </c>
       <c r="J22" s="3">
-        <v>17700</v>
+        <v>18200</v>
       </c>
       <c r="K22" s="3">
         <v>20800</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-132100</v>
+        <v>-136300</v>
       </c>
       <c r="E23" s="3">
-        <v>-76300</v>
+        <v>-78800</v>
       </c>
       <c r="F23" s="3">
-        <v>-59400</v>
+        <v>-61200</v>
       </c>
       <c r="G23" s="3">
-        <v>-61200</v>
+        <v>-63100</v>
       </c>
       <c r="H23" s="3">
-        <v>-46400</v>
+        <v>-47800</v>
       </c>
       <c r="I23" s="3">
-        <v>-39600</v>
+        <v>-40900</v>
       </c>
       <c r="J23" s="3">
-        <v>-15400</v>
+        <v>-15900</v>
       </c>
       <c r="K23" s="3">
         <v>-21200</v>
@@ -1279,10 +1279,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>33800</v>
+        <v>34800</v>
       </c>
       <c r="E24" s="3">
-        <v>16800</v>
+        <v>17300</v>
       </c>
       <c r="F24" s="3">
         <v>2200</v>
@@ -1291,7 +1291,7 @@
         <v>-1300</v>
       </c>
       <c r="H24" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="I24" s="3">
         <v>-1200</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-165800</v>
+        <v>-171100</v>
       </c>
       <c r="E26" s="3">
-        <v>-93200</v>
+        <v>-96100</v>
       </c>
       <c r="F26" s="3">
-        <v>-61500</v>
+        <v>-63500</v>
       </c>
       <c r="G26" s="3">
-        <v>-59900</v>
+        <v>-61800</v>
       </c>
       <c r="H26" s="3">
-        <v>-45500</v>
+        <v>-46900</v>
       </c>
       <c r="I26" s="3">
-        <v>-38500</v>
+        <v>-39700</v>
       </c>
       <c r="J26" s="3">
-        <v>-13700</v>
+        <v>-14200</v>
       </c>
       <c r="K26" s="3">
         <v>-20500</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-182900</v>
+        <v>-188700</v>
       </c>
       <c r="E27" s="3">
-        <v>-102700</v>
+        <v>-106000</v>
       </c>
       <c r="F27" s="3">
-        <v>-69600</v>
+        <v>-71800</v>
       </c>
       <c r="G27" s="3">
-        <v>-59900</v>
+        <v>-61800</v>
       </c>
       <c r="H27" s="3">
-        <v>-45500</v>
+        <v>-46900</v>
       </c>
       <c r="I27" s="3">
-        <v>-56200</v>
+        <v>-57900</v>
       </c>
       <c r="J27" s="3">
-        <v>-30200</v>
+        <v>-31100</v>
       </c>
       <c r="K27" s="3">
         <v>-48800</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-18000</v>
+        <v>-18600</v>
       </c>
       <c r="E32" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="F32" s="3">
-        <v>-8700</v>
+        <v>-9000</v>
       </c>
       <c r="G32" s="3">
-        <v>-6700</v>
+        <v>-6900</v>
       </c>
       <c r="H32" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I32" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="J32" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="K32" s="3">
         <v>-11500</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-182900</v>
+        <v>-188700</v>
       </c>
       <c r="E33" s="3">
-        <v>-102700</v>
+        <v>-106000</v>
       </c>
       <c r="F33" s="3">
-        <v>-69600</v>
+        <v>-71800</v>
       </c>
       <c r="G33" s="3">
-        <v>-59900</v>
+        <v>-61800</v>
       </c>
       <c r="H33" s="3">
-        <v>-45500</v>
+        <v>-46900</v>
       </c>
       <c r="I33" s="3">
-        <v>-56200</v>
+        <v>-57900</v>
       </c>
       <c r="J33" s="3">
-        <v>-30200</v>
+        <v>-31100</v>
       </c>
       <c r="K33" s="3">
         <v>-48800</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-182900</v>
+        <v>-188700</v>
       </c>
       <c r="E35" s="3">
-        <v>-102700</v>
+        <v>-106000</v>
       </c>
       <c r="F35" s="3">
-        <v>-69600</v>
+        <v>-71800</v>
       </c>
       <c r="G35" s="3">
-        <v>-59900</v>
+        <v>-61800</v>
       </c>
       <c r="H35" s="3">
-        <v>-45500</v>
+        <v>-46900</v>
       </c>
       <c r="I35" s="3">
-        <v>-56200</v>
+        <v>-57900</v>
       </c>
       <c r="J35" s="3">
-        <v>-30200</v>
+        <v>-31100</v>
       </c>
       <c r="K35" s="3">
         <v>-48800</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1387600</v>
+        <v>1431600</v>
       </c>
       <c r="E41" s="3">
-        <v>2263300</v>
+        <v>2335200</v>
       </c>
       <c r="F41" s="3">
-        <v>808900</v>
+        <v>834600</v>
       </c>
       <c r="G41" s="3">
-        <v>300900</v>
+        <v>310500</v>
       </c>
       <c r="H41" s="3">
-        <v>260800</v>
+        <v>269100</v>
       </c>
       <c r="I41" s="3">
-        <v>252100</v>
+        <v>260100</v>
       </c>
       <c r="J41" s="3">
-        <v>128700</v>
+        <v>132800</v>
       </c>
       <c r="K41" s="3">
         <v>95700</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>273100</v>
+        <v>281800</v>
       </c>
       <c r="E43" s="3">
-        <v>227700</v>
+        <v>235000</v>
       </c>
       <c r="F43" s="3">
-        <v>140600</v>
+        <v>145000</v>
       </c>
       <c r="G43" s="3">
-        <v>97500</v>
+        <v>100600</v>
       </c>
       <c r="H43" s="3">
-        <v>66400</v>
+        <v>68500</v>
       </c>
       <c r="I43" s="3">
-        <v>37900</v>
+        <v>39100</v>
       </c>
       <c r="J43" s="3">
-        <v>23800</v>
+        <v>24600</v>
       </c>
       <c r="K43" s="3">
         <v>14600</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>352700</v>
+        <v>363900</v>
       </c>
       <c r="E45" s="3">
-        <v>58900</v>
+        <v>60800</v>
       </c>
       <c r="F45" s="3">
-        <v>36700</v>
+        <v>37900</v>
       </c>
       <c r="G45" s="3">
-        <v>24400</v>
+        <v>25200</v>
       </c>
       <c r="H45" s="3">
-        <v>14400</v>
+        <v>14900</v>
       </c>
       <c r="I45" s="3">
-        <v>17600</v>
+        <v>18200</v>
       </c>
       <c r="J45" s="3">
-        <v>12700</v>
+        <v>13100</v>
       </c>
       <c r="K45" s="3">
         <v>7300</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2013400</v>
+        <v>2077300</v>
       </c>
       <c r="E46" s="3">
-        <v>2550000</v>
+        <v>2630900</v>
       </c>
       <c r="F46" s="3">
-        <v>986200</v>
+        <v>1017500</v>
       </c>
       <c r="G46" s="3">
-        <v>422800</v>
+        <v>436200</v>
       </c>
       <c r="H46" s="3">
-        <v>341600</v>
+        <v>352400</v>
       </c>
       <c r="I46" s="3">
-        <v>307700</v>
+        <v>317400</v>
       </c>
       <c r="J46" s="3">
-        <v>165200</v>
+        <v>170400</v>
       </c>
       <c r="K46" s="3">
         <v>117700</v>
@@ -2059,22 +2059,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>308900</v>
+        <v>318700</v>
       </c>
       <c r="E47" s="3">
-        <v>201200</v>
+        <v>207600</v>
       </c>
       <c r="F47" s="3">
-        <v>123700</v>
+        <v>127600</v>
       </c>
       <c r="G47" s="3">
-        <v>68000</v>
+        <v>70200</v>
       </c>
       <c r="H47" s="3">
-        <v>40400</v>
+        <v>41700</v>
       </c>
       <c r="I47" s="3">
-        <v>13800</v>
+        <v>14200</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6215800</v>
+        <v>6413200</v>
       </c>
       <c r="E48" s="3">
-        <v>4545700</v>
+        <v>4690000</v>
       </c>
       <c r="F48" s="3">
-        <v>2781400</v>
+        <v>2869700</v>
       </c>
       <c r="G48" s="3">
-        <v>1948100</v>
+        <v>2010000</v>
       </c>
       <c r="H48" s="3">
-        <v>1136700</v>
+        <v>1172700</v>
       </c>
       <c r="I48" s="3">
-        <v>601700</v>
+        <v>620900</v>
       </c>
       <c r="J48" s="3">
-        <v>349800</v>
+        <v>360900</v>
       </c>
       <c r="K48" s="3">
         <v>267400</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1163600</v>
+        <v>1200500</v>
       </c>
       <c r="E49" s="3">
-        <v>470700</v>
+        <v>485700</v>
       </c>
       <c r="F49" s="3">
-        <v>320200</v>
+        <v>330400</v>
       </c>
       <c r="G49" s="3">
-        <v>311000</v>
+        <v>320900</v>
       </c>
       <c r="H49" s="3">
-        <v>267200</v>
+        <v>275600</v>
       </c>
       <c r="I49" s="3">
-        <v>199600</v>
+        <v>205900</v>
       </c>
       <c r="J49" s="3">
-        <v>190700</v>
+        <v>196800</v>
       </c>
       <c r="K49" s="3">
         <v>217500</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>269600</v>
+        <v>278200</v>
       </c>
       <c r="E52" s="3">
-        <v>202800</v>
+        <v>209300</v>
       </c>
       <c r="F52" s="3">
-        <v>172300</v>
+        <v>177700</v>
       </c>
       <c r="G52" s="3">
-        <v>157300</v>
+        <v>162300</v>
       </c>
       <c r="H52" s="3">
-        <v>43900</v>
+        <v>45300</v>
       </c>
       <c r="I52" s="3">
-        <v>19200</v>
+        <v>19800</v>
       </c>
       <c r="J52" s="3">
-        <v>12200</v>
+        <v>12500</v>
       </c>
       <c r="K52" s="3">
         <v>5500</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9971200</v>
+        <v>10287900</v>
       </c>
       <c r="E54" s="3">
-        <v>7970400</v>
+        <v>8223500</v>
       </c>
       <c r="F54" s="3">
-        <v>4383800</v>
+        <v>4523000</v>
       </c>
       <c r="G54" s="3">
-        <v>2907200</v>
+        <v>2999500</v>
       </c>
       <c r="H54" s="3">
-        <v>1829700</v>
+        <v>1887800</v>
       </c>
       <c r="I54" s="3">
-        <v>1142000</v>
+        <v>1178200</v>
       </c>
       <c r="J54" s="3">
-        <v>713900</v>
+        <v>736500</v>
       </c>
       <c r="K54" s="3">
         <v>608000</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>543100</v>
+        <v>560400</v>
       </c>
       <c r="E57" s="3">
-        <v>509100</v>
+        <v>525200</v>
       </c>
       <c r="F57" s="3">
-        <v>233300</v>
+        <v>240700</v>
       </c>
       <c r="G57" s="3">
-        <v>209900</v>
+        <v>216600</v>
       </c>
       <c r="H57" s="3">
-        <v>154600</v>
+        <v>159500</v>
       </c>
       <c r="I57" s="3">
-        <v>71500</v>
+        <v>73800</v>
       </c>
       <c r="J57" s="3">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="K57" s="3">
         <v>36600</v>
@@ -2444,25 +2444,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>925300</v>
+        <v>954700</v>
       </c>
       <c r="E58" s="3">
-        <v>335200</v>
+        <v>345800</v>
       </c>
       <c r="F58" s="3">
-        <v>189300</v>
+        <v>195400</v>
       </c>
       <c r="G58" s="3">
-        <v>201900</v>
+        <v>208300</v>
       </c>
       <c r="H58" s="3">
-        <v>123700</v>
+        <v>127600</v>
       </c>
       <c r="I58" s="3">
-        <v>99800</v>
+        <v>103000</v>
       </c>
       <c r="J58" s="3">
-        <v>75800</v>
+        <v>78200</v>
       </c>
       <c r="K58" s="3">
         <v>79500</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>405900</v>
+        <v>418800</v>
       </c>
       <c r="E59" s="3">
-        <v>219800</v>
+        <v>226800</v>
       </c>
       <c r="F59" s="3">
-        <v>134100</v>
+        <v>138400</v>
       </c>
       <c r="G59" s="3">
-        <v>76500</v>
+        <v>78900</v>
       </c>
       <c r="H59" s="3">
-        <v>59100</v>
+        <v>60900</v>
       </c>
       <c r="I59" s="3">
-        <v>34600</v>
+        <v>35700</v>
       </c>
       <c r="J59" s="3">
-        <v>22900</v>
+        <v>23700</v>
       </c>
       <c r="K59" s="3">
         <v>25500</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1874400</v>
+        <v>1933900</v>
       </c>
       <c r="E60" s="3">
-        <v>1064000</v>
+        <v>1097800</v>
       </c>
       <c r="F60" s="3">
-        <v>556700</v>
+        <v>574400</v>
       </c>
       <c r="G60" s="3">
-        <v>488300</v>
+        <v>503800</v>
       </c>
       <c r="H60" s="3">
-        <v>337300</v>
+        <v>348000</v>
       </c>
       <c r="I60" s="3">
-        <v>205900</v>
+        <v>212400</v>
       </c>
       <c r="J60" s="3">
-        <v>128800</v>
+        <v>132900</v>
       </c>
       <c r="K60" s="3">
         <v>141600</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4052700</v>
+        <v>4181300</v>
       </c>
       <c r="E61" s="3">
-        <v>2866600</v>
+        <v>2957600</v>
       </c>
       <c r="F61" s="3">
-        <v>2064200</v>
+        <v>2129800</v>
       </c>
       <c r="G61" s="3">
-        <v>1578900</v>
+        <v>1629000</v>
       </c>
       <c r="H61" s="3">
-        <v>802200</v>
+        <v>827700</v>
       </c>
       <c r="I61" s="3">
-        <v>497400</v>
+        <v>513200</v>
       </c>
       <c r="J61" s="3">
-        <v>282800</v>
+        <v>291800</v>
       </c>
       <c r="K61" s="3">
         <v>116600</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>439500</v>
+        <v>453400</v>
       </c>
       <c r="E62" s="3">
-        <v>327700</v>
+        <v>338100</v>
       </c>
       <c r="F62" s="3">
-        <v>182100</v>
+        <v>187900</v>
       </c>
       <c r="G62" s="3">
-        <v>71400</v>
+        <v>73600</v>
       </c>
       <c r="H62" s="3">
-        <v>67300</v>
+        <v>69400</v>
       </c>
       <c r="I62" s="3">
-        <v>23000</v>
+        <v>23700</v>
       </c>
       <c r="J62" s="3">
-        <v>16200</v>
+        <v>16800</v>
       </c>
       <c r="K62" s="3">
         <v>11000</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6431100</v>
+        <v>6635300</v>
       </c>
       <c r="E66" s="3">
-        <v>4275100</v>
+        <v>4410800</v>
       </c>
       <c r="F66" s="3">
-        <v>2803100</v>
+        <v>2892100</v>
       </c>
       <c r="G66" s="3">
-        <v>2138600</v>
+        <v>2206500</v>
       </c>
       <c r="H66" s="3">
-        <v>1206700</v>
+        <v>1245000</v>
       </c>
       <c r="I66" s="3">
-        <v>726300</v>
+        <v>749300</v>
       </c>
       <c r="J66" s="3">
-        <v>427800</v>
+        <v>441400</v>
       </c>
       <c r="K66" s="3">
         <v>269200</v>
@@ -2890,13 +2890,13 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>133400</v>
+        <v>137700</v>
       </c>
       <c r="E70" s="3">
-        <v>136500</v>
+        <v>140900</v>
       </c>
       <c r="F70" s="3">
-        <v>147800</v>
+        <v>152500</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>333400</v>
+        <v>344000</v>
       </c>
       <c r="K70" s="3">
         <v>341400</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-544400</v>
+        <v>-561700</v>
       </c>
       <c r="E72" s="3">
-        <v>-379100</v>
+        <v>-391200</v>
       </c>
       <c r="F72" s="3">
-        <v>-286400</v>
+        <v>-295500</v>
       </c>
       <c r="G72" s="3">
-        <v>-224800</v>
+        <v>-232000</v>
       </c>
       <c r="H72" s="3">
-        <v>-165000</v>
+        <v>-170300</v>
       </c>
       <c r="I72" s="3">
-        <v>-119500</v>
+        <v>-123300</v>
       </c>
       <c r="J72" s="3">
-        <v>-81000</v>
+        <v>-83600</v>
       </c>
       <c r="K72" s="3">
         <v>-76300</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3406800</v>
+        <v>3514900</v>
       </c>
       <c r="E76" s="3">
-        <v>3558800</v>
+        <v>3671800</v>
       </c>
       <c r="F76" s="3">
-        <v>1432900</v>
+        <v>1478400</v>
       </c>
       <c r="G76" s="3">
-        <v>768700</v>
+        <v>793100</v>
       </c>
       <c r="H76" s="3">
-        <v>623000</v>
+        <v>642800</v>
       </c>
       <c r="I76" s="3">
-        <v>415700</v>
+        <v>428900</v>
       </c>
       <c r="J76" s="3">
-        <v>-47400</v>
+        <v>-48900</v>
       </c>
       <c r="K76" s="3">
         <v>-2600</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-182900</v>
+        <v>-188700</v>
       </c>
       <c r="E81" s="3">
-        <v>-102700</v>
+        <v>-106000</v>
       </c>
       <c r="F81" s="3">
-        <v>-69600</v>
+        <v>-71800</v>
       </c>
       <c r="G81" s="3">
-        <v>-59900</v>
+        <v>-61800</v>
       </c>
       <c r="H81" s="3">
-        <v>-45500</v>
+        <v>-46900</v>
       </c>
       <c r="I81" s="3">
-        <v>-56200</v>
+        <v>-57900</v>
       </c>
       <c r="J81" s="3">
-        <v>-30200</v>
+        <v>-31100</v>
       </c>
       <c r="K81" s="3">
         <v>-48800</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>364300</v>
+        <v>375800</v>
       </c>
       <c r="E83" s="3">
-        <v>228100</v>
+        <v>235300</v>
       </c>
       <c r="F83" s="3">
-        <v>159000</v>
+        <v>164000</v>
       </c>
       <c r="G83" s="3">
-        <v>103200</v>
+        <v>106500</v>
       </c>
       <c r="H83" s="3">
-        <v>52600</v>
+        <v>54300</v>
       </c>
       <c r="I83" s="3">
-        <v>31600</v>
+        <v>32700</v>
       </c>
       <c r="J83" s="3">
-        <v>20200</v>
+        <v>20900</v>
       </c>
       <c r="K83" s="3">
         <v>13100</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>167200</v>
+        <v>172500</v>
       </c>
       <c r="E89" s="3">
-        <v>44700</v>
+        <v>46100</v>
       </c>
       <c r="F89" s="3">
-        <v>40800</v>
+        <v>42100</v>
       </c>
       <c r="G89" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="H89" s="3">
-        <v>-23400</v>
+        <v>-24100</v>
       </c>
       <c r="I89" s="3">
-        <v>-18000</v>
+        <v>-18500</v>
       </c>
       <c r="J89" s="3">
-        <v>-11200</v>
+        <v>-11500</v>
       </c>
       <c r="K89" s="3">
         <v>4400</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1350300</v>
+        <v>-1393200</v>
       </c>
       <c r="E91" s="3">
-        <v>-1118800</v>
+        <v>-1154300</v>
       </c>
       <c r="F91" s="3">
-        <v>-634400</v>
+        <v>-654600</v>
       </c>
       <c r="G91" s="3">
-        <v>-593100</v>
+        <v>-612000</v>
       </c>
       <c r="H91" s="3">
-        <v>-239400</v>
+        <v>-247100</v>
       </c>
       <c r="I91" s="3">
-        <v>-137500</v>
+        <v>-141900</v>
       </c>
       <c r="J91" s="3">
-        <v>-102000</v>
+        <v>-105300</v>
       </c>
       <c r="K91" s="3">
         <v>-39200</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1905900</v>
+        <v>-1966400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1305400</v>
+        <v>-1346900</v>
       </c>
       <c r="F94" s="3">
-        <v>-714300</v>
+        <v>-736900</v>
       </c>
       <c r="G94" s="3">
-        <v>-658800</v>
+        <v>-679800</v>
       </c>
       <c r="H94" s="3">
-        <v>-279100</v>
+        <v>-288000</v>
       </c>
       <c r="I94" s="3">
-        <v>-159700</v>
+        <v>-164700</v>
       </c>
       <c r="J94" s="3">
-        <v>-101900</v>
+        <v>-105100</v>
       </c>
       <c r="K94" s="3">
         <v>-82600</v>
@@ -3765,13 +3765,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-6900</v>
+        <v>-7100</v>
       </c>
       <c r="E96" s="3">
-        <v>-9100</v>
+        <v>-9400</v>
       </c>
       <c r="F96" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-10600</v>
+        <v>-11000</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1130200</v>
+        <v>1166100</v>
       </c>
       <c r="E100" s="3">
-        <v>2804000</v>
+        <v>2893000</v>
       </c>
       <c r="F100" s="3">
-        <v>1164000</v>
+        <v>1200900</v>
       </c>
       <c r="G100" s="3">
-        <v>678900</v>
+        <v>700400</v>
       </c>
       <c r="H100" s="3">
-        <v>327900</v>
+        <v>338300</v>
       </c>
       <c r="I100" s="3">
-        <v>296300</v>
+        <v>305700</v>
       </c>
       <c r="J100" s="3">
-        <v>157000</v>
+        <v>162000</v>
       </c>
       <c r="K100" s="3">
         <v>166600</v>
@@ -3960,22 +3960,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-13300</v>
+        <v>-13700</v>
       </c>
       <c r="E101" s="3">
-        <v>-78900</v>
+        <v>-81400</v>
       </c>
       <c r="F101" s="3">
-        <v>22900</v>
+        <v>23600</v>
       </c>
       <c r="G101" s="3">
-        <v>28700</v>
+        <v>29600</v>
       </c>
       <c r="H101" s="3">
-        <v>-10300</v>
+        <v>-10700</v>
       </c>
       <c r="I101" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="J101" s="3">
         <v>300</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-621700</v>
+        <v>-641500</v>
       </c>
       <c r="E102" s="3">
-        <v>1464300</v>
+        <v>1510800</v>
       </c>
       <c r="F102" s="3">
-        <v>513400</v>
+        <v>529700</v>
       </c>
       <c r="G102" s="3">
-        <v>46900</v>
+        <v>48400</v>
       </c>
       <c r="H102" s="3">
-        <v>15100</v>
+        <v>15600</v>
       </c>
       <c r="I102" s="3">
-        <v>126400</v>
+        <v>130400</v>
       </c>
       <c r="J102" s="3">
-        <v>44200</v>
+        <v>45600</v>
       </c>
       <c r="K102" s="3">
         <v>88100</v>

--- a/AAII_Financials/Yearly/GDS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GDS_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,190 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1122900</v>
+        <v>1325600</v>
       </c>
       <c r="E8" s="3">
-        <v>824200</v>
+        <v>1111400</v>
       </c>
       <c r="F8" s="3">
-        <v>592100</v>
+        <v>815800</v>
       </c>
       <c r="G8" s="3">
-        <v>401000</v>
+        <v>586000</v>
       </c>
       <c r="H8" s="3">
-        <v>232100</v>
+        <v>396900</v>
       </c>
       <c r="I8" s="3">
-        <v>151700</v>
+        <v>229700</v>
       </c>
       <c r="J8" s="3">
+        <v>150100</v>
+      </c>
+      <c r="K8" s="3">
         <v>101100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>73900</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>867400</v>
+        <v>1050500</v>
       </c>
       <c r="E9" s="3">
-        <v>601600</v>
+        <v>858500</v>
       </c>
       <c r="F9" s="3">
-        <v>442300</v>
+        <v>595400</v>
       </c>
       <c r="G9" s="3">
-        <v>311600</v>
+        <v>437800</v>
       </c>
       <c r="H9" s="3">
-        <v>173400</v>
+        <v>308400</v>
       </c>
       <c r="I9" s="3">
-        <v>113500</v>
+        <v>171700</v>
       </c>
       <c r="J9" s="3">
+        <v>112300</v>
+      </c>
+      <c r="K9" s="3">
         <v>74000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>61200</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>255600</v>
+        <v>275200</v>
       </c>
       <c r="E10" s="3">
-        <v>222700</v>
+        <v>252900</v>
       </c>
       <c r="F10" s="3">
-        <v>149800</v>
+        <v>220400</v>
       </c>
       <c r="G10" s="3">
-        <v>89400</v>
+        <v>148200</v>
       </c>
       <c r="H10" s="3">
-        <v>58700</v>
+        <v>88500</v>
       </c>
       <c r="I10" s="3">
-        <v>38200</v>
+        <v>58100</v>
       </c>
       <c r="J10" s="3">
+        <v>37800</v>
+      </c>
+      <c r="K10" s="3">
         <v>27100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12600</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,47 +864,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E12" s="3">
         <v>4800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>300</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,20 +945,23 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1000</v>
       </c>
-      <c r="E14" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="3">
+        <v>-7800</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -959,8 +978,8 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -968,48 +987,54 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>19400</v>
+        <v>32000</v>
       </c>
       <c r="E15" s="3">
-        <v>17800</v>
+        <v>19200</v>
       </c>
       <c r="F15" s="3">
+        <v>17700</v>
+      </c>
+      <c r="G15" s="3">
         <v>1700</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1100</v>
       </c>
       <c r="H15" s="3">
         <v>1100</v>
       </c>
       <c r="I15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J15" s="3">
         <v>900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1100</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1022,86 +1047,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1040100</v>
+        <v>1218100</v>
       </c>
       <c r="E17" s="3">
-        <v>719700</v>
+        <v>1029500</v>
       </c>
       <c r="F17" s="3">
-        <v>523200</v>
+        <v>712300</v>
       </c>
       <c r="G17" s="3">
-        <v>376800</v>
+        <v>517800</v>
       </c>
       <c r="H17" s="3">
-        <v>220300</v>
+        <v>373000</v>
       </c>
       <c r="I17" s="3">
-        <v>157700</v>
+        <v>218000</v>
       </c>
       <c r="J17" s="3">
+        <v>156100</v>
+      </c>
+      <c r="K17" s="3">
         <v>101200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>85800</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>82800</v>
+        <v>107600</v>
       </c>
       <c r="E18" s="3">
-        <v>104600</v>
+        <v>82000</v>
       </c>
       <c r="F18" s="3">
-        <v>68900</v>
+        <v>103500</v>
       </c>
       <c r="G18" s="3">
-        <v>24200</v>
+        <v>68200</v>
       </c>
       <c r="H18" s="3">
-        <v>11800</v>
+        <v>23900</v>
       </c>
       <c r="I18" s="3">
-        <v>-6100</v>
+        <v>11700</v>
       </c>
       <c r="J18" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-11900</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1117,203 +1149,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>18600</v>
+        <v>20100</v>
       </c>
       <c r="E20" s="3">
+        <v>18400</v>
+      </c>
+      <c r="F20" s="3">
         <v>5700</v>
       </c>
-      <c r="F20" s="3">
-        <v>9000</v>
-      </c>
       <c r="G20" s="3">
-        <v>6900</v>
+        <v>8900</v>
       </c>
       <c r="H20" s="3">
+        <v>6800</v>
+      </c>
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>11500</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>477900</v>
+        <v>583400</v>
       </c>
       <c r="E21" s="3">
-        <v>346100</v>
+        <v>474300</v>
       </c>
       <c r="F21" s="3">
-        <v>242200</v>
+        <v>343300</v>
       </c>
       <c r="G21" s="3">
-        <v>137800</v>
+        <v>240300</v>
       </c>
       <c r="H21" s="3">
-        <v>65800</v>
+        <v>136700</v>
       </c>
       <c r="I21" s="3">
-        <v>29900</v>
+        <v>65300</v>
       </c>
       <c r="J21" s="3">
+        <v>29700</v>
+      </c>
+      <c r="K21" s="3">
         <v>23300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>12700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>237700</v>
+        <v>268400</v>
       </c>
       <c r="E22" s="3">
-        <v>189100</v>
+        <v>235200</v>
       </c>
       <c r="F22" s="3">
-        <v>139100</v>
+        <v>187100</v>
       </c>
       <c r="G22" s="3">
-        <v>94200</v>
+        <v>137700</v>
       </c>
       <c r="H22" s="3">
-        <v>59200</v>
+        <v>93300</v>
       </c>
       <c r="I22" s="3">
-        <v>38100</v>
+        <v>58600</v>
       </c>
       <c r="J22" s="3">
+        <v>37700</v>
+      </c>
+      <c r="K22" s="3">
         <v>18200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>20800</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-136300</v>
+        <v>-140700</v>
       </c>
       <c r="E23" s="3">
-        <v>-78800</v>
+        <v>-134900</v>
       </c>
       <c r="F23" s="3">
-        <v>-61200</v>
+        <v>-78000</v>
       </c>
       <c r="G23" s="3">
-        <v>-63100</v>
+        <v>-60600</v>
       </c>
       <c r="H23" s="3">
-        <v>-47800</v>
+        <v>-62500</v>
       </c>
       <c r="I23" s="3">
-        <v>-40900</v>
+        <v>-47300</v>
       </c>
       <c r="J23" s="3">
+        <v>-40500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-15900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-21200</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>34800</v>
+        <v>39300</v>
       </c>
       <c r="E24" s="3">
-        <v>17300</v>
+        <v>34500</v>
       </c>
       <c r="F24" s="3">
+        <v>17200</v>
+      </c>
+      <c r="G24" s="3">
         <v>2200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-700</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,87 +1398,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-171100</v>
+        <v>-180000</v>
       </c>
       <c r="E26" s="3">
-        <v>-96100</v>
+        <v>-169300</v>
       </c>
       <c r="F26" s="3">
-        <v>-63500</v>
+        <v>-95100</v>
       </c>
       <c r="G26" s="3">
-        <v>-61800</v>
+        <v>-62800</v>
       </c>
       <c r="H26" s="3">
-        <v>-46900</v>
+        <v>-61200</v>
       </c>
       <c r="I26" s="3">
-        <v>-39700</v>
+        <v>-46500</v>
       </c>
       <c r="J26" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-14200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-20500</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-188700</v>
+        <v>-214600</v>
       </c>
       <c r="E27" s="3">
-        <v>-106000</v>
+        <v>-186800</v>
       </c>
       <c r="F27" s="3">
-        <v>-71800</v>
+        <v>-104900</v>
       </c>
       <c r="G27" s="3">
-        <v>-61800</v>
+        <v>-71100</v>
       </c>
       <c r="H27" s="3">
-        <v>-46900</v>
+        <v>-61200</v>
       </c>
       <c r="I27" s="3">
-        <v>-57900</v>
+        <v>-46500</v>
       </c>
       <c r="J27" s="3">
+        <v>-57300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-31100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-48800</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1467,9 +1524,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1506,9 +1566,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1545,9 +1608,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1584,87 +1650,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-18600</v>
+        <v>-20100</v>
       </c>
       <c r="E32" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-5700</v>
       </c>
-      <c r="F32" s="3">
-        <v>-9000</v>
-      </c>
       <c r="G32" s="3">
-        <v>-6900</v>
+        <v>-8900</v>
       </c>
       <c r="H32" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-11500</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-188700</v>
+        <v>-214600</v>
       </c>
       <c r="E33" s="3">
-        <v>-106000</v>
+        <v>-186800</v>
       </c>
       <c r="F33" s="3">
-        <v>-71800</v>
+        <v>-104900</v>
       </c>
       <c r="G33" s="3">
-        <v>-61800</v>
+        <v>-71100</v>
       </c>
       <c r="H33" s="3">
-        <v>-46900</v>
+        <v>-61200</v>
       </c>
       <c r="I33" s="3">
-        <v>-57900</v>
+        <v>-46500</v>
       </c>
       <c r="J33" s="3">
+        <v>-57300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-31100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-48800</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1701,92 +1776,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-188700</v>
+        <v>-214600</v>
       </c>
       <c r="E35" s="3">
-        <v>-106000</v>
+        <v>-186800</v>
       </c>
       <c r="F35" s="3">
-        <v>-71800</v>
+        <v>-104900</v>
       </c>
       <c r="G35" s="3">
-        <v>-61800</v>
+        <v>-71100</v>
       </c>
       <c r="H35" s="3">
-        <v>-46900</v>
+        <v>-61200</v>
       </c>
       <c r="I35" s="3">
-        <v>-57900</v>
+        <v>-46500</v>
       </c>
       <c r="J35" s="3">
+        <v>-57300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-31100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-48800</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1802,8 +1886,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1819,47 +1904,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1431600</v>
+        <v>1223600</v>
       </c>
       <c r="E41" s="3">
-        <v>2335200</v>
+        <v>1417000</v>
       </c>
       <c r="F41" s="3">
-        <v>834600</v>
+        <v>2311300</v>
       </c>
       <c r="G41" s="3">
-        <v>310500</v>
+        <v>826000</v>
       </c>
       <c r="H41" s="3">
-        <v>269100</v>
+        <v>307300</v>
       </c>
       <c r="I41" s="3">
-        <v>260100</v>
+        <v>266300</v>
       </c>
       <c r="J41" s="3">
+        <v>257500</v>
+      </c>
+      <c r="K41" s="3">
         <v>132800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>95700</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1896,48 +1985,54 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>281800</v>
+        <v>365400</v>
       </c>
       <c r="E43" s="3">
-        <v>235000</v>
+        <v>278900</v>
       </c>
       <c r="F43" s="3">
-        <v>145000</v>
+        <v>232600</v>
       </c>
       <c r="G43" s="3">
-        <v>100600</v>
+        <v>143600</v>
       </c>
       <c r="H43" s="3">
-        <v>68500</v>
+        <v>99600</v>
       </c>
       <c r="I43" s="3">
-        <v>39100</v>
+        <v>67800</v>
       </c>
       <c r="J43" s="3">
+        <v>38700</v>
+      </c>
+      <c r="K43" s="3">
         <v>24600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>14600</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1974,113 +2069,122 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>363900</v>
+        <v>109800</v>
       </c>
       <c r="E45" s="3">
-        <v>60800</v>
+        <v>360200</v>
       </c>
       <c r="F45" s="3">
-        <v>37900</v>
+        <v>60200</v>
       </c>
       <c r="G45" s="3">
-        <v>25200</v>
+        <v>37500</v>
       </c>
       <c r="H45" s="3">
-        <v>14900</v>
+        <v>24900</v>
       </c>
       <c r="I45" s="3">
-        <v>18200</v>
+        <v>14700</v>
       </c>
       <c r="J45" s="3">
+        <v>18000</v>
+      </c>
+      <c r="K45" s="3">
         <v>13100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7300</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2077300</v>
+        <v>1698800</v>
       </c>
       <c r="E46" s="3">
-        <v>2630900</v>
+        <v>2056000</v>
       </c>
       <c r="F46" s="3">
-        <v>1017500</v>
+        <v>2604000</v>
       </c>
       <c r="G46" s="3">
-        <v>436200</v>
+        <v>1007100</v>
       </c>
       <c r="H46" s="3">
-        <v>352400</v>
+        <v>431800</v>
       </c>
       <c r="I46" s="3">
-        <v>317400</v>
+        <v>348800</v>
       </c>
       <c r="J46" s="3">
+        <v>314200</v>
+      </c>
+      <c r="K46" s="3">
         <v>170400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>117700</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>318700</v>
+        <v>164300</v>
       </c>
       <c r="E47" s="3">
-        <v>207600</v>
+        <v>315400</v>
       </c>
       <c r="F47" s="3">
-        <v>127600</v>
+        <v>205500</v>
       </c>
       <c r="G47" s="3">
-        <v>70200</v>
+        <v>126300</v>
       </c>
       <c r="H47" s="3">
-        <v>41700</v>
+        <v>69400</v>
       </c>
       <c r="I47" s="3">
-        <v>14200</v>
+        <v>41200</v>
       </c>
       <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
+        <v>14100</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
@@ -2091,87 +2195,96 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6413200</v>
+        <v>7470100</v>
       </c>
       <c r="E48" s="3">
-        <v>4690000</v>
+        <v>6347500</v>
       </c>
       <c r="F48" s="3">
-        <v>2869700</v>
+        <v>4642000</v>
       </c>
       <c r="G48" s="3">
-        <v>2010000</v>
+        <v>2840300</v>
       </c>
       <c r="H48" s="3">
-        <v>1172700</v>
+        <v>1989400</v>
       </c>
       <c r="I48" s="3">
-        <v>620900</v>
+        <v>1160700</v>
       </c>
       <c r="J48" s="3">
+        <v>614500</v>
+      </c>
+      <c r="K48" s="3">
         <v>360900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>267400</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1200500</v>
+        <v>1154900</v>
       </c>
       <c r="E49" s="3">
-        <v>485700</v>
+        <v>1188300</v>
       </c>
       <c r="F49" s="3">
-        <v>330400</v>
+        <v>480700</v>
       </c>
       <c r="G49" s="3">
-        <v>320900</v>
+        <v>327000</v>
       </c>
       <c r="H49" s="3">
-        <v>275600</v>
+        <v>317600</v>
       </c>
       <c r="I49" s="3">
-        <v>205900</v>
+        <v>272800</v>
       </c>
       <c r="J49" s="3">
+        <v>203800</v>
+      </c>
+      <c r="K49" s="3">
         <v>196800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>217500</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,9 +2321,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2247,48 +2363,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>278200</v>
+        <v>146800</v>
       </c>
       <c r="E52" s="3">
-        <v>209300</v>
+        <v>275300</v>
       </c>
       <c r="F52" s="3">
-        <v>177700</v>
+        <v>207100</v>
       </c>
       <c r="G52" s="3">
-        <v>162300</v>
+        <v>175900</v>
       </c>
       <c r="H52" s="3">
-        <v>45300</v>
+        <v>160600</v>
       </c>
       <c r="I52" s="3">
-        <v>19800</v>
+        <v>44900</v>
       </c>
       <c r="J52" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K52" s="3">
         <v>12500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5500</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2325,48 +2447,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10287900</v>
+        <v>10634800</v>
       </c>
       <c r="E54" s="3">
-        <v>8223500</v>
+        <v>10182600</v>
       </c>
       <c r="F54" s="3">
-        <v>4523000</v>
+        <v>8139300</v>
       </c>
       <c r="G54" s="3">
-        <v>2999500</v>
+        <v>4476700</v>
       </c>
       <c r="H54" s="3">
-        <v>1887800</v>
+        <v>2968800</v>
       </c>
       <c r="I54" s="3">
-        <v>1178200</v>
+        <v>1868500</v>
       </c>
       <c r="J54" s="3">
+        <v>1166200</v>
+      </c>
+      <c r="K54" s="3">
         <v>736500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>608000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2382,8 +2510,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2399,242 +2528,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>560400</v>
+        <v>439700</v>
       </c>
       <c r="E57" s="3">
-        <v>525200</v>
+        <v>554600</v>
       </c>
       <c r="F57" s="3">
-        <v>240700</v>
+        <v>519900</v>
       </c>
       <c r="G57" s="3">
-        <v>216600</v>
+        <v>238200</v>
       </c>
       <c r="H57" s="3">
-        <v>159500</v>
+        <v>214400</v>
       </c>
       <c r="I57" s="3">
-        <v>73800</v>
+        <v>157800</v>
       </c>
       <c r="J57" s="3">
+        <v>73000</v>
+      </c>
+      <c r="K57" s="3">
         <v>31000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>36600</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>954700</v>
+        <v>875900</v>
       </c>
       <c r="E58" s="3">
-        <v>345800</v>
+        <v>944900</v>
       </c>
       <c r="F58" s="3">
-        <v>195400</v>
+        <v>342300</v>
       </c>
       <c r="G58" s="3">
-        <v>208300</v>
+        <v>193400</v>
       </c>
       <c r="H58" s="3">
-        <v>127600</v>
+        <v>206100</v>
       </c>
       <c r="I58" s="3">
-        <v>103000</v>
+        <v>126300</v>
       </c>
       <c r="J58" s="3">
+        <v>101900</v>
+      </c>
+      <c r="K58" s="3">
         <v>78200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>79500</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>418800</v>
+        <v>191700</v>
       </c>
       <c r="E59" s="3">
-        <v>226800</v>
+        <v>414600</v>
       </c>
       <c r="F59" s="3">
-        <v>138400</v>
+        <v>224400</v>
       </c>
       <c r="G59" s="3">
-        <v>78900</v>
+        <v>136900</v>
       </c>
       <c r="H59" s="3">
-        <v>60900</v>
+        <v>78100</v>
       </c>
       <c r="I59" s="3">
-        <v>35700</v>
+        <v>60300</v>
       </c>
       <c r="J59" s="3">
+        <v>35300</v>
+      </c>
+      <c r="K59" s="3">
         <v>23700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>25500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1933900</v>
+        <v>1507300</v>
       </c>
       <c r="E60" s="3">
-        <v>1097800</v>
+        <v>1914100</v>
       </c>
       <c r="F60" s="3">
-        <v>574400</v>
+        <v>1086600</v>
       </c>
       <c r="G60" s="3">
-        <v>503800</v>
+        <v>568500</v>
       </c>
       <c r="H60" s="3">
-        <v>348000</v>
+        <v>498600</v>
       </c>
       <c r="I60" s="3">
-        <v>212400</v>
+        <v>344400</v>
       </c>
       <c r="J60" s="3">
+        <v>210300</v>
+      </c>
+      <c r="K60" s="3">
         <v>132900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>141600</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4181300</v>
+        <v>5221100</v>
       </c>
       <c r="E61" s="3">
-        <v>2957600</v>
+        <v>4138500</v>
       </c>
       <c r="F61" s="3">
-        <v>2129800</v>
+        <v>2927300</v>
       </c>
       <c r="G61" s="3">
-        <v>1629000</v>
+        <v>2108000</v>
       </c>
       <c r="H61" s="3">
-        <v>827700</v>
+        <v>1612400</v>
       </c>
       <c r="I61" s="3">
-        <v>513200</v>
+        <v>819200</v>
       </c>
       <c r="J61" s="3">
+        <v>507900</v>
+      </c>
+      <c r="K61" s="3">
         <v>291800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>116600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>453400</v>
+        <v>468600</v>
       </c>
       <c r="E62" s="3">
-        <v>338100</v>
+        <v>448800</v>
       </c>
       <c r="F62" s="3">
-        <v>187900</v>
+        <v>334600</v>
       </c>
       <c r="G62" s="3">
-        <v>73600</v>
+        <v>186000</v>
       </c>
       <c r="H62" s="3">
-        <v>69400</v>
+        <v>72900</v>
       </c>
       <c r="I62" s="3">
-        <v>23700</v>
+        <v>68700</v>
       </c>
       <c r="J62" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K62" s="3">
         <v>16800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2671,9 +2819,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2710,9 +2861,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2749,48 +2903,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6635300</v>
+        <v>7213500</v>
       </c>
       <c r="E66" s="3">
-        <v>4410800</v>
+        <v>6567300</v>
       </c>
       <c r="F66" s="3">
-        <v>2892100</v>
+        <v>4365700</v>
       </c>
       <c r="G66" s="3">
-        <v>2206500</v>
+        <v>2862500</v>
       </c>
       <c r="H66" s="3">
-        <v>1245000</v>
+        <v>2183900</v>
       </c>
       <c r="I66" s="3">
-        <v>749300</v>
+        <v>1232300</v>
       </c>
       <c r="J66" s="3">
+        <v>741700</v>
+      </c>
+      <c r="K66" s="3">
         <v>441400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>269200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2806,8 +2966,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2844,9 +3005,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2883,23 +3047,26 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>137700</v>
+        <v>148800</v>
       </c>
       <c r="E70" s="3">
-        <v>140900</v>
+        <v>136200</v>
       </c>
       <c r="F70" s="3">
-        <v>152500</v>
+        <v>139400</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>151000</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2908,23 +3075,26 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>344000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>341400</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2961,48 +3131,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-561700</v>
+        <v>-736300</v>
       </c>
       <c r="E72" s="3">
-        <v>-391200</v>
+        <v>-555900</v>
       </c>
       <c r="F72" s="3">
-        <v>-295500</v>
+        <v>-387200</v>
       </c>
       <c r="G72" s="3">
-        <v>-232000</v>
+        <v>-292400</v>
       </c>
       <c r="H72" s="3">
-        <v>-170300</v>
+        <v>-229600</v>
       </c>
       <c r="I72" s="3">
-        <v>-123300</v>
+        <v>-168500</v>
       </c>
       <c r="J72" s="3">
+        <v>-122100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-83600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-76300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3039,9 +3215,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3078,9 +3257,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3117,48 +3299,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3514900</v>
+        <v>3272500</v>
       </c>
       <c r="E76" s="3">
-        <v>3671800</v>
+        <v>3479000</v>
       </c>
       <c r="F76" s="3">
-        <v>1478400</v>
+        <v>3634200</v>
       </c>
       <c r="G76" s="3">
-        <v>793100</v>
+        <v>1463200</v>
       </c>
       <c r="H76" s="3">
-        <v>642800</v>
+        <v>784900</v>
       </c>
       <c r="I76" s="3">
-        <v>428900</v>
+        <v>636200</v>
       </c>
       <c r="J76" s="3">
+        <v>424500</v>
+      </c>
+      <c r="K76" s="3">
         <v>-48900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2600</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,92 +3383,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-188700</v>
+        <v>-214600</v>
       </c>
       <c r="E81" s="3">
-        <v>-106000</v>
+        <v>-186800</v>
       </c>
       <c r="F81" s="3">
-        <v>-71800</v>
+        <v>-104900</v>
       </c>
       <c r="G81" s="3">
-        <v>-61800</v>
+        <v>-71100</v>
       </c>
       <c r="H81" s="3">
-        <v>-46900</v>
+        <v>-61200</v>
       </c>
       <c r="I81" s="3">
-        <v>-57900</v>
+        <v>-46500</v>
       </c>
       <c r="J81" s="3">
+        <v>-57300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-31100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-48800</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3296,47 +3493,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>375800</v>
+        <v>453300</v>
       </c>
       <c r="E83" s="3">
-        <v>235300</v>
+        <v>372000</v>
       </c>
       <c r="F83" s="3">
-        <v>164000</v>
+        <v>232900</v>
       </c>
       <c r="G83" s="3">
-        <v>106500</v>
+        <v>162300</v>
       </c>
       <c r="H83" s="3">
-        <v>54300</v>
+        <v>105400</v>
       </c>
       <c r="I83" s="3">
-        <v>32700</v>
+        <v>53800</v>
       </c>
       <c r="J83" s="3">
+        <v>32300</v>
+      </c>
+      <c r="K83" s="3">
         <v>20900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>13100</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3373,9 +3574,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3412,9 +3616,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3451,9 +3658,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3490,9 +3700,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3529,48 +3742,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>172500</v>
+        <v>406300</v>
       </c>
       <c r="E89" s="3">
-        <v>46100</v>
+        <v>170800</v>
       </c>
       <c r="F89" s="3">
-        <v>42100</v>
+        <v>45600</v>
       </c>
       <c r="G89" s="3">
-        <v>-1900</v>
+        <v>41700</v>
       </c>
       <c r="H89" s="3">
-        <v>-24100</v>
+        <v>-1800</v>
       </c>
       <c r="I89" s="3">
-        <v>-18500</v>
+        <v>-23900</v>
       </c>
       <c r="J89" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-11500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4400</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3586,47 +3805,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1393200</v>
+        <v>-1115500</v>
       </c>
       <c r="E91" s="3">
-        <v>-1154300</v>
+        <v>-1378900</v>
       </c>
       <c r="F91" s="3">
-        <v>-654600</v>
+        <v>-1142500</v>
       </c>
       <c r="G91" s="3">
-        <v>-612000</v>
+        <v>-647900</v>
       </c>
       <c r="H91" s="3">
-        <v>-247100</v>
+        <v>-605700</v>
       </c>
       <c r="I91" s="3">
-        <v>-141900</v>
+        <v>-244500</v>
       </c>
       <c r="J91" s="3">
+        <v>-140400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-105300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-39200</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3663,9 +3886,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3702,48 +3928,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1966400</v>
+        <v>-1602700</v>
       </c>
       <c r="E94" s="3">
-        <v>-1346900</v>
+        <v>-1946300</v>
       </c>
       <c r="F94" s="3">
-        <v>-736900</v>
+        <v>-1333100</v>
       </c>
       <c r="G94" s="3">
-        <v>-679800</v>
+        <v>-729400</v>
       </c>
       <c r="H94" s="3">
-        <v>-288000</v>
+        <v>-672800</v>
       </c>
       <c r="I94" s="3">
-        <v>-164700</v>
+        <v>-285000</v>
       </c>
       <c r="J94" s="3">
+        <v>-163100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-105100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-82600</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3759,31 +3991,32 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-7100</v>
+        <v>-7300</v>
       </c>
       <c r="E96" s="3">
-        <v>-9400</v>
+        <v>-7000</v>
       </c>
       <c r="F96" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="G96" s="3">
         <v>-3600</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-11000</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-10900</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3797,9 +4030,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3836,9 +4072,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3875,9 +4114,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3914,124 +4156,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1166100</v>
+        <v>690300</v>
       </c>
       <c r="E100" s="3">
-        <v>2893000</v>
+        <v>1154100</v>
       </c>
       <c r="F100" s="3">
-        <v>1200900</v>
+        <v>2863400</v>
       </c>
       <c r="G100" s="3">
-        <v>700400</v>
+        <v>1188600</v>
       </c>
       <c r="H100" s="3">
-        <v>338300</v>
+        <v>693200</v>
       </c>
       <c r="I100" s="3">
-        <v>305700</v>
+        <v>334900</v>
       </c>
       <c r="J100" s="3">
+        <v>302600</v>
+      </c>
+      <c r="K100" s="3">
         <v>162000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>166600</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-13700</v>
+        <v>59200</v>
       </c>
       <c r="E101" s="3">
-        <v>-81400</v>
+        <v>-13600</v>
       </c>
       <c r="F101" s="3">
-        <v>23600</v>
+        <v>-80600</v>
       </c>
       <c r="G101" s="3">
-        <v>29600</v>
+        <v>23400</v>
       </c>
       <c r="H101" s="3">
-        <v>-10700</v>
+        <v>29300</v>
       </c>
       <c r="I101" s="3">
-        <v>8000</v>
+        <v>-10600</v>
       </c>
       <c r="J101" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-641500</v>
+        <v>-447000</v>
       </c>
       <c r="E102" s="3">
-        <v>1510800</v>
+        <v>-634900</v>
       </c>
       <c r="F102" s="3">
-        <v>529700</v>
+        <v>1495400</v>
       </c>
       <c r="G102" s="3">
-        <v>48400</v>
+        <v>524300</v>
       </c>
       <c r="H102" s="3">
-        <v>15600</v>
+        <v>47900</v>
       </c>
       <c r="I102" s="3">
-        <v>130400</v>
+        <v>15400</v>
       </c>
       <c r="J102" s="3">
+        <v>129100</v>
+      </c>
+      <c r="K102" s="3">
         <v>45600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>88100</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/GDS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GDS_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1325600</v>
+        <v>1284900</v>
       </c>
       <c r="E8" s="3">
-        <v>1111400</v>
+        <v>1077300</v>
       </c>
       <c r="F8" s="3">
-        <v>815800</v>
+        <v>790700</v>
       </c>
       <c r="G8" s="3">
-        <v>586000</v>
+        <v>568000</v>
       </c>
       <c r="H8" s="3">
-        <v>396900</v>
+        <v>384700</v>
       </c>
       <c r="I8" s="3">
-        <v>229700</v>
+        <v>222700</v>
       </c>
       <c r="J8" s="3">
-        <v>150100</v>
+        <v>145500</v>
       </c>
       <c r="K8" s="3">
         <v>101100</v>
@@ -769,25 +769,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1050500</v>
+        <v>1018200</v>
       </c>
       <c r="E9" s="3">
-        <v>858500</v>
+        <v>832100</v>
       </c>
       <c r="F9" s="3">
-        <v>595400</v>
+        <v>577100</v>
       </c>
       <c r="G9" s="3">
-        <v>437800</v>
+        <v>424300</v>
       </c>
       <c r="H9" s="3">
-        <v>308400</v>
+        <v>298900</v>
       </c>
       <c r="I9" s="3">
-        <v>171700</v>
+        <v>166400</v>
       </c>
       <c r="J9" s="3">
-        <v>112300</v>
+        <v>108900</v>
       </c>
       <c r="K9" s="3">
         <v>74000</v>
@@ -811,25 +811,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>275200</v>
+        <v>266700</v>
       </c>
       <c r="E10" s="3">
-        <v>252900</v>
+        <v>245200</v>
       </c>
       <c r="F10" s="3">
-        <v>220400</v>
+        <v>213600</v>
       </c>
       <c r="G10" s="3">
-        <v>148200</v>
+        <v>143700</v>
       </c>
       <c r="H10" s="3">
-        <v>88500</v>
+        <v>85800</v>
       </c>
       <c r="I10" s="3">
-        <v>58100</v>
+        <v>56300</v>
       </c>
       <c r="J10" s="3">
-        <v>37800</v>
+        <v>36600</v>
       </c>
       <c r="K10" s="3">
         <v>27100</v>
@@ -871,22 +871,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="E12" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="F12" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="G12" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H12" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I12" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="J12" s="3">
         <v>1200</v>
@@ -955,13 +955,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-27300</v>
+        <v>-26500</v>
       </c>
       <c r="E14" s="3">
         <v>-1000</v>
       </c>
       <c r="F14" s="3">
-        <v>-7800</v>
+        <v>-7600</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -997,25 +997,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>32000</v>
+        <v>31000</v>
       </c>
       <c r="E15" s="3">
-        <v>19200</v>
+        <v>18600</v>
       </c>
       <c r="F15" s="3">
-        <v>17700</v>
+        <v>17100</v>
       </c>
       <c r="G15" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="H15" s="3">
         <v>1100</v>
       </c>
       <c r="I15" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="J15" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K15" s="3">
         <v>700</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1218100</v>
+        <v>1180600</v>
       </c>
       <c r="E17" s="3">
-        <v>1029500</v>
+        <v>997800</v>
       </c>
       <c r="F17" s="3">
-        <v>712300</v>
+        <v>690400</v>
       </c>
       <c r="G17" s="3">
-        <v>517800</v>
+        <v>501900</v>
       </c>
       <c r="H17" s="3">
-        <v>373000</v>
+        <v>361500</v>
       </c>
       <c r="I17" s="3">
-        <v>218000</v>
+        <v>211300</v>
       </c>
       <c r="J17" s="3">
-        <v>156100</v>
+        <v>151300</v>
       </c>
       <c r="K17" s="3">
         <v>101200</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>107600</v>
+        <v>104300</v>
       </c>
       <c r="E18" s="3">
-        <v>82000</v>
+        <v>79400</v>
       </c>
       <c r="F18" s="3">
-        <v>103500</v>
+        <v>100300</v>
       </c>
       <c r="G18" s="3">
-        <v>68200</v>
+        <v>66100</v>
       </c>
       <c r="H18" s="3">
-        <v>23900</v>
+        <v>23200</v>
       </c>
       <c r="I18" s="3">
-        <v>11700</v>
+        <v>11300</v>
       </c>
       <c r="J18" s="3">
-        <v>-6000</v>
+        <v>-5800</v>
       </c>
       <c r="K18" s="3">
         <v>-200</v>
@@ -1156,25 +1156,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>20100</v>
+        <v>19500</v>
       </c>
       <c r="E20" s="3">
-        <v>18400</v>
+        <v>17800</v>
       </c>
       <c r="F20" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="G20" s="3">
-        <v>8900</v>
+        <v>8600</v>
       </c>
       <c r="H20" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="I20" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="J20" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="K20" s="3">
         <v>2500</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>583400</v>
+        <v>563100</v>
       </c>
       <c r="E21" s="3">
-        <v>474300</v>
+        <v>457800</v>
       </c>
       <c r="F21" s="3">
-        <v>343300</v>
+        <v>331600</v>
       </c>
       <c r="G21" s="3">
-        <v>240300</v>
+        <v>232100</v>
       </c>
       <c r="H21" s="3">
-        <v>136700</v>
+        <v>132000</v>
       </c>
       <c r="I21" s="3">
-        <v>65300</v>
+        <v>63000</v>
       </c>
       <c r="J21" s="3">
-        <v>29700</v>
+        <v>28600</v>
       </c>
       <c r="K21" s="3">
         <v>23300</v>
@@ -1240,25 +1240,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>268400</v>
+        <v>260100</v>
       </c>
       <c r="E22" s="3">
-        <v>235200</v>
+        <v>228000</v>
       </c>
       <c r="F22" s="3">
-        <v>187100</v>
+        <v>181400</v>
       </c>
       <c r="G22" s="3">
-        <v>137700</v>
+        <v>133500</v>
       </c>
       <c r="H22" s="3">
-        <v>93300</v>
+        <v>90400</v>
       </c>
       <c r="I22" s="3">
-        <v>58600</v>
+        <v>56800</v>
       </c>
       <c r="J22" s="3">
-        <v>37700</v>
+        <v>36500</v>
       </c>
       <c r="K22" s="3">
         <v>18200</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-140700</v>
+        <v>-136400</v>
       </c>
       <c r="E23" s="3">
-        <v>-134900</v>
+        <v>-130700</v>
       </c>
       <c r="F23" s="3">
-        <v>-78000</v>
+        <v>-75600</v>
       </c>
       <c r="G23" s="3">
+        <v>-58800</v>
+      </c>
+      <c r="H23" s="3">
         <v>-60600</v>
       </c>
-      <c r="H23" s="3">
-        <v>-62500</v>
-      </c>
       <c r="I23" s="3">
-        <v>-47300</v>
+        <v>-45900</v>
       </c>
       <c r="J23" s="3">
-        <v>-40500</v>
+        <v>-39200</v>
       </c>
       <c r="K23" s="3">
         <v>-15900</v>
@@ -1324,13 +1324,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>39300</v>
+        <v>38100</v>
       </c>
       <c r="E24" s="3">
-        <v>34500</v>
+        <v>33400</v>
       </c>
       <c r="F24" s="3">
-        <v>17200</v>
+        <v>16600</v>
       </c>
       <c r="G24" s="3">
         <v>2200</v>
@@ -1339,10 +1339,10 @@
         <v>-1300</v>
       </c>
       <c r="I24" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="J24" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="K24" s="3">
         <v>-1700</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-180000</v>
+        <v>-174400</v>
       </c>
       <c r="E26" s="3">
-        <v>-169300</v>
+        <v>-164100</v>
       </c>
       <c r="F26" s="3">
-        <v>-95100</v>
+        <v>-92200</v>
       </c>
       <c r="G26" s="3">
-        <v>-62800</v>
+        <v>-60900</v>
       </c>
       <c r="H26" s="3">
-        <v>-61200</v>
+        <v>-59300</v>
       </c>
       <c r="I26" s="3">
-        <v>-46500</v>
+        <v>-45000</v>
       </c>
       <c r="J26" s="3">
-        <v>-39300</v>
+        <v>-38100</v>
       </c>
       <c r="K26" s="3">
         <v>-14200</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-214600</v>
+        <v>-208000</v>
       </c>
       <c r="E27" s="3">
-        <v>-186800</v>
+        <v>-181000</v>
       </c>
       <c r="F27" s="3">
-        <v>-104900</v>
+        <v>-101600</v>
       </c>
       <c r="G27" s="3">
-        <v>-71100</v>
+        <v>-68900</v>
       </c>
       <c r="H27" s="3">
-        <v>-61200</v>
+        <v>-59300</v>
       </c>
       <c r="I27" s="3">
-        <v>-46500</v>
+        <v>-45000</v>
       </c>
       <c r="J27" s="3">
-        <v>-57300</v>
+        <v>-55600</v>
       </c>
       <c r="K27" s="3">
         <v>-31100</v>
@@ -1660,25 +1660,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-20100</v>
+        <v>-19500</v>
       </c>
       <c r="E32" s="3">
-        <v>-18400</v>
+        <v>-17800</v>
       </c>
       <c r="F32" s="3">
-        <v>-5700</v>
+        <v>-5500</v>
       </c>
       <c r="G32" s="3">
-        <v>-8900</v>
+        <v>-8600</v>
       </c>
       <c r="H32" s="3">
-        <v>-6800</v>
+        <v>-6600</v>
       </c>
       <c r="I32" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J32" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="K32" s="3">
         <v>-2500</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-214600</v>
+        <v>-208000</v>
       </c>
       <c r="E33" s="3">
-        <v>-186800</v>
+        <v>-181000</v>
       </c>
       <c r="F33" s="3">
-        <v>-104900</v>
+        <v>-101600</v>
       </c>
       <c r="G33" s="3">
-        <v>-71100</v>
+        <v>-68900</v>
       </c>
       <c r="H33" s="3">
-        <v>-61200</v>
+        <v>-59300</v>
       </c>
       <c r="I33" s="3">
-        <v>-46500</v>
+        <v>-45000</v>
       </c>
       <c r="J33" s="3">
-        <v>-57300</v>
+        <v>-55600</v>
       </c>
       <c r="K33" s="3">
         <v>-31100</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-214600</v>
+        <v>-208000</v>
       </c>
       <c r="E35" s="3">
-        <v>-186800</v>
+        <v>-181000</v>
       </c>
       <c r="F35" s="3">
-        <v>-104900</v>
+        <v>-101600</v>
       </c>
       <c r="G35" s="3">
-        <v>-71100</v>
+        <v>-68900</v>
       </c>
       <c r="H35" s="3">
-        <v>-61200</v>
+        <v>-59300</v>
       </c>
       <c r="I35" s="3">
-        <v>-46500</v>
+        <v>-45000</v>
       </c>
       <c r="J35" s="3">
-        <v>-57300</v>
+        <v>-55600</v>
       </c>
       <c r="K35" s="3">
         <v>-31100</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1223600</v>
+        <v>1186000</v>
       </c>
       <c r="E41" s="3">
-        <v>1417000</v>
+        <v>1373400</v>
       </c>
       <c r="F41" s="3">
-        <v>2311300</v>
+        <v>2240200</v>
       </c>
       <c r="G41" s="3">
-        <v>826000</v>
+        <v>800600</v>
       </c>
       <c r="H41" s="3">
-        <v>307300</v>
+        <v>297800</v>
       </c>
       <c r="I41" s="3">
-        <v>266300</v>
+        <v>258100</v>
       </c>
       <c r="J41" s="3">
-        <v>257500</v>
+        <v>249600</v>
       </c>
       <c r="K41" s="3">
         <v>132800</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>365400</v>
+        <v>354200</v>
       </c>
       <c r="E43" s="3">
-        <v>278900</v>
+        <v>270300</v>
       </c>
       <c r="F43" s="3">
-        <v>232600</v>
+        <v>225400</v>
       </c>
       <c r="G43" s="3">
-        <v>143600</v>
+        <v>139200</v>
       </c>
       <c r="H43" s="3">
-        <v>99600</v>
+        <v>96500</v>
       </c>
       <c r="I43" s="3">
-        <v>67800</v>
+        <v>65700</v>
       </c>
       <c r="J43" s="3">
-        <v>38700</v>
+        <v>37500</v>
       </c>
       <c r="K43" s="3">
         <v>24600</v>
@@ -2079,25 +2079,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>109800</v>
+        <v>106400</v>
       </c>
       <c r="E45" s="3">
-        <v>360200</v>
+        <v>349100</v>
       </c>
       <c r="F45" s="3">
-        <v>60200</v>
+        <v>58300</v>
       </c>
       <c r="G45" s="3">
-        <v>37500</v>
+        <v>36300</v>
       </c>
       <c r="H45" s="3">
-        <v>24900</v>
+        <v>24200</v>
       </c>
       <c r="I45" s="3">
-        <v>14700</v>
+        <v>14300</v>
       </c>
       <c r="J45" s="3">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="K45" s="3">
         <v>13100</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1698800</v>
+        <v>1646600</v>
       </c>
       <c r="E46" s="3">
-        <v>2056000</v>
+        <v>1992800</v>
       </c>
       <c r="F46" s="3">
-        <v>2604000</v>
+        <v>2524000</v>
       </c>
       <c r="G46" s="3">
-        <v>1007100</v>
+        <v>976100</v>
       </c>
       <c r="H46" s="3">
-        <v>431800</v>
+        <v>418500</v>
       </c>
       <c r="I46" s="3">
-        <v>348800</v>
+        <v>338100</v>
       </c>
       <c r="J46" s="3">
-        <v>314200</v>
+        <v>304500</v>
       </c>
       <c r="K46" s="3">
         <v>170400</v>
@@ -2163,25 +2163,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>164300</v>
+        <v>159200</v>
       </c>
       <c r="E47" s="3">
-        <v>315400</v>
+        <v>305700</v>
       </c>
       <c r="F47" s="3">
-        <v>205500</v>
+        <v>199200</v>
       </c>
       <c r="G47" s="3">
-        <v>126300</v>
+        <v>122400</v>
       </c>
       <c r="H47" s="3">
-        <v>69400</v>
+        <v>67300</v>
       </c>
       <c r="I47" s="3">
-        <v>41200</v>
+        <v>40000</v>
       </c>
       <c r="J47" s="3">
-        <v>14100</v>
+        <v>13600</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2205,25 +2205,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7470100</v>
+        <v>7240400</v>
       </c>
       <c r="E48" s="3">
-        <v>6347500</v>
+        <v>6152400</v>
       </c>
       <c r="F48" s="3">
-        <v>4642000</v>
+        <v>4499300</v>
       </c>
       <c r="G48" s="3">
-        <v>2840300</v>
+        <v>2753000</v>
       </c>
       <c r="H48" s="3">
-        <v>1989400</v>
+        <v>1928200</v>
       </c>
       <c r="I48" s="3">
-        <v>1160700</v>
+        <v>1125100</v>
       </c>
       <c r="J48" s="3">
-        <v>614500</v>
+        <v>595600</v>
       </c>
       <c r="K48" s="3">
         <v>360900</v>
@@ -2247,25 +2247,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1154900</v>
+        <v>1119400</v>
       </c>
       <c r="E49" s="3">
-        <v>1188300</v>
+        <v>1151700</v>
       </c>
       <c r="F49" s="3">
-        <v>480700</v>
+        <v>465900</v>
       </c>
       <c r="G49" s="3">
-        <v>327000</v>
+        <v>317000</v>
       </c>
       <c r="H49" s="3">
-        <v>317600</v>
+        <v>307900</v>
       </c>
       <c r="I49" s="3">
-        <v>272800</v>
+        <v>264400</v>
       </c>
       <c r="J49" s="3">
-        <v>203800</v>
+        <v>197500</v>
       </c>
       <c r="K49" s="3">
         <v>196800</v>
@@ -2373,25 +2373,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>146800</v>
+        <v>142300</v>
       </c>
       <c r="E52" s="3">
-        <v>275300</v>
+        <v>266800</v>
       </c>
       <c r="F52" s="3">
-        <v>207100</v>
+        <v>200700</v>
       </c>
       <c r="G52" s="3">
-        <v>175900</v>
+        <v>170500</v>
       </c>
       <c r="H52" s="3">
-        <v>160600</v>
+        <v>155700</v>
       </c>
       <c r="I52" s="3">
-        <v>44900</v>
+        <v>43500</v>
       </c>
       <c r="J52" s="3">
-        <v>19600</v>
+        <v>19000</v>
       </c>
       <c r="K52" s="3">
         <v>12500</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10634800</v>
+        <v>10307900</v>
       </c>
       <c r="E54" s="3">
-        <v>10182600</v>
+        <v>9869500</v>
       </c>
       <c r="F54" s="3">
-        <v>8139300</v>
+        <v>7889100</v>
       </c>
       <c r="G54" s="3">
-        <v>4476700</v>
+        <v>4339000</v>
       </c>
       <c r="H54" s="3">
-        <v>2968800</v>
+        <v>2877600</v>
       </c>
       <c r="I54" s="3">
-        <v>1868500</v>
+        <v>1811100</v>
       </c>
       <c r="J54" s="3">
-        <v>1166200</v>
+        <v>1130300</v>
       </c>
       <c r="K54" s="3">
         <v>736500</v>
@@ -2535,25 +2535,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>439700</v>
+        <v>426100</v>
       </c>
       <c r="E57" s="3">
-        <v>554600</v>
+        <v>537600</v>
       </c>
       <c r="F57" s="3">
-        <v>519900</v>
+        <v>503900</v>
       </c>
       <c r="G57" s="3">
-        <v>238200</v>
+        <v>230900</v>
       </c>
       <c r="H57" s="3">
-        <v>214400</v>
+        <v>207800</v>
       </c>
       <c r="I57" s="3">
-        <v>157800</v>
+        <v>153000</v>
       </c>
       <c r="J57" s="3">
-        <v>73000</v>
+        <v>70800</v>
       </c>
       <c r="K57" s="3">
         <v>31000</v>
@@ -2577,25 +2577,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>875900</v>
+        <v>849000</v>
       </c>
       <c r="E58" s="3">
-        <v>944900</v>
+        <v>915800</v>
       </c>
       <c r="F58" s="3">
-        <v>342300</v>
+        <v>331700</v>
       </c>
       <c r="G58" s="3">
-        <v>193400</v>
+        <v>187400</v>
       </c>
       <c r="H58" s="3">
-        <v>206100</v>
+        <v>199800</v>
       </c>
       <c r="I58" s="3">
-        <v>126300</v>
+        <v>122400</v>
       </c>
       <c r="J58" s="3">
-        <v>101900</v>
+        <v>98800</v>
       </c>
       <c r="K58" s="3">
         <v>78200</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>191700</v>
+        <v>185800</v>
       </c>
       <c r="E59" s="3">
-        <v>414600</v>
+        <v>401800</v>
       </c>
       <c r="F59" s="3">
-        <v>224400</v>
+        <v>217500</v>
       </c>
       <c r="G59" s="3">
-        <v>136900</v>
+        <v>132700</v>
       </c>
       <c r="H59" s="3">
-        <v>78100</v>
+        <v>75700</v>
       </c>
       <c r="I59" s="3">
-        <v>60300</v>
+        <v>58500</v>
       </c>
       <c r="J59" s="3">
-        <v>35300</v>
+        <v>34300</v>
       </c>
       <c r="K59" s="3">
         <v>23700</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1507300</v>
+        <v>1460900</v>
       </c>
       <c r="E60" s="3">
-        <v>1914100</v>
+        <v>1855200</v>
       </c>
       <c r="F60" s="3">
-        <v>1086600</v>
+        <v>1053200</v>
       </c>
       <c r="G60" s="3">
-        <v>568500</v>
+        <v>551100</v>
       </c>
       <c r="H60" s="3">
-        <v>498600</v>
+        <v>483300</v>
       </c>
       <c r="I60" s="3">
-        <v>344400</v>
+        <v>333900</v>
       </c>
       <c r="J60" s="3">
-        <v>210300</v>
+        <v>203800</v>
       </c>
       <c r="K60" s="3">
         <v>132900</v>
@@ -2703,25 +2703,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5221100</v>
+        <v>5060600</v>
       </c>
       <c r="E61" s="3">
-        <v>4138500</v>
+        <v>4011300</v>
       </c>
       <c r="F61" s="3">
-        <v>2927300</v>
+        <v>2837300</v>
       </c>
       <c r="G61" s="3">
-        <v>2108000</v>
+        <v>2043200</v>
       </c>
       <c r="H61" s="3">
-        <v>1612400</v>
+        <v>1562800</v>
       </c>
       <c r="I61" s="3">
-        <v>819200</v>
+        <v>794000</v>
       </c>
       <c r="J61" s="3">
-        <v>507900</v>
+        <v>492300</v>
       </c>
       <c r="K61" s="3">
         <v>291800</v>
@@ -2745,25 +2745,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>468600</v>
+        <v>454200</v>
       </c>
       <c r="E62" s="3">
-        <v>448800</v>
+        <v>435000</v>
       </c>
       <c r="F62" s="3">
-        <v>334600</v>
+        <v>324400</v>
       </c>
       <c r="G62" s="3">
-        <v>186000</v>
+        <v>180200</v>
       </c>
       <c r="H62" s="3">
-        <v>72900</v>
+        <v>70600</v>
       </c>
       <c r="I62" s="3">
-        <v>68700</v>
+        <v>66600</v>
       </c>
       <c r="J62" s="3">
-        <v>23500</v>
+        <v>22700</v>
       </c>
       <c r="K62" s="3">
         <v>16800</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7213500</v>
+        <v>6991800</v>
       </c>
       <c r="E66" s="3">
-        <v>6567300</v>
+        <v>6365500</v>
       </c>
       <c r="F66" s="3">
-        <v>4365700</v>
+        <v>4231500</v>
       </c>
       <c r="G66" s="3">
-        <v>2862500</v>
+        <v>2774500</v>
       </c>
       <c r="H66" s="3">
-        <v>2183900</v>
+        <v>2116800</v>
       </c>
       <c r="I66" s="3">
-        <v>1232300</v>
+        <v>1194400</v>
       </c>
       <c r="J66" s="3">
-        <v>741700</v>
+        <v>718900</v>
       </c>
       <c r="K66" s="3">
         <v>441400</v>
@@ -3057,16 +3057,16 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>148800</v>
+        <v>144300</v>
       </c>
       <c r="E70" s="3">
-        <v>136200</v>
+        <v>132100</v>
       </c>
       <c r="F70" s="3">
-        <v>139400</v>
+        <v>135100</v>
       </c>
       <c r="G70" s="3">
-        <v>151000</v>
+        <v>146300</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-736300</v>
+        <v>-713700</v>
       </c>
       <c r="E72" s="3">
-        <v>-555900</v>
+        <v>-538800</v>
       </c>
       <c r="F72" s="3">
-        <v>-387200</v>
+        <v>-375300</v>
       </c>
       <c r="G72" s="3">
-        <v>-292400</v>
+        <v>-283400</v>
       </c>
       <c r="H72" s="3">
-        <v>-229600</v>
+        <v>-222500</v>
       </c>
       <c r="I72" s="3">
-        <v>-168500</v>
+        <v>-163300</v>
       </c>
       <c r="J72" s="3">
-        <v>-122100</v>
+        <v>-118300</v>
       </c>
       <c r="K72" s="3">
         <v>-83600</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3272500</v>
+        <v>3171800</v>
       </c>
       <c r="E76" s="3">
-        <v>3479000</v>
+        <v>3372000</v>
       </c>
       <c r="F76" s="3">
-        <v>3634200</v>
+        <v>3522500</v>
       </c>
       <c r="G76" s="3">
-        <v>1463200</v>
+        <v>1418300</v>
       </c>
       <c r="H76" s="3">
-        <v>784900</v>
+        <v>760800</v>
       </c>
       <c r="I76" s="3">
-        <v>636200</v>
+        <v>616600</v>
       </c>
       <c r="J76" s="3">
-        <v>424500</v>
+        <v>411500</v>
       </c>
       <c r="K76" s="3">
         <v>-48900</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-214600</v>
+        <v>-208000</v>
       </c>
       <c r="E81" s="3">
-        <v>-186800</v>
+        <v>-181000</v>
       </c>
       <c r="F81" s="3">
-        <v>-104900</v>
+        <v>-101600</v>
       </c>
       <c r="G81" s="3">
-        <v>-71100</v>
+        <v>-68900</v>
       </c>
       <c r="H81" s="3">
-        <v>-61200</v>
+        <v>-59300</v>
       </c>
       <c r="I81" s="3">
-        <v>-46500</v>
+        <v>-45000</v>
       </c>
       <c r="J81" s="3">
-        <v>-57300</v>
+        <v>-55600</v>
       </c>
       <c r="K81" s="3">
         <v>-31100</v>
@@ -3500,25 +3500,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>453300</v>
+        <v>439400</v>
       </c>
       <c r="E83" s="3">
-        <v>372000</v>
+        <v>360600</v>
       </c>
       <c r="F83" s="3">
-        <v>232900</v>
+        <v>225700</v>
       </c>
       <c r="G83" s="3">
-        <v>162300</v>
+        <v>157300</v>
       </c>
       <c r="H83" s="3">
-        <v>105400</v>
+        <v>102200</v>
       </c>
       <c r="I83" s="3">
-        <v>53800</v>
+        <v>52100</v>
       </c>
       <c r="J83" s="3">
-        <v>32300</v>
+        <v>31300</v>
       </c>
       <c r="K83" s="3">
         <v>20900</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>406300</v>
+        <v>393800</v>
       </c>
       <c r="E89" s="3">
-        <v>170800</v>
+        <v>165500</v>
       </c>
       <c r="F89" s="3">
-        <v>45600</v>
+        <v>44200</v>
       </c>
       <c r="G89" s="3">
-        <v>41700</v>
+        <v>40400</v>
       </c>
       <c r="H89" s="3">
         <v>-1800</v>
       </c>
       <c r="I89" s="3">
-        <v>-23900</v>
+        <v>-23100</v>
       </c>
       <c r="J89" s="3">
-        <v>-18300</v>
+        <v>-17800</v>
       </c>
       <c r="K89" s="3">
         <v>-11500</v>
@@ -3812,25 +3812,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1115500</v>
+        <v>-1081200</v>
       </c>
       <c r="E91" s="3">
-        <v>-1378900</v>
+        <v>-1336500</v>
       </c>
       <c r="F91" s="3">
-        <v>-1142500</v>
+        <v>-1107300</v>
       </c>
       <c r="G91" s="3">
-        <v>-647900</v>
+        <v>-628000</v>
       </c>
       <c r="H91" s="3">
-        <v>-605700</v>
+        <v>-587100</v>
       </c>
       <c r="I91" s="3">
-        <v>-244500</v>
+        <v>-237000</v>
       </c>
       <c r="J91" s="3">
-        <v>-140400</v>
+        <v>-136100</v>
       </c>
       <c r="K91" s="3">
         <v>-105300</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1602700</v>
+        <v>-1553500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1946300</v>
+        <v>-1886400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1333100</v>
+        <v>-1292100</v>
       </c>
       <c r="G94" s="3">
-        <v>-729400</v>
+        <v>-707000</v>
       </c>
       <c r="H94" s="3">
-        <v>-672800</v>
+        <v>-652100</v>
       </c>
       <c r="I94" s="3">
-        <v>-285000</v>
+        <v>-276300</v>
       </c>
       <c r="J94" s="3">
-        <v>-163100</v>
+        <v>-158000</v>
       </c>
       <c r="K94" s="3">
         <v>-105100</v>
@@ -3998,16 +3998,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-7300</v>
+        <v>-7100</v>
       </c>
       <c r="E96" s="3">
-        <v>-7000</v>
+        <v>-6800</v>
       </c>
       <c r="F96" s="3">
-        <v>-9300</v>
+        <v>-9000</v>
       </c>
       <c r="G96" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-10900</v>
+        <v>-10500</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>690300</v>
+        <v>669100</v>
       </c>
       <c r="E100" s="3">
-        <v>1154100</v>
+        <v>1118700</v>
       </c>
       <c r="F100" s="3">
-        <v>2863400</v>
+        <v>2775400</v>
       </c>
       <c r="G100" s="3">
-        <v>1188600</v>
+        <v>1152100</v>
       </c>
       <c r="H100" s="3">
-        <v>693200</v>
+        <v>671900</v>
       </c>
       <c r="I100" s="3">
-        <v>334900</v>
+        <v>324600</v>
       </c>
       <c r="J100" s="3">
-        <v>302600</v>
+        <v>293300</v>
       </c>
       <c r="K100" s="3">
         <v>162000</v>
@@ -4208,25 +4208,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>59200</v>
+        <v>57300</v>
       </c>
       <c r="E101" s="3">
-        <v>-13600</v>
+        <v>-13200</v>
       </c>
       <c r="F101" s="3">
-        <v>-80600</v>
+        <v>-78100</v>
       </c>
       <c r="G101" s="3">
-        <v>23400</v>
+        <v>22600</v>
       </c>
       <c r="H101" s="3">
-        <v>29300</v>
+        <v>28400</v>
       </c>
       <c r="I101" s="3">
-        <v>-10600</v>
+        <v>-10200</v>
       </c>
       <c r="J101" s="3">
-        <v>7900</v>
+        <v>7600</v>
       </c>
       <c r="K101" s="3">
         <v>300</v>
@@ -4250,25 +4250,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-447000</v>
+        <v>-433200</v>
       </c>
       <c r="E102" s="3">
-        <v>-634900</v>
+        <v>-615400</v>
       </c>
       <c r="F102" s="3">
-        <v>1495400</v>
+        <v>1449400</v>
       </c>
       <c r="G102" s="3">
-        <v>524300</v>
+        <v>508200</v>
       </c>
       <c r="H102" s="3">
-        <v>47900</v>
+        <v>46500</v>
       </c>
       <c r="I102" s="3">
-        <v>15400</v>
+        <v>15000</v>
       </c>
       <c r="J102" s="3">
-        <v>129100</v>
+        <v>125100</v>
       </c>
       <c r="K102" s="3">
         <v>45600</v>

--- a/AAII_Financials/Yearly/GDS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GDS_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1284900</v>
+        <v>1287700</v>
       </c>
       <c r="E8" s="3">
-        <v>1077300</v>
+        <v>1079600</v>
       </c>
       <c r="F8" s="3">
-        <v>790700</v>
+        <v>792400</v>
       </c>
       <c r="G8" s="3">
-        <v>568000</v>
+        <v>569200</v>
       </c>
       <c r="H8" s="3">
-        <v>384700</v>
+        <v>385500</v>
       </c>
       <c r="I8" s="3">
-        <v>222700</v>
+        <v>223200</v>
       </c>
       <c r="J8" s="3">
-        <v>145500</v>
+        <v>145800</v>
       </c>
       <c r="K8" s="3">
         <v>101100</v>
@@ -769,25 +769,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1018200</v>
+        <v>1020400</v>
       </c>
       <c r="E9" s="3">
-        <v>832100</v>
+        <v>833900</v>
       </c>
       <c r="F9" s="3">
-        <v>577100</v>
+        <v>578400</v>
       </c>
       <c r="G9" s="3">
-        <v>424300</v>
+        <v>425200</v>
       </c>
       <c r="H9" s="3">
-        <v>298900</v>
+        <v>299600</v>
       </c>
       <c r="I9" s="3">
-        <v>166400</v>
+        <v>166800</v>
       </c>
       <c r="J9" s="3">
-        <v>108900</v>
+        <v>109100</v>
       </c>
       <c r="K9" s="3">
         <v>74000</v>
@@ -811,25 +811,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>266700</v>
+        <v>267300</v>
       </c>
       <c r="E10" s="3">
-        <v>245200</v>
+        <v>245700</v>
       </c>
       <c r="F10" s="3">
-        <v>213600</v>
+        <v>214100</v>
       </c>
       <c r="G10" s="3">
-        <v>143700</v>
+        <v>144000</v>
       </c>
       <c r="H10" s="3">
-        <v>85800</v>
+        <v>85900</v>
       </c>
       <c r="I10" s="3">
-        <v>56300</v>
+        <v>56400</v>
       </c>
       <c r="J10" s="3">
-        <v>36600</v>
+        <v>36700</v>
       </c>
       <c r="K10" s="3">
         <v>27100</v>
@@ -871,7 +871,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="E12" s="3">
         <v>4600</v>
@@ -997,13 +997,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>31000</v>
+        <v>31100</v>
       </c>
       <c r="E15" s="3">
         <v>18600</v>
       </c>
       <c r="F15" s="3">
-        <v>17100</v>
+        <v>17200</v>
       </c>
       <c r="G15" s="3">
         <v>1600</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1180600</v>
+        <v>1183200</v>
       </c>
       <c r="E17" s="3">
-        <v>997800</v>
+        <v>1000000</v>
       </c>
       <c r="F17" s="3">
-        <v>690400</v>
+        <v>691900</v>
       </c>
       <c r="G17" s="3">
-        <v>501900</v>
+        <v>503000</v>
       </c>
       <c r="H17" s="3">
-        <v>361500</v>
+        <v>362300</v>
       </c>
       <c r="I17" s="3">
-        <v>211300</v>
+        <v>211800</v>
       </c>
       <c r="J17" s="3">
-        <v>151300</v>
+        <v>151700</v>
       </c>
       <c r="K17" s="3">
         <v>101200</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>104300</v>
+        <v>104500</v>
       </c>
       <c r="E18" s="3">
-        <v>79400</v>
+        <v>79600</v>
       </c>
       <c r="F18" s="3">
-        <v>100300</v>
+        <v>100500</v>
       </c>
       <c r="G18" s="3">
-        <v>66100</v>
+        <v>66200</v>
       </c>
       <c r="H18" s="3">
         <v>23200</v>
       </c>
       <c r="I18" s="3">
-        <v>11300</v>
+        <v>11400</v>
       </c>
       <c r="J18" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="K18" s="3">
         <v>-200</v>
@@ -1159,7 +1159,7 @@
         <v>19500</v>
       </c>
       <c r="E20" s="3">
-        <v>17800</v>
+        <v>17900</v>
       </c>
       <c r="F20" s="3">
         <v>5500</v>
@@ -1168,7 +1168,7 @@
         <v>8600</v>
       </c>
       <c r="H20" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="I20" s="3">
         <v>-400</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>563100</v>
+        <v>564100</v>
       </c>
       <c r="E21" s="3">
-        <v>457800</v>
+        <v>458600</v>
       </c>
       <c r="F21" s="3">
-        <v>331600</v>
+        <v>332200</v>
       </c>
       <c r="G21" s="3">
-        <v>232100</v>
+        <v>232500</v>
       </c>
       <c r="H21" s="3">
-        <v>132000</v>
+        <v>132200</v>
       </c>
       <c r="I21" s="3">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="J21" s="3">
-        <v>28600</v>
+        <v>28700</v>
       </c>
       <c r="K21" s="3">
         <v>23300</v>
@@ -1240,25 +1240,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>260100</v>
+        <v>260700</v>
       </c>
       <c r="E22" s="3">
-        <v>228000</v>
+        <v>228500</v>
       </c>
       <c r="F22" s="3">
-        <v>181400</v>
+        <v>181800</v>
       </c>
       <c r="G22" s="3">
-        <v>133500</v>
+        <v>133800</v>
       </c>
       <c r="H22" s="3">
-        <v>90400</v>
+        <v>90600</v>
       </c>
       <c r="I22" s="3">
-        <v>56800</v>
+        <v>56900</v>
       </c>
       <c r="J22" s="3">
-        <v>36500</v>
+        <v>36600</v>
       </c>
       <c r="K22" s="3">
         <v>18200</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-136400</v>
+        <v>-136700</v>
       </c>
       <c r="E23" s="3">
-        <v>-130700</v>
+        <v>-131000</v>
       </c>
       <c r="F23" s="3">
-        <v>-75600</v>
+        <v>-75700</v>
       </c>
       <c r="G23" s="3">
-        <v>-58800</v>
+        <v>-58900</v>
       </c>
       <c r="H23" s="3">
-        <v>-60600</v>
+        <v>-60700</v>
       </c>
       <c r="I23" s="3">
-        <v>-45900</v>
+        <v>-46000</v>
       </c>
       <c r="J23" s="3">
-        <v>-39200</v>
+        <v>-39300</v>
       </c>
       <c r="K23" s="3">
         <v>-15900</v>
@@ -1327,10 +1327,10 @@
         <v>38100</v>
       </c>
       <c r="E24" s="3">
-        <v>33400</v>
+        <v>33500</v>
       </c>
       <c r="F24" s="3">
-        <v>16600</v>
+        <v>16700</v>
       </c>
       <c r="G24" s="3">
         <v>2200</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-174400</v>
+        <v>-174800</v>
       </c>
       <c r="E26" s="3">
-        <v>-164100</v>
+        <v>-164500</v>
       </c>
       <c r="F26" s="3">
-        <v>-92200</v>
+        <v>-92400</v>
       </c>
       <c r="G26" s="3">
-        <v>-60900</v>
+        <v>-61000</v>
       </c>
       <c r="H26" s="3">
-        <v>-59300</v>
+        <v>-59400</v>
       </c>
       <c r="I26" s="3">
-        <v>-45000</v>
+        <v>-45100</v>
       </c>
       <c r="J26" s="3">
-        <v>-38100</v>
+        <v>-38200</v>
       </c>
       <c r="K26" s="3">
         <v>-14200</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-208000</v>
+        <v>-208500</v>
       </c>
       <c r="E27" s="3">
-        <v>-181000</v>
+        <v>-181400</v>
       </c>
       <c r="F27" s="3">
-        <v>-101600</v>
+        <v>-101900</v>
       </c>
       <c r="G27" s="3">
-        <v>-68900</v>
+        <v>-69100</v>
       </c>
       <c r="H27" s="3">
-        <v>-59300</v>
+        <v>-59400</v>
       </c>
       <c r="I27" s="3">
-        <v>-45000</v>
+        <v>-45100</v>
       </c>
       <c r="J27" s="3">
-        <v>-55600</v>
+        <v>-55700</v>
       </c>
       <c r="K27" s="3">
         <v>-31100</v>
@@ -1663,7 +1663,7 @@
         <v>-19500</v>
       </c>
       <c r="E32" s="3">
-        <v>-17800</v>
+        <v>-17900</v>
       </c>
       <c r="F32" s="3">
         <v>-5500</v>
@@ -1672,7 +1672,7 @@
         <v>-8600</v>
       </c>
       <c r="H32" s="3">
-        <v>-6600</v>
+        <v>-6700</v>
       </c>
       <c r="I32" s="3">
         <v>400</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-208000</v>
+        <v>-208500</v>
       </c>
       <c r="E33" s="3">
-        <v>-181000</v>
+        <v>-181400</v>
       </c>
       <c r="F33" s="3">
-        <v>-101600</v>
+        <v>-101900</v>
       </c>
       <c r="G33" s="3">
-        <v>-68900</v>
+        <v>-69100</v>
       </c>
       <c r="H33" s="3">
-        <v>-59300</v>
+        <v>-59400</v>
       </c>
       <c r="I33" s="3">
-        <v>-45000</v>
+        <v>-45100</v>
       </c>
       <c r="J33" s="3">
-        <v>-55600</v>
+        <v>-55700</v>
       </c>
       <c r="K33" s="3">
         <v>-31100</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-208000</v>
+        <v>-208500</v>
       </c>
       <c r="E35" s="3">
-        <v>-181000</v>
+        <v>-181400</v>
       </c>
       <c r="F35" s="3">
-        <v>-101600</v>
+        <v>-101900</v>
       </c>
       <c r="G35" s="3">
-        <v>-68900</v>
+        <v>-69100</v>
       </c>
       <c r="H35" s="3">
-        <v>-59300</v>
+        <v>-59400</v>
       </c>
       <c r="I35" s="3">
-        <v>-45000</v>
+        <v>-45100</v>
       </c>
       <c r="J35" s="3">
-        <v>-55600</v>
+        <v>-55700</v>
       </c>
       <c r="K35" s="3">
         <v>-31100</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1186000</v>
+        <v>1188600</v>
       </c>
       <c r="E41" s="3">
-        <v>1373400</v>
+        <v>1376400</v>
       </c>
       <c r="F41" s="3">
-        <v>2240200</v>
+        <v>2245100</v>
       </c>
       <c r="G41" s="3">
-        <v>800600</v>
+        <v>802400</v>
       </c>
       <c r="H41" s="3">
-        <v>297800</v>
+        <v>298500</v>
       </c>
       <c r="I41" s="3">
-        <v>258100</v>
+        <v>258700</v>
       </c>
       <c r="J41" s="3">
-        <v>249600</v>
+        <v>250100</v>
       </c>
       <c r="K41" s="3">
         <v>132800</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>354200</v>
+        <v>355000</v>
       </c>
       <c r="E43" s="3">
-        <v>270300</v>
+        <v>270900</v>
       </c>
       <c r="F43" s="3">
-        <v>225400</v>
+        <v>225900</v>
       </c>
       <c r="G43" s="3">
-        <v>139200</v>
+        <v>139500</v>
       </c>
       <c r="H43" s="3">
-        <v>96500</v>
+        <v>96700</v>
       </c>
       <c r="I43" s="3">
-        <v>65700</v>
+        <v>65900</v>
       </c>
       <c r="J43" s="3">
-        <v>37500</v>
+        <v>37600</v>
       </c>
       <c r="K43" s="3">
         <v>24600</v>
@@ -2079,16 +2079,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>106400</v>
+        <v>106600</v>
       </c>
       <c r="E45" s="3">
-        <v>349100</v>
+        <v>349900</v>
       </c>
       <c r="F45" s="3">
-        <v>58300</v>
+        <v>58500</v>
       </c>
       <c r="G45" s="3">
-        <v>36300</v>
+        <v>36400</v>
       </c>
       <c r="H45" s="3">
         <v>24200</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1646600</v>
+        <v>1650200</v>
       </c>
       <c r="E46" s="3">
-        <v>1992800</v>
+        <v>1997200</v>
       </c>
       <c r="F46" s="3">
-        <v>2524000</v>
+        <v>2529500</v>
       </c>
       <c r="G46" s="3">
-        <v>976100</v>
+        <v>978300</v>
       </c>
       <c r="H46" s="3">
-        <v>418500</v>
+        <v>419400</v>
       </c>
       <c r="I46" s="3">
-        <v>338100</v>
+        <v>338900</v>
       </c>
       <c r="J46" s="3">
-        <v>304500</v>
+        <v>305200</v>
       </c>
       <c r="K46" s="3">
         <v>170400</v>
@@ -2163,25 +2163,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>159200</v>
+        <v>159600</v>
       </c>
       <c r="E47" s="3">
-        <v>305700</v>
+        <v>306400</v>
       </c>
       <c r="F47" s="3">
-        <v>199200</v>
+        <v>199600</v>
       </c>
       <c r="G47" s="3">
-        <v>122400</v>
+        <v>122700</v>
       </c>
       <c r="H47" s="3">
-        <v>67300</v>
+        <v>67500</v>
       </c>
       <c r="I47" s="3">
-        <v>40000</v>
+        <v>40100</v>
       </c>
       <c r="J47" s="3">
-        <v>13600</v>
+        <v>13700</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2205,25 +2205,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7240400</v>
+        <v>7256200</v>
       </c>
       <c r="E48" s="3">
-        <v>6152400</v>
+        <v>6165800</v>
       </c>
       <c r="F48" s="3">
-        <v>4499300</v>
+        <v>4509100</v>
       </c>
       <c r="G48" s="3">
-        <v>2753000</v>
+        <v>2759000</v>
       </c>
       <c r="H48" s="3">
-        <v>1928200</v>
+        <v>1932400</v>
       </c>
       <c r="I48" s="3">
-        <v>1125100</v>
+        <v>1127500</v>
       </c>
       <c r="J48" s="3">
-        <v>595600</v>
+        <v>596900</v>
       </c>
       <c r="K48" s="3">
         <v>360900</v>
@@ -2247,25 +2247,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1119400</v>
+        <v>1121800</v>
       </c>
       <c r="E49" s="3">
-        <v>1151700</v>
+        <v>1154200</v>
       </c>
       <c r="F49" s="3">
-        <v>465900</v>
+        <v>466900</v>
       </c>
       <c r="G49" s="3">
-        <v>317000</v>
+        <v>317600</v>
       </c>
       <c r="H49" s="3">
-        <v>307900</v>
+        <v>308500</v>
       </c>
       <c r="I49" s="3">
-        <v>264400</v>
+        <v>265000</v>
       </c>
       <c r="J49" s="3">
-        <v>197500</v>
+        <v>198000</v>
       </c>
       <c r="K49" s="3">
         <v>196800</v>
@@ -2373,25 +2373,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>142300</v>
+        <v>142600</v>
       </c>
       <c r="E52" s="3">
-        <v>266800</v>
+        <v>267400</v>
       </c>
       <c r="F52" s="3">
-        <v>200700</v>
+        <v>201200</v>
       </c>
       <c r="G52" s="3">
-        <v>170500</v>
+        <v>170900</v>
       </c>
       <c r="H52" s="3">
-        <v>155700</v>
+        <v>156000</v>
       </c>
       <c r="I52" s="3">
-        <v>43500</v>
+        <v>43600</v>
       </c>
       <c r="J52" s="3">
-        <v>19000</v>
+        <v>19100</v>
       </c>
       <c r="K52" s="3">
         <v>12500</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10307900</v>
+        <v>10330300</v>
       </c>
       <c r="E54" s="3">
-        <v>9869500</v>
+        <v>9891000</v>
       </c>
       <c r="F54" s="3">
-        <v>7889100</v>
+        <v>7906300</v>
       </c>
       <c r="G54" s="3">
-        <v>4339000</v>
+        <v>4348500</v>
       </c>
       <c r="H54" s="3">
-        <v>2877600</v>
+        <v>2883800</v>
       </c>
       <c r="I54" s="3">
-        <v>1811100</v>
+        <v>1815000</v>
       </c>
       <c r="J54" s="3">
-        <v>1130300</v>
+        <v>1132800</v>
       </c>
       <c r="K54" s="3">
         <v>736500</v>
@@ -2535,25 +2535,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>426100</v>
+        <v>427100</v>
       </c>
       <c r="E57" s="3">
-        <v>537600</v>
+        <v>538800</v>
       </c>
       <c r="F57" s="3">
-        <v>503900</v>
+        <v>505000</v>
       </c>
       <c r="G57" s="3">
-        <v>230900</v>
+        <v>231400</v>
       </c>
       <c r="H57" s="3">
-        <v>207800</v>
+        <v>208200</v>
       </c>
       <c r="I57" s="3">
-        <v>153000</v>
+        <v>153300</v>
       </c>
       <c r="J57" s="3">
-        <v>70800</v>
+        <v>70900</v>
       </c>
       <c r="K57" s="3">
         <v>31000</v>
@@ -2577,25 +2577,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>849000</v>
+        <v>850800</v>
       </c>
       <c r="E58" s="3">
-        <v>915800</v>
+        <v>917800</v>
       </c>
       <c r="F58" s="3">
-        <v>331700</v>
+        <v>332500</v>
       </c>
       <c r="G58" s="3">
-        <v>187400</v>
+        <v>187800</v>
       </c>
       <c r="H58" s="3">
-        <v>199800</v>
+        <v>200200</v>
       </c>
       <c r="I58" s="3">
-        <v>122400</v>
+        <v>122700</v>
       </c>
       <c r="J58" s="3">
-        <v>98800</v>
+        <v>99000</v>
       </c>
       <c r="K58" s="3">
         <v>78200</v>
@@ -2619,22 +2619,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>185800</v>
+        <v>186200</v>
       </c>
       <c r="E59" s="3">
-        <v>401800</v>
+        <v>402700</v>
       </c>
       <c r="F59" s="3">
-        <v>217500</v>
+        <v>218000</v>
       </c>
       <c r="G59" s="3">
-        <v>132700</v>
+        <v>133000</v>
       </c>
       <c r="H59" s="3">
-        <v>75700</v>
+        <v>75900</v>
       </c>
       <c r="I59" s="3">
-        <v>58500</v>
+        <v>58600</v>
       </c>
       <c r="J59" s="3">
         <v>34300</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1460900</v>
+        <v>1464100</v>
       </c>
       <c r="E60" s="3">
-        <v>1855200</v>
+        <v>1859300</v>
       </c>
       <c r="F60" s="3">
-        <v>1053200</v>
+        <v>1055500</v>
       </c>
       <c r="G60" s="3">
-        <v>551100</v>
+        <v>552300</v>
       </c>
       <c r="H60" s="3">
-        <v>483300</v>
+        <v>484400</v>
       </c>
       <c r="I60" s="3">
-        <v>333900</v>
+        <v>334600</v>
       </c>
       <c r="J60" s="3">
-        <v>203800</v>
+        <v>204300</v>
       </c>
       <c r="K60" s="3">
         <v>132900</v>
@@ -2703,25 +2703,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5060600</v>
+        <v>5071600</v>
       </c>
       <c r="E61" s="3">
-        <v>4011300</v>
+        <v>4020000</v>
       </c>
       <c r="F61" s="3">
-        <v>2837300</v>
+        <v>2843500</v>
       </c>
       <c r="G61" s="3">
-        <v>2043200</v>
+        <v>2047600</v>
       </c>
       <c r="H61" s="3">
-        <v>1562800</v>
+        <v>1566200</v>
       </c>
       <c r="I61" s="3">
-        <v>794000</v>
+        <v>795700</v>
       </c>
       <c r="J61" s="3">
-        <v>492300</v>
+        <v>493400</v>
       </c>
       <c r="K61" s="3">
         <v>291800</v>
@@ -2745,25 +2745,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>454200</v>
+        <v>455200</v>
       </c>
       <c r="E62" s="3">
-        <v>435000</v>
+        <v>435900</v>
       </c>
       <c r="F62" s="3">
-        <v>324400</v>
+        <v>325100</v>
       </c>
       <c r="G62" s="3">
-        <v>180200</v>
+        <v>180600</v>
       </c>
       <c r="H62" s="3">
-        <v>70600</v>
+        <v>70800</v>
       </c>
       <c r="I62" s="3">
-        <v>66600</v>
+        <v>66700</v>
       </c>
       <c r="J62" s="3">
-        <v>22700</v>
+        <v>22800</v>
       </c>
       <c r="K62" s="3">
         <v>16800</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6991800</v>
+        <v>7007000</v>
       </c>
       <c r="E66" s="3">
-        <v>6365500</v>
+        <v>6379300</v>
       </c>
       <c r="F66" s="3">
-        <v>4231500</v>
+        <v>4240700</v>
       </c>
       <c r="G66" s="3">
-        <v>2774500</v>
+        <v>2780500</v>
       </c>
       <c r="H66" s="3">
-        <v>2116800</v>
+        <v>2121400</v>
       </c>
       <c r="I66" s="3">
-        <v>1194400</v>
+        <v>1197000</v>
       </c>
       <c r="J66" s="3">
-        <v>718900</v>
+        <v>720400</v>
       </c>
       <c r="K66" s="3">
         <v>441400</v>
@@ -3057,16 +3057,16 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>144300</v>
+        <v>144600</v>
       </c>
       <c r="E70" s="3">
-        <v>132100</v>
+        <v>132300</v>
       </c>
       <c r="F70" s="3">
-        <v>135100</v>
+        <v>135400</v>
       </c>
       <c r="G70" s="3">
-        <v>146300</v>
+        <v>146600</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-713700</v>
+        <v>-715200</v>
       </c>
       <c r="E72" s="3">
-        <v>-538800</v>
+        <v>-540000</v>
       </c>
       <c r="F72" s="3">
-        <v>-375300</v>
+        <v>-376100</v>
       </c>
       <c r="G72" s="3">
-        <v>-283400</v>
+        <v>-284100</v>
       </c>
       <c r="H72" s="3">
-        <v>-222500</v>
+        <v>-223000</v>
       </c>
       <c r="I72" s="3">
-        <v>-163300</v>
+        <v>-163700</v>
       </c>
       <c r="J72" s="3">
-        <v>-118300</v>
+        <v>-118600</v>
       </c>
       <c r="K72" s="3">
         <v>-83600</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3171800</v>
+        <v>3178700</v>
       </c>
       <c r="E76" s="3">
-        <v>3372000</v>
+        <v>3379400</v>
       </c>
       <c r="F76" s="3">
-        <v>3522500</v>
+        <v>3530200</v>
       </c>
       <c r="G76" s="3">
-        <v>1418300</v>
+        <v>1421400</v>
       </c>
       <c r="H76" s="3">
-        <v>760800</v>
+        <v>762500</v>
       </c>
       <c r="I76" s="3">
-        <v>616600</v>
+        <v>618000</v>
       </c>
       <c r="J76" s="3">
-        <v>411500</v>
+        <v>412400</v>
       </c>
       <c r="K76" s="3">
         <v>-48900</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-208000</v>
+        <v>-208500</v>
       </c>
       <c r="E81" s="3">
-        <v>-181000</v>
+        <v>-181400</v>
       </c>
       <c r="F81" s="3">
-        <v>-101600</v>
+        <v>-101900</v>
       </c>
       <c r="G81" s="3">
-        <v>-68900</v>
+        <v>-69100</v>
       </c>
       <c r="H81" s="3">
-        <v>-59300</v>
+        <v>-59400</v>
       </c>
       <c r="I81" s="3">
-        <v>-45000</v>
+        <v>-45100</v>
       </c>
       <c r="J81" s="3">
-        <v>-55600</v>
+        <v>-55700</v>
       </c>
       <c r="K81" s="3">
         <v>-31100</v>
@@ -3500,25 +3500,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>439400</v>
+        <v>440300</v>
       </c>
       <c r="E83" s="3">
-        <v>360600</v>
+        <v>361300</v>
       </c>
       <c r="F83" s="3">
-        <v>225700</v>
+        <v>226200</v>
       </c>
       <c r="G83" s="3">
-        <v>157300</v>
+        <v>157700</v>
       </c>
       <c r="H83" s="3">
-        <v>102200</v>
+        <v>102400</v>
       </c>
       <c r="I83" s="3">
-        <v>52100</v>
+        <v>52200</v>
       </c>
       <c r="J83" s="3">
-        <v>31300</v>
+        <v>31400</v>
       </c>
       <c r="K83" s="3">
         <v>20900</v>
@@ -3752,22 +3752,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>393800</v>
+        <v>394600</v>
       </c>
       <c r="E89" s="3">
-        <v>165500</v>
+        <v>165900</v>
       </c>
       <c r="F89" s="3">
-        <v>44200</v>
+        <v>44300</v>
       </c>
       <c r="G89" s="3">
-        <v>40400</v>
+        <v>40500</v>
       </c>
       <c r="H89" s="3">
         <v>-1800</v>
       </c>
       <c r="I89" s="3">
-        <v>-23100</v>
+        <v>-23200</v>
       </c>
       <c r="J89" s="3">
         <v>-17800</v>
@@ -3812,25 +3812,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1081200</v>
+        <v>-1083600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1336500</v>
+        <v>-1339500</v>
       </c>
       <c r="F91" s="3">
-        <v>-1107300</v>
+        <v>-1109700</v>
       </c>
       <c r="G91" s="3">
-        <v>-628000</v>
+        <v>-629300</v>
       </c>
       <c r="H91" s="3">
-        <v>-587100</v>
+        <v>-588400</v>
       </c>
       <c r="I91" s="3">
-        <v>-237000</v>
+        <v>-237500</v>
       </c>
       <c r="J91" s="3">
-        <v>-136100</v>
+        <v>-136400</v>
       </c>
       <c r="K91" s="3">
         <v>-105300</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1553500</v>
+        <v>-1556800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1886400</v>
+        <v>-1890500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1292100</v>
+        <v>-1294900</v>
       </c>
       <c r="G94" s="3">
-        <v>-707000</v>
+        <v>-708500</v>
       </c>
       <c r="H94" s="3">
-        <v>-652100</v>
+        <v>-653500</v>
       </c>
       <c r="I94" s="3">
-        <v>-276300</v>
+        <v>-276900</v>
       </c>
       <c r="J94" s="3">
-        <v>-158000</v>
+        <v>-158400</v>
       </c>
       <c r="K94" s="3">
         <v>-105100</v>
@@ -4007,7 +4007,7 @@
         <v>-9000</v>
       </c>
       <c r="G96" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-10500</v>
+        <v>-10600</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>669100</v>
+        <v>670600</v>
       </c>
       <c r="E100" s="3">
-        <v>1118700</v>
+        <v>1121100</v>
       </c>
       <c r="F100" s="3">
-        <v>2775400</v>
+        <v>2781400</v>
       </c>
       <c r="G100" s="3">
-        <v>1152100</v>
+        <v>1154600</v>
       </c>
       <c r="H100" s="3">
-        <v>671900</v>
+        <v>673400</v>
       </c>
       <c r="I100" s="3">
-        <v>324600</v>
+        <v>325300</v>
       </c>
       <c r="J100" s="3">
-        <v>293300</v>
+        <v>293900</v>
       </c>
       <c r="K100" s="3">
         <v>162000</v>
@@ -4208,25 +4208,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>57300</v>
+        <v>57500</v>
       </c>
       <c r="E101" s="3">
         <v>-13200</v>
       </c>
       <c r="F101" s="3">
-        <v>-78100</v>
+        <v>-78300</v>
       </c>
       <c r="G101" s="3">
-        <v>22600</v>
+        <v>22700</v>
       </c>
       <c r="H101" s="3">
-        <v>28400</v>
+        <v>28500</v>
       </c>
       <c r="I101" s="3">
-        <v>-10200</v>
+        <v>-10300</v>
       </c>
       <c r="J101" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="K101" s="3">
         <v>300</v>
@@ -4250,25 +4250,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-433200</v>
+        <v>-434200</v>
       </c>
       <c r="E102" s="3">
-        <v>-615400</v>
+        <v>-616700</v>
       </c>
       <c r="F102" s="3">
-        <v>1449400</v>
+        <v>1452600</v>
       </c>
       <c r="G102" s="3">
-        <v>508200</v>
+        <v>509300</v>
       </c>
       <c r="H102" s="3">
-        <v>46500</v>
+        <v>46600</v>
       </c>
       <c r="I102" s="3">
         <v>15000</v>
       </c>
       <c r="J102" s="3">
-        <v>125100</v>
+        <v>125400</v>
       </c>
       <c r="K102" s="3">
         <v>45600</v>
